--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\PycharmProjects\pythonProject\.venv\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D549C080-AFC3-48E7-B255-C271A03318AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89B59D-479D-4D92-9599-A3DB7692E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="3975" windowWidth="19995" windowHeight="9030" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="1410" yWindow="3855" windowWidth="30465" windowHeight="16290" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>Object</t>
   </si>
@@ -67,58 +67,175 @@
     <t>VRSM_000001000220</t>
   </si>
   <si>
-    <t>G000000635</t>
-  </si>
-  <si>
-    <t>CSCALA_1721$FK5</t>
-  </si>
-  <si>
-    <t>G000000710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPNA_1000US20132801 </t>
-  </si>
-  <si>
-    <t>G000000754</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10GM8028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000633 </t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL10C05200</t>
-  </si>
-  <si>
-    <t>G000000181</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$SG10GM8006</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40703109 HR MBS REFACT</t>
-  </si>
-  <si>
-    <t>G000001173</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40703100 MBS HR R2P FR 1401</t>
-  </si>
-  <si>
-    <t>ITEMPEU_009000000980</t>
-  </si>
-  <si>
-    <t>CSCALA_1212$0000001100 IT Infrastructure</t>
-  </si>
-  <si>
-    <t>G000000630</t>
-  </si>
-  <si>
-    <t>CSCALA_1212$0000001110 IT Infrastructure local</t>
-  </si>
-  <si>
-    <t>FR6245228</t>
+    <t>PLEAN_X310201CH6802046 ESHRE global FD2 costs-1261 Germany ISS</t>
+  </si>
+  <si>
+    <t>H000000941</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110 GBE&amp;I</t>
+  </si>
+  <si>
+    <t>H000000940</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009101110 7001IC1261SP3110350000</t>
+  </si>
+  <si>
+    <t>ITEMPEU_003200004205 Menactrim - F60 - Maven</t>
+  </si>
+  <si>
+    <t>H000004342</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
+  </si>
+  <si>
+    <t>H000000944</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_P96</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_Q03</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_P93</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_P98</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_P94</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_P95</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_Q05</t>
+  </si>
+  <si>
+    <t>PLEAN_X310802AE5023601 MED OTHER NON R&amp;D-F60-SHARED</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$EFAN</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A107_H99</t>
+  </si>
+  <si>
+    <t>H000000939</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A110_H99</t>
+  </si>
+  <si>
+    <t>PLEAN_X310802AE5023601</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70006202991333 </t>
+  </si>
+  <si>
+    <t>G000000126</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007001433297 MESI REG BP Regional Business Excellence</t>
+  </si>
+  <si>
+    <t>H000000434</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_W08</t>
+  </si>
+  <si>
+    <t>H000000423</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$FEPM_F78</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_F02</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_E04</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_C31</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_C99</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_D89</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_I68</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_I69</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_T90</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_T93</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_C10</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_C96</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009101154 7001IC1042SI3110250000</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BPFE_I67</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSIS_T55</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_T55</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_T91</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1044BPEX BPEX</t>
+  </si>
+  <si>
+    <t>H000000430</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502981545 IS Market Access - Tepmetko</t>
+  </si>
+  <si>
+    <t>H000001240</t>
+  </si>
+  <si>
+    <t>FR6263998</t>
+  </si>
+  <si>
+    <t>FR6264052</t>
+  </si>
+  <si>
+    <t>FR6264126</t>
+  </si>
+  <si>
+    <t>FR6264388</t>
+  </si>
+  <si>
+    <t>FR6264402</t>
+  </si>
+  <si>
+    <t>FR6264409</t>
   </si>
 </sst>
 </file>
@@ -830,7 +947,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1192,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,126 +1339,467 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="169"/>
+  <conditionalFormatting sqref="A1:A43 A58:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+  <conditionalFormatting sqref="A1:A43 A58:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="176"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89B59D-479D-4D92-9599-A3DB7692E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4672C40-DC3A-4E1A-9D67-F53477C2C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3855" windowWidth="30465" windowHeight="16290" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-57720" yWindow="-885" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Object</t>
   </si>
@@ -67,175 +78,55 @@
     <t>VRSM_000001000220</t>
   </si>
   <si>
-    <t>PLEAN_X310201CH6802046 ESHRE global FD2 costs-1261 Germany ISS</t>
-  </si>
-  <si>
-    <t>H000000941</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110 GBE&amp;I</t>
-  </si>
-  <si>
-    <t>H000000940</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101110 7001IC1261SP3110350000</t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200004205 Menactrim - F60 - Maven</t>
-  </si>
-  <si>
-    <t>H000004342</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
-  </si>
-  <si>
-    <t>H000000944</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P96</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_Q03</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P93</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P98</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P94</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P95</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_Q05</t>
-  </si>
-  <si>
-    <t>PLEAN_X310802AE5023601 MED OTHER NON R&amp;D-F60-SHARED</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$EFAN</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A107_H99</t>
-  </si>
-  <si>
-    <t>H000000939</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_H99</t>
-  </si>
-  <si>
-    <t>PLEAN_X310802AE5023601</t>
-  </si>
-  <si>
-    <t>PLEAN_X310512AE5023601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006202991333 </t>
-  </si>
-  <si>
-    <t>G000000126</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001433297 MESI REG BP Regional Business Excellence</t>
-  </si>
-  <si>
-    <t>H000000434</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_W08</t>
-  </si>
-  <si>
-    <t>H000000423</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$FEPM_F78</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_F02</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_E04</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_C31</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C99</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_D89</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_I68</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_I69</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T90</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T93</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C10</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C96</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101154 7001IC1042SI3110250000</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BPFE_I67</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSIS_T55</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_T55</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T91</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044BPEX BPEX</t>
-  </si>
-  <si>
-    <t>H000000430</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502981545 IS Market Access - Tepmetko</t>
-  </si>
-  <si>
-    <t>H000001240</t>
-  </si>
-  <si>
-    <t>FR6263998</t>
-  </si>
-  <si>
-    <t>FR6264052</t>
-  </si>
-  <si>
-    <t>FR6264126</t>
-  </si>
-  <si>
-    <t>FR6264388</t>
-  </si>
-  <si>
-    <t>FR6264402</t>
-  </si>
-  <si>
-    <t>FR6264409</t>
+    <t>CTEMPEU_1000GB10005810 MBS FS&amp;P PO - Management</t>
+  </si>
+  <si>
+    <t>G000000713</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40MS1023</t>
+  </si>
+  <si>
+    <t>P000000461</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000551103 Electronics Efficiency Initiative</t>
+  </si>
+  <si>
+    <t>P000000559</t>
+  </si>
+  <si>
+    <t>PHOENX_01010000605000 EL-DS-SVC ValueStreamMgmt. LS CDMO &amp; HC</t>
+  </si>
+  <si>
+    <t>P000000056</t>
+  </si>
+  <si>
+    <t>PHOENX_01010000651400 EL-DS-SG Global Demand &amp; Supply Planning</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511VN5013200 MAV COM Congresses and events</t>
+  </si>
+  <si>
+    <t>H000001326</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10548-191B FIELD FORCE</t>
+  </si>
+  <si>
+    <t>H000000429</t>
+  </si>
+  <si>
+    <t>FR6269610</t>
+  </si>
+  <si>
+    <t>FR6271180</t>
+  </si>
+  <si>
+    <t>FR6271728</t>
+  </si>
+  <si>
+    <t>FR6271782</t>
   </si>
 </sst>
 </file>
@@ -947,15 +838,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1317,7 +1200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1345,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,32 +1247,32 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,409 +1280,35 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43 A58:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="169"/>
+  <conditionalFormatting sqref="A15:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43 A58:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="176"/>
+  <conditionalFormatting sqref="A15:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89B59D-479D-4D92-9599-A3DB7692E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E270488-D400-42FB-B352-E9EC54B55C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3855" windowWidth="30465" windowHeight="16290" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Object</t>
   </si>
@@ -67,175 +67,106 @@
     <t>VRSM_000001000220</t>
   </si>
   <si>
-    <t>PLEAN_X310201CH6802046 ESHRE global FD2 costs-1261 Germany ISS</t>
-  </si>
-  <si>
-    <t>H000000941</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110 GBE&amp;I</t>
-  </si>
-  <si>
-    <t>H000000940</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101110 7001IC1261SP3110350000</t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200004205 Menactrim - F60 - Maven</t>
-  </si>
-  <si>
-    <t>H000004342</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
-  </si>
-  <si>
-    <t>H000000944</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ9F23 IC - Platforms &amp; Processes LatAm BP</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P96</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_Q03</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P93</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P98</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P94</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_P95</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_Q05</t>
-  </si>
-  <si>
-    <t>PLEAN_X310802AE5023601 MED OTHER NON R&amp;D-F60-SHARED</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$EFAN</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A107_H99</t>
-  </si>
-  <si>
-    <t>H000000939</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A110_H99</t>
-  </si>
-  <si>
-    <t>PLEAN_X310802AE5023601</t>
-  </si>
-  <si>
-    <t>PLEAN_X310512AE5023601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006202991333 </t>
-  </si>
-  <si>
-    <t>G000000126</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001433297 MESI REG BP Regional Business Excellence</t>
-  </si>
-  <si>
-    <t>H000000434</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_W08</t>
-  </si>
-  <si>
-    <t>H000000423</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$FEPM_F78</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_F02</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_E04</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_C31</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C99</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_D89</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_I68</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_I69</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T90</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T93</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C10</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_C96</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101154 7001IC1042SI3110250000</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BPFE_I67</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSIS_T55</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_T55</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T91</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044BPEX BPEX</t>
-  </si>
-  <si>
-    <t>H000000430</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502981545 IS Market Access - Tepmetko</t>
-  </si>
-  <si>
-    <t>H000001240</t>
-  </si>
-  <si>
-    <t>FR6263998</t>
-  </si>
-  <si>
-    <t>FR6264052</t>
-  </si>
-  <si>
-    <t>FR6264126</t>
-  </si>
-  <si>
-    <t>FR6264388</t>
-  </si>
-  <si>
-    <t>FR6264402</t>
-  </si>
-  <si>
-    <t>FR6264409</t>
+    <t>CORAERP_MMOR1945.2236</t>
+  </si>
+  <si>
+    <t>L000013726</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L000013050 </t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2083</t>
+  </si>
+  <si>
+    <t>L000013727</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2165</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2115</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2740</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020218</t>
+  </si>
+  <si>
+    <t>L000009971</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056464</t>
+  </si>
+  <si>
+    <t>L000010020</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.5404</t>
+  </si>
+  <si>
+    <t>L000013693</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.5404</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000629510 Quattro-ER &amp; BD Head</t>
+  </si>
+  <si>
+    <t>P000000575</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000629530 Quattro-ER &amp; BD M&amp;S</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000635000 Quattro-PM-LS StrategyPM Strategy</t>
+  </si>
+  <si>
+    <t>D25380000</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000622100 XXXQuattro-PM-BS Strategy&amp;Business Trans</t>
+  </si>
+  <si>
+    <t>CSCALA_1923$B57 Business Strategy Realization &amp; Portf.</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000577785 XXXQuattro-VWR Bonus Payment</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000660800 Quattro-XXXHE R&amp;D</t>
+  </si>
+  <si>
+    <t>CPHOENX_01019182536140 Membership/contribution/fees</t>
+  </si>
+  <si>
+    <t>CPHOENX_01019183536140 XXXMembership/contribution/fees</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000533522 Quattro-PM Geringwertige Wirtschaftsgüte</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000669011 Quattro-PM-OQ Quality &amp; Compliance Mgmt.</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10005642 PM-BE GMD (CORP)</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000500120 Quattro-Data Office PM</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000500131 Quattro-Data Office Projects</t>
+  </si>
+  <si>
+    <t>FR6281945</t>
+  </si>
+  <si>
+    <t>FR6287611</t>
   </si>
 </sst>
 </file>
@@ -947,15 +878,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1317,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,21 +1287,21 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,32 +1309,32 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,142 +1342,142 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,244 +1485,79 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43 A58:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="169"/>
+  <conditionalFormatting sqref="A15:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43 A58:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="176"/>
+  <conditionalFormatting sqref="A15:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E270488-D400-42FB-B352-E9EC54B55C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900614C-CA10-43A4-93E0-8CA5AE071558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-26070" yWindow="2505" windowWidth="24480" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$362</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="479">
   <si>
     <t>Object</t>
   </si>
@@ -67,106 +67,1405 @@
     <t>VRSM_000001000220</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1945.2236</t>
-  </si>
-  <si>
-    <t>L000013726</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L000013050 </t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2083</t>
-  </si>
-  <si>
-    <t>L000013727</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2165</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2115</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2740</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020218</t>
-  </si>
-  <si>
-    <t>L000009971</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056464</t>
-  </si>
-  <si>
-    <t>L000010020</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.5404</t>
-  </si>
-  <si>
-    <t>L000013693</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.5404</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000629510 Quattro-ER &amp; BD Head</t>
-  </si>
-  <si>
     <t>P000000575</t>
   </si>
   <si>
-    <t>CPHOENX_01010000629530 Quattro-ER &amp; BD M&amp;S</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000635000 Quattro-PM-LS StrategyPM Strategy</t>
-  </si>
-  <si>
-    <t>D25380000</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000622100 XXXQuattro-PM-BS Strategy&amp;Business Trans</t>
-  </si>
-  <si>
-    <t>CSCALA_1923$B57 Business Strategy Realization &amp; Portf.</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000577785 XXXQuattro-VWR Bonus Payment</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000660800 Quattro-XXXHE R&amp;D</t>
-  </si>
-  <si>
-    <t>CPHOENX_01019182536140 Membership/contribution/fees</t>
-  </si>
-  <si>
-    <t>CPHOENX_01019183536140 XXXMembership/contribution/fees</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000533522 Quattro-PM Geringwertige Wirtschaftsgüte</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000669011 Quattro-PM-OQ Quality &amp; Compliance Mgmt.</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10005642 PM-BE GMD (CORP)</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000500120 Quattro-Data Office PM</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000500131 Quattro-Data Office Projects</t>
-  </si>
-  <si>
-    <t>FR6281945</t>
-  </si>
-  <si>
-    <t>FR6287611</t>
+    <t>CVRSM_VMCA$$US10PD1201 Dallas Plant Adm</t>
+  </si>
+  <si>
+    <t>P000000523</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10PD2362 Material Planning/Operations</t>
+  </si>
+  <si>
+    <t>P000000803</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10DB3309 Taiwan Planning &amp; Replenishment</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1141 HTN Arsine Make</t>
+  </si>
+  <si>
+    <t>P000000929</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1157 Carlsbad Chemical Engineering</t>
+  </si>
+  <si>
+    <t>P000000527</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15PD2117 KR15 AM Container Preparation</t>
+  </si>
+  <si>
+    <t>P000000528</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10R04005 AM Adv Dep Organosilanes R&amp;D</t>
+  </si>
+  <si>
+    <t>P000000544</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3023 Carlsbad Shipping (Ops)</t>
+  </si>
+  <si>
+    <t>P000000815</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1154 Carlsbad Small Volume Mfg</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3022 US Planning &amp; Replenishment</t>
+  </si>
+  <si>
+    <t>P000000907</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1265 QA Catoosa</t>
+  </si>
+  <si>
+    <t>P000000800</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3021 US Customer Service</t>
+  </si>
+  <si>
+    <t>P000000475</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10R04003 AM Adv Dep Organometallics R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1808 Material Planning/Operations</t>
+  </si>
+  <si>
+    <t>P000000868</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD2252 KR16 Container Prp</t>
+  </si>
+  <si>
+    <t>P000000905</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD2256 Banwol AM Labor Pool</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07PD2001 Korea Operations Admin</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07DB3311 Korea Planning &amp; Replenishment</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07PD2206 QA Banwol</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1007 Material Planning</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07PD2327 Material Planning/Operations</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CA6013 Integration – ISC</t>
+  </si>
+  <si>
+    <t>P000000558</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5005 TW91 Selling Exceptionals and Signage</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6033 Internal Boost Projects</t>
+  </si>
+  <si>
+    <t>P000000586</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5012 TW Materials General</t>
+  </si>
+  <si>
+    <t>P000000425</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG5005 Shanghai Lin Assist - WCQ</t>
+  </si>
+  <si>
+    <t>P000000964</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5027 EL-D Mkt and BusDev US</t>
+  </si>
+  <si>
+    <t>P000000684</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5011 EL-D Mkt Thin Film Materials KR</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11RD4001 EL-DDK PD Advanced Display Materials</t>
+  </si>
+  <si>
+    <t>P000001126</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN10CG1000 RedOx TF project OPE</t>
+  </si>
+  <si>
+    <t>P000000909</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN10CG1001 RedOx SG project OPE</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN10CG1002 ISC PM China</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN10CG1003 RedOx Land</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6031 PM-OCP Process Enablement</t>
+  </si>
+  <si>
+    <t>P000000765</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6053 PM-OCD-U Data Management</t>
+  </si>
+  <si>
+    <t>P000000551</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1012 AM Surf Prep Intangibles (COGS)</t>
+  </si>
+  <si>
+    <t>P000000578</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1014 Project Horizon</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1015 PM-IOQ QA Semicon Materials US</t>
+  </si>
+  <si>
+    <t>P000000487</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1016 PM-OQ Quality &amp; Compliance US</t>
+  </si>
+  <si>
+    <t>P000000708</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1017 PM-IOQ QA Semicon Materials US</t>
+  </si>
+  <si>
+    <t>P000000483</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1018 Global Tech Ops - CMDBS001</t>
+  </si>
+  <si>
+    <t>P000000526</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1019 Global Tech Ops - ADVAD001</t>
+  </si>
+  <si>
+    <t>P000000641</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1020 Global Tech Ops - ADVPP001</t>
+  </si>
+  <si>
+    <t>P000000522</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1026 SG Project Costs</t>
+  </si>
+  <si>
+    <t>P000000513</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1027 TF Project Costs</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1600 Tech Ctr Services-East</t>
+  </si>
+  <si>
+    <t>P000000977</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1605 Austin TX  Infineon Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1606 Chandl AZ NXP Chandl Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1607 Austin TX  NXP Oakhill Megasy</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1609 Austin TX  NXP ATMC Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1610 Santa Clara-Applied Matls Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1613 Fremont CA  Lam Research Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1614 SAMSUNG AUSTIN Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1615 Intel AZ Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1616 CLOSE- Gresham OR  ON Semi Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1617 INTEL FAB 11/11X Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1618 Tualatin OR  Lam Research Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1620 Megasys Central Operations</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1621 Intel Oregon Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1700 DS Polyflow COGS</t>
+  </si>
+  <si>
+    <t>P000000712</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1703 DS Parts Svcs COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1705 DS Gas Cab COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1706 DS BSGS COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1707 DS Chm Eq COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1708 DS QMAC COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1710 DS Mech/Sys Eng</t>
+  </si>
+  <si>
+    <t>P000000554</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1711 DS Polyflow Engineering</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1712 TSMC Fab21-AZ</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1713 Global Tech Ops</t>
+  </si>
+  <si>
+    <t>P000000583</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5001 CLOSE-US General Mgr</t>
+  </si>
+  <si>
+    <t>P000000536</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD0804 Planar Subcon</t>
+  </si>
+  <si>
+    <t>P000000961</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1004 EM Global Analytical</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1016 CLOSE EL-OTF Project Semicon Engineering</t>
+  </si>
+  <si>
+    <t>P000000635</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1130 Hometown Prod SiH4</t>
+  </si>
+  <si>
+    <t>P000000933</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1137 Hometown H2Se Fill</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1142 HTN Arsine Fill</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1211 Dallas Mazin Blending</t>
+  </si>
+  <si>
+    <t>P000001066</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1214 Dallas STI Blending</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1257 Catoosa POCl3 Dstl</t>
+  </si>
+  <si>
+    <t>P000000949</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1301 Tempe UPW</t>
+  </si>
+  <si>
+    <t>P000001064</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1307 Tempe TT 350 Blending &amp; Packaging</t>
+  </si>
+  <si>
+    <t>P000000888</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4001 CLOSE-Scale Up Engineering R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001012</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4007 Tech Advanced Analytical R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4011 PM-OT SCALE UP ENG R&amp;D</t>
+  </si>
+  <si>
+    <t>P000000549</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5008 Advanced Materials Quality</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5016 SABF Selling</t>
+  </si>
+  <si>
+    <t>P000000538</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5017 Patterning G&amp;A</t>
+  </si>
+  <si>
+    <t>P000000534</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5020 PM-OQR Product Compliance &amp; Sustain US</t>
+  </si>
+  <si>
+    <t>VRSM_VMCA$$US10CG1701</t>
+  </si>
+  <si>
+    <t>P000000978</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1701 US Field Services</t>
+  </si>
+  <si>
+    <t>SVRSM_VMCA$$US10CG1701_IO US Field Services(IO)</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$NL10CG0700 NL DSS COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$NL10SM5003 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$FR10CG0700 FR DSS COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$FR10SM5000 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$GB10CG0700 GB Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$GB10SM5002 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$DE10SM5001 SABF Selling</t>
+  </si>
+  <si>
+    <t>VRSM_VMCA$$DE10CG0700</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$DE10CG0700 DE Field Services</t>
+  </si>
+  <si>
+    <t>SVRSM_VMCA$$DE10CG0700_IO DE Field Services(IO)</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IE10CG0600 Leixlip Intel Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IE10CG0601 IE Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IT07CG0700 IT Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CA6013 PM-OCD-A Data Management</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CG2611 PM-IOQ QA Semicon Materials SG</t>
+  </si>
+  <si>
+    <t>P000000486</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5003 SABF Selling</t>
+  </si>
+  <si>
+    <t>VRSM_VMCA$$SG10CG2609</t>
+  </si>
+  <si>
+    <t>P000000724</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CG2609 SG10 Field Services</t>
+  </si>
+  <si>
+    <t>SVRSM_VMCA$$SG10CG2609_IO SG10 Field Services(IO)</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD0800 Thin Films Subcontracting</t>
+  </si>
+  <si>
+    <t>P000000802</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD2258 Banwol LTN-323 SYNTH</t>
+  </si>
+  <si>
+    <t>P000000822</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD2259 Banwol LTN-323 PURIFY</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN43CG2605 CN43 Intel Dalian Megasys</t>
+  </si>
+  <si>
+    <t>P000000991</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN43CG2606 CN43 Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15CG1026 SG Project Costs</t>
+  </si>
+  <si>
+    <t>P000000906</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15CG1027 TF Project Costs</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15PD2119 Sihwa LTO520 Purify</t>
+  </si>
+  <si>
+    <t>P000000919</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15PD2125 Sihwa Yamuna Transfill</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CG1026 SG Project Costs</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CG6010 PM-OCP-A Process Enablement Asia</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CG6011 PM-IOQ QA Semicon Materials KR</t>
+  </si>
+  <si>
+    <t>P000000904</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CG6012 Global Tech Ops - CMDBS001</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CG6018 EL-OCP-E Process Enablement Korea</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07PD2150 Ulsan ESG NH3 filling</t>
+  </si>
+  <si>
+    <t>P000000911</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07PD2204 KR07 BW Inventory adjustment</t>
+  </si>
+  <si>
+    <t>P000000825</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5000 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5006 PM-OQR Prod Compliance &amp; Sustain KR</t>
+  </si>
+  <si>
+    <t>P000000489</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CG2001 PM-IOQ QA Semicon Materials TW</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91GA5002 Thin Film Marketing and GPM</t>
+  </si>
+  <si>
+    <t>P000000533</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5001 Thin Film Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5008 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG1026 SG Project Costs</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG1027 TF Project Costs</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2701 TW Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2702 PM-OCP-A Process Enablement Asia</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2703 DSS TW Product Line COGS</t>
+  </si>
+  <si>
+    <t>P000000726</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2704 PM-IOQ QA Semicon Materials TW</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2705 Data Management Taiwan</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10GA5003 AMDS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5001 AM Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5004 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5007 Thin Film Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5011 PM-OQR Product Compliance &amp; Sustain TW</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IL10CG0602 Intel Kiryat Gat Fab28 Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IL10CG0700 IL Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$MY10SM5000 AM Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2000 Materials Tech EH&amp;S</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2001 PM-OCP-A Process Enablement Asia</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2602 CN AMAT Xian Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2702 CN09 Field Services</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2704 CXMT Hefei Megasys container change</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2705 YMTC Wuhan Megasys container change</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG5006 PM-IOQ QA Semicon Materials CN</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5001 CLOSE-Electronic Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5003 AM Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5005 SABF Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CG2703 Gas Cab COGS</t>
+  </si>
+  <si>
+    <t>P000000734</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CG2704 Chem Eqmt COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CG2705 BSGS COGS</t>
+  </si>
+  <si>
+    <t>P000000994</t>
+  </si>
+  <si>
+    <t>VRSM_VMCA$$KR08CG2606</t>
+  </si>
+  <si>
+    <t>P000000732</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CG2606 KR08 HYT Field Services</t>
+  </si>
+  <si>
+    <t>SVRSM_VMCA$$KR08CG2606_IO KR08 HYT Field Services(IO)</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11PD2355 Pyeongtaek Oxidation</t>
+  </si>
+  <si>
+    <t>P000001061</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11PD2360 Pyeongtaek Tote Planarization</t>
+  </si>
+  <si>
+    <t>P000001060</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11PD2366 Pyeongtaek PLA SVM Fill</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11RD4000 Pyeongtaek Planarization R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001018</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5011 CN Trade Compliance</t>
+  </si>
+  <si>
+    <t>P000000490</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5007 Thin Film Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4003 AM Adv Dep Organometallics R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4005 AM Adv Dep Organosilanes R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4015 Thin Film Patent</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4021 Analytical Tech. Thin Films</t>
+  </si>
+  <si>
+    <t>P000000799</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5012 Thin Film Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$NL10SM5001 AM Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5001 ThinFilm Sales n App</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CA6010 Thin Film MKT n GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07RD4002 AM Adv Dep R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07RD4005 Analytical Tech. Thin Films</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5001 Thin Film Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5009 Thin Film Marketing and GPM</t>
+  </si>
+  <si>
+    <t>P000000833</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5008 Thin Film Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7060 OM Technology Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7061 OS Technology Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5025 CLOSE-Thin Film Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4006 AM SPC R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001015</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4012 SPC Patent</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5018 Patterning Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5004 Patterning G&amp;A</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5003 Patterning Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91RD4002 TW91 AM SPC R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91RD4004 Analytical Tech. Patterning</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5006 Patterning Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5007 Patterning G&amp;A</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5005 Patterning Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5004 CLOSE- AM SPC Sellng</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7063 Surface Prep Clean Technology Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4004 AM Planarization R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4013 PLA Patent</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4020 Analytical Tech. Planarization</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5009 Planarization Sales and Applications</t>
+  </si>
+  <si>
+    <t>P000000535</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5010 Planarization Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5019 Planarization Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5005 Planarization Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07RD4004 Analytical Tech. Planarization</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5004 Planarization Marketing and GPM</t>
+  </si>
+  <si>
+    <t>P000000902</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5005 Planarization Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91RD4001 TW91 AM PLANARIZATION R&amp;D</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5003 Planarization Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5006 Planarization Sales and Applications</t>
+  </si>
+  <si>
+    <t>P000000901</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7062 Planarization Technology Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5004 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4010 Specialty Gases</t>
+  </si>
+  <si>
+    <t>P000001021</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4014 Spec Gas Patent</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4023 Analytical Tech. Spec. Gases</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5006 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$NL10GA5002 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$NL10SM5000 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$DE10SM5000 PM Selling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$DE10SM5002 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IE10SM5000 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IT07SM5000 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5002 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16SM5000 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07RD4006 Analytical Tech. Spec. Gases</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5007 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91SM5015 SG GPM and Marketing</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5000 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5006 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09GA5000 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5002 Spec Gas Sales and Applications</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5006 Spec Gas Marketing and GPM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7064 Spec Gas Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1023 ISC Synergy Proj Exp -HT</t>
+  </si>
+  <si>
+    <t>P000000478</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$GB10SM5000 PM-IOL-Y SC Planning</t>
+  </si>
+  <si>
+    <t>P000000643</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IT07PD0800 Italy Subcontracting</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CA6008 CLOSE-Korea EHS</t>
+  </si>
+  <si>
+    <t>P000000957</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CG2706 Engineering Project Management</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CG2703 GasStar COGS</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3300 PM NH3 Fleet Deprec</t>
+  </si>
+  <si>
+    <t>P000000470</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3302 PM NF3 Fleet Deprec</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3307 AM Fleet Depreciation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16DB3301 Fleet Depreciation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16PD2260 Banwol LTN-323 Fill</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10DB3303 SG10 Singapore PM Fleet</t>
+  </si>
+  <si>
+    <t>P000000469</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10DB3302 Taiwan PM Fleet</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10DB3306 AM Fleet Deprec</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CG1612 HEWLETT PACKARD BOISE ID Megasys</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3001 NA Warehouse Operations</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10PD1311 Tempe TT 1000</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4000 Global RD</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5013 SM - Business Analytics</t>
+  </si>
+  <si>
+    <t>P000000411</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10SM5010 Business Analytics</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09CA6005 China Performance Materials Managing Dir</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09RD0000 ETCC cost</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5005 DSS G&amp;A US10</t>
+  </si>
+  <si>
+    <t>P000000705</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5010 Expat Dummy CC</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5011 DSS Patents US10</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IE10SM5001 DSS Selling IE10</t>
+  </si>
+  <si>
+    <t>P000000707</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91GA5005 DSS G&amp;A TW91</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5002 DSS Selling TW10</t>
+  </si>
+  <si>
+    <t>P000000721</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5004 DSS Selling CN09</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CA6001 DSS G&amp;A KR08</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CA6002 DSS Selling KR08</t>
+  </si>
+  <si>
+    <t>P000000728</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08SM5000 DSS Selling KR08</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$IT07SM5001 DSS Selling IT10</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10AL7055 DS Allocation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10RD4008 CTO Organization</t>
+  </si>
+  <si>
+    <t>P000000646</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CA6019 Internal Boost Projects</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11CA6009 Internal Boost Projects</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6000 Tempe AZ  Facilities</t>
+  </si>
+  <si>
+    <t>P000000524</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6024 Iron Run Admin Facilities</t>
+  </si>
+  <si>
+    <t>P000000420</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6047 US10 PM Apps R&amp;D</t>
+  </si>
+  <si>
+    <t>P000000766</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6050 US10 Transformation &amp; Strategy</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6051 US10 BusPar R&amp;D &amp; Advanced Analytics</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6068 DivCo Insurance US10</t>
+  </si>
+  <si>
+    <t>P000000424</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6070 GOglobal Trainee Program</t>
+  </si>
+  <si>
+    <t>P000000552</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6074 Electronics Data Office US</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10GA5002 Strategic Marketing</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$DE10CA6006 DivCo Insurance DE10</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CA7007 Bank charges</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16CA6005 DivCo Insurance KR16</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15CA6005 DivCo Insurance KR15</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG11CA6003 Bank charges</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CA6021 DivCo Insurance KR07</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CA6002 General Admin</t>
+  </si>
+  <si>
+    <t>P000000423</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CA6016 GOglobal Trainee Program</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$MY10CA6008 Bank charges</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08CA6007 DivCo Insurance KR08</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR11CA6005 DivCo Insurance KR11</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$BE10CA6000 DivCo Insurance BE10</t>
+  </si>
+  <si>
+    <t>P000000577</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$FR10CA6001 DivCo Insurance FR10</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CA6006 CLOSE Strategy Cent Admin Facilities</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CA7008 Local Admin</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG11CA6004 Local Admin</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CA6012 DivCo Insurance TW10</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10CA6020 Versum TW10- Expense interim</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CA6011 DivCo Insurance TW91</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CA6022 Versum TW91-Expense interim</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6069 Delivery System &amp; Service cost to Merck</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6001 Controlling EL</t>
+  </si>
+  <si>
+    <t>P000000751</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6006 Controlling EL</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6007 Controlling EL</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6026 Electronc Materials Decision Suppor</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6055 Communications PM</t>
+  </si>
+  <si>
+    <t>P000000756</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6057 Sector HR PM US</t>
+  </si>
+  <si>
+    <t>P000000757</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10CA6060 CP - Controlling PM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10SM5023 Procurement Sourcing PM</t>
+  </si>
+  <si>
+    <t>P000000755</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$SG10CA7004 TF Controlling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07CA6006 KR07 Spec Gas Controlling</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07SM5008 Procurement Sourcing PM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW91CA6005 CP - Controlling PM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10SM5009 Procurement Sourcing PM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$CN09SM5009 Procurement Sourcing PM</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR08SM5001 Procurement Sourcing PM</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$1022ITIM</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$1022ITIF</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX10930050</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007001993009</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$1098ITIK</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10006006</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006112AD1L08</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10502031</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10502053</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000TR10GIT111</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PT10A52515</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PT10A52507</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40708100</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$0000000710</t>
+  </si>
+  <si>
+    <t>H000004185</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$0000000400</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CA8322</t>
+  </si>
+  <si>
+    <t>CSCALA_1923$B63</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9438</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9601</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9928</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015184</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051735</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0024065233</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057670</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056668</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056666</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040977</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040633</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000265213</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000265214</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010472</t>
+  </si>
+  <si>
+    <t>G000001238</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010469</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010486</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010236</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010255</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092051</t>
+  </si>
+  <si>
+    <t>G000001233</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010183</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040634</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040636</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000031699</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000496733</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000496731</t>
+  </si>
+  <si>
+    <t>CFLTFLE_22450000002733</t>
+  </si>
+  <si>
+    <t>CFLTFLE_22450000002732</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31150000</t>
+  </si>
+  <si>
+    <t>G000001105</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000TR10AD6201</t>
+  </si>
+  <si>
+    <t>G000001104</t>
+  </si>
+  <si>
+    <t>FR6297578</t>
+  </si>
+  <si>
+    <t>FR6298074</t>
+  </si>
+  <si>
+    <t>FR6298119</t>
   </si>
 </sst>
 </file>
@@ -878,7 +2177,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -926,6 +2225,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1240,10 +2547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="L340" sqref="L340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,288 +2569,3973 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" t="s">
+        <v>200</v>
+      </c>
+      <c r="C140" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" t="s">
+        <v>200</v>
+      </c>
+      <c r="C142" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>214</v>
+      </c>
+      <c r="B144" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>219</v>
+      </c>
+      <c r="B149" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>223</v>
+      </c>
+      <c r="B153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>229</v>
+      </c>
+      <c r="B159" t="s">
+        <v>230</v>
+      </c>
+      <c r="C159" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" t="s">
+        <v>230</v>
+      </c>
+      <c r="C160" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" t="s">
+        <v>233</v>
+      </c>
+      <c r="C161" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" t="s">
+        <v>235</v>
+      </c>
+      <c r="C162" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>236</v>
+      </c>
+      <c r="B163" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>237</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>238</v>
+      </c>
+      <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" t="s">
+        <v>241</v>
+      </c>
+      <c r="C166" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>245</v>
+      </c>
+      <c r="B169" t="s">
+        <v>246</v>
+      </c>
+      <c r="C169" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" t="s">
+        <v>200</v>
+      </c>
+      <c r="C170" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>248</v>
+      </c>
+      <c r="B171" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>249</v>
+      </c>
+      <c r="B172" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>250</v>
+      </c>
+      <c r="B173" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>251</v>
+      </c>
+      <c r="B174" t="s">
+        <v>252</v>
+      </c>
+      <c r="C174" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>253</v>
+      </c>
+      <c r="B175" t="s">
+        <v>200</v>
+      </c>
+      <c r="C175" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>254</v>
+      </c>
+      <c r="B176" t="s">
+        <v>200</v>
+      </c>
+      <c r="C176" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>255</v>
+      </c>
+      <c r="B177" t="s">
+        <v>200</v>
+      </c>
+      <c r="C177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>256</v>
+      </c>
+      <c r="B178" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>258</v>
+      </c>
+      <c r="B180" t="s">
+        <v>252</v>
+      </c>
+      <c r="C180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>259</v>
+      </c>
+      <c r="B181" t="s">
+        <v>200</v>
+      </c>
+      <c r="C181" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>263</v>
+      </c>
+      <c r="B184" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>264</v>
+      </c>
+      <c r="B185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>265</v>
+      </c>
+      <c r="B186" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>266</v>
+      </c>
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>268</v>
+      </c>
+      <c r="B188" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>269</v>
+      </c>
+      <c r="B189" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>270</v>
+      </c>
+      <c r="B190" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>271</v>
+      </c>
+      <c r="B191" t="s">
+        <v>144</v>
+      </c>
+      <c r="C191" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>272</v>
+      </c>
+      <c r="B192" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>273</v>
+      </c>
+      <c r="B193" t="s">
+        <v>252</v>
+      </c>
+      <c r="C193" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>274</v>
+      </c>
+      <c r="B194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>275</v>
+      </c>
+      <c r="B195" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>276</v>
+      </c>
+      <c r="B196" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>277</v>
+      </c>
+      <c r="B197" t="s">
+        <v>144</v>
+      </c>
+      <c r="C197" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>278</v>
+      </c>
+      <c r="B198" t="s">
+        <v>267</v>
+      </c>
+      <c r="C198" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>279</v>
+      </c>
+      <c r="B199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C199" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>280</v>
+      </c>
+      <c r="B200" t="s">
+        <v>244</v>
+      </c>
+      <c r="C200" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>281</v>
+      </c>
+      <c r="B201" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>282</v>
+      </c>
+      <c r="B202" t="s">
+        <v>283</v>
+      </c>
+      <c r="C202" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>284</v>
+      </c>
+      <c r="B203" t="s">
+        <v>283</v>
+      </c>
+      <c r="C203" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>286</v>
+      </c>
+      <c r="B205" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>287</v>
+      </c>
+      <c r="B206" t="s">
+        <v>252</v>
+      </c>
+      <c r="C206" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>288</v>
+      </c>
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+      <c r="C207" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>290</v>
+      </c>
+      <c r="B208" t="s">
+        <v>283</v>
+      </c>
+      <c r="C208" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>291</v>
+      </c>
+      <c r="B209" t="s">
+        <v>244</v>
+      </c>
+      <c r="C209" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>292</v>
+      </c>
+      <c r="B210" t="s">
+        <v>283</v>
+      </c>
+      <c r="C210" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>293</v>
+      </c>
+      <c r="B211" t="s">
+        <v>294</v>
+      </c>
+      <c r="C211" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>295</v>
+      </c>
+      <c r="B212" t="s">
+        <v>244</v>
+      </c>
+      <c r="C212" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>296</v>
+      </c>
+      <c r="B213" t="s">
+        <v>116</v>
+      </c>
+      <c r="C213" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>297</v>
+      </c>
+      <c r="B214" t="s">
+        <v>298</v>
+      </c>
+      <c r="C214" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>299</v>
+      </c>
+      <c r="B215" t="s">
+        <v>298</v>
+      </c>
+      <c r="C215" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216" t="s">
+        <v>252</v>
+      </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>301</v>
+      </c>
+      <c r="B217" t="s">
+        <v>116</v>
+      </c>
+      <c r="C217" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>302</v>
+      </c>
+      <c r="B218" t="s">
+        <v>116</v>
+      </c>
+      <c r="C218" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>303</v>
+      </c>
+      <c r="B219" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>304</v>
+      </c>
+      <c r="B220" t="s">
+        <v>116</v>
+      </c>
+      <c r="C220" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>305</v>
+      </c>
+      <c r="B221" t="s">
+        <v>116</v>
+      </c>
+      <c r="C221" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>306</v>
+      </c>
+      <c r="B222" t="s">
+        <v>116</v>
+      </c>
+      <c r="C222" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>307</v>
+      </c>
+      <c r="B223" t="s">
+        <v>116</v>
+      </c>
+      <c r="C223" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" t="s">
+        <v>116</v>
+      </c>
+      <c r="C224" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>309</v>
+      </c>
+      <c r="B225" t="s">
+        <v>116</v>
+      </c>
+      <c r="C225" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>310</v>
+      </c>
+      <c r="B226" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>311</v>
+      </c>
+      <c r="B227" t="s">
+        <v>116</v>
+      </c>
+      <c r="C227" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>312</v>
+      </c>
+      <c r="B228" t="s">
+        <v>116</v>
+      </c>
+      <c r="C228" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>313</v>
+      </c>
+      <c r="B229" t="s">
+        <v>116</v>
+      </c>
+      <c r="C229" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>314</v>
+      </c>
+      <c r="B230" t="s">
+        <v>116</v>
+      </c>
+      <c r="C230" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>315</v>
+      </c>
+      <c r="B231" t="s">
+        <v>116</v>
+      </c>
+      <c r="C231" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232" t="s">
+        <v>116</v>
+      </c>
+      <c r="C232" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" t="s">
+        <v>116</v>
+      </c>
+      <c r="C233" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>318</v>
+      </c>
+      <c r="B234" t="s">
+        <v>298</v>
+      </c>
+      <c r="C234" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>319</v>
+      </c>
+      <c r="B235" t="s">
+        <v>320</v>
+      </c>
+      <c r="C235" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>321</v>
+      </c>
+      <c r="B236" t="s">
+        <v>322</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>323</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>324</v>
+      </c>
+      <c r="B238" t="s">
+        <v>325</v>
+      </c>
+      <c r="C238" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>326</v>
+      </c>
+      <c r="B239" t="s">
+        <v>121</v>
+      </c>
+      <c r="C239" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>327</v>
+      </c>
+      <c r="B240" t="s">
+        <v>208</v>
+      </c>
+      <c r="C240" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>328</v>
+      </c>
+      <c r="B241" t="s">
+        <v>329</v>
+      </c>
+      <c r="C241" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>330</v>
+      </c>
+      <c r="B242" t="s">
+        <v>329</v>
+      </c>
+      <c r="C242" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>331</v>
+      </c>
+      <c r="B243" t="s">
+        <v>329</v>
+      </c>
+      <c r="C243" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>332</v>
+      </c>
+      <c r="B244" t="s">
+        <v>329</v>
+      </c>
+      <c r="C244" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>333</v>
+      </c>
+      <c r="B245" t="s">
+        <v>174</v>
+      </c>
+      <c r="C245" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>334</v>
+      </c>
+      <c r="B246" t="s">
+        <v>335</v>
+      </c>
+      <c r="C246" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>336</v>
+      </c>
+      <c r="B247" t="s">
+        <v>335</v>
+      </c>
+      <c r="C247" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>337</v>
+      </c>
+      <c r="B248" t="s">
+        <v>335</v>
+      </c>
+      <c r="C248" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" t="s">
+        <v>88</v>
+      </c>
+      <c r="C249" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>339</v>
+      </c>
+      <c r="B250" t="s">
+        <v>34</v>
+      </c>
+      <c r="C250" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>340</v>
+      </c>
+      <c r="B251" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>341</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+      <c r="C252" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>342</v>
+      </c>
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+      <c r="C253" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>344</v>
+      </c>
+      <c r="B254" t="s">
+        <v>343</v>
+      </c>
+      <c r="C254" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>345</v>
+      </c>
+      <c r="B255" t="s">
+        <v>121</v>
+      </c>
+      <c r="C255" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>346</v>
+      </c>
+      <c r="B256" t="s">
+        <v>252</v>
+      </c>
+      <c r="C256" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>347</v>
+      </c>
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>349</v>
+      </c>
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>350</v>
+      </c>
+      <c r="B259" t="s">
+        <v>103</v>
+      </c>
+      <c r="C259" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>351</v>
+      </c>
+      <c r="B260" t="s">
+        <v>352</v>
+      </c>
+      <c r="C260" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>353</v>
+      </c>
+      <c r="B261" t="s">
+        <v>208</v>
+      </c>
+      <c r="C261" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>354</v>
+      </c>
+      <c r="B262" t="s">
+        <v>355</v>
+      </c>
+      <c r="C262" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>356</v>
+      </c>
+      <c r="B263" t="s">
+        <v>355</v>
+      </c>
+      <c r="C263" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>357</v>
+      </c>
+      <c r="B264" t="s">
+        <v>230</v>
+      </c>
+      <c r="C264" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>358</v>
+      </c>
+      <c r="B265" t="s">
+        <v>359</v>
+      </c>
+      <c r="C265" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>360</v>
+      </c>
+      <c r="B266" t="s">
+        <v>359</v>
+      </c>
+      <c r="C266" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>361</v>
+      </c>
+      <c r="B267" t="s">
+        <v>352</v>
+      </c>
+      <c r="C267" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>362</v>
+      </c>
+      <c r="B268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>363</v>
+      </c>
+      <c r="B269" t="s">
+        <v>364</v>
+      </c>
+      <c r="C269" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>365</v>
+      </c>
+      <c r="B270" t="s">
+        <v>50</v>
+      </c>
+      <c r="C270" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>366</v>
+      </c>
+      <c r="B271" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>367</v>
+      </c>
+      <c r="B272" t="s">
+        <v>368</v>
+      </c>
+      <c r="C272" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>369</v>
+      </c>
+      <c r="B273" t="s">
+        <v>370</v>
+      </c>
+      <c r="C273" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>371</v>
+      </c>
+      <c r="B274" t="s">
+        <v>372</v>
+      </c>
+      <c r="C274" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>373</v>
+      </c>
+      <c r="B275" t="s">
+        <v>66</v>
+      </c>
+      <c r="C275" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>374</v>
+      </c>
+      <c r="B276" t="s">
+        <v>372</v>
+      </c>
+      <c r="C276" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>375</v>
+      </c>
+      <c r="B277" t="s">
+        <v>376</v>
+      </c>
+      <c r="C277" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>377</v>
+      </c>
+      <c r="B278" t="s">
+        <v>378</v>
+      </c>
+      <c r="C278" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>379</v>
+      </c>
+      <c r="B279" t="s">
+        <v>68</v>
+      </c>
+      <c r="C279" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>380</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>381</v>
+      </c>
+      <c r="B281" t="s">
+        <v>376</v>
+      </c>
+      <c r="C281" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>382</v>
+      </c>
+      <c r="B282" t="s">
+        <v>376</v>
+      </c>
+      <c r="C282" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>383</v>
+      </c>
+      <c r="B283" t="s">
+        <v>376</v>
+      </c>
+      <c r="C283" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>384</v>
+      </c>
+      <c r="B284" t="s">
+        <v>376</v>
+      </c>
+      <c r="C284" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>385</v>
+      </c>
+      <c r="B285" t="s">
+        <v>376</v>
+      </c>
+      <c r="C285" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>386</v>
+      </c>
+      <c r="B286" t="s">
+        <v>376</v>
+      </c>
+      <c r="C286" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>387</v>
+      </c>
+      <c r="B287" t="s">
+        <v>388</v>
+      </c>
+      <c r="C287" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>389</v>
+      </c>
+      <c r="B288" t="s">
+        <v>378</v>
+      </c>
+      <c r="C288" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>390</v>
+      </c>
+      <c r="B289" t="s">
+        <v>376</v>
+      </c>
+      <c r="C289" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>391</v>
+      </c>
+      <c r="B290" t="s">
+        <v>376</v>
+      </c>
+      <c r="C290" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>392</v>
+      </c>
+      <c r="B291" t="s">
+        <v>376</v>
+      </c>
+      <c r="C291" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>393</v>
+      </c>
+      <c r="B292" t="s">
+        <v>394</v>
+      </c>
+      <c r="C292" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>395</v>
+      </c>
+      <c r="B293" t="s">
+        <v>394</v>
+      </c>
+      <c r="C293" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>396</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>397</v>
+      </c>
+      <c r="B295" t="s">
+        <v>376</v>
+      </c>
+      <c r="C295" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>398</v>
+      </c>
+      <c r="B296" t="s">
+        <v>376</v>
+      </c>
+      <c r="C296" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>399</v>
+      </c>
+      <c r="B297" t="s">
+        <v>376</v>
+      </c>
+      <c r="C297" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>400</v>
+      </c>
+      <c r="B298" t="s">
+        <v>376</v>
+      </c>
+      <c r="C298" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>401</v>
+      </c>
+      <c r="B299" t="s">
+        <v>376</v>
+      </c>
+      <c r="C299" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>402</v>
+      </c>
+      <c r="B300" t="s">
+        <v>376</v>
+      </c>
+      <c r="C300" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>403</v>
+      </c>
+      <c r="B301" t="s">
+        <v>103</v>
+      </c>
+      <c r="C301" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>404</v>
+      </c>
+      <c r="B302" t="s">
+        <v>405</v>
+      </c>
+      <c r="C302" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>406</v>
+      </c>
+      <c r="B303" t="s">
+        <v>405</v>
+      </c>
+      <c r="C303" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>407</v>
+      </c>
+      <c r="B304" t="s">
+        <v>405</v>
+      </c>
+      <c r="C304" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>408</v>
+      </c>
+      <c r="B305" t="s">
+        <v>405</v>
+      </c>
+      <c r="C305" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>409</v>
+      </c>
+      <c r="B306" t="s">
+        <v>410</v>
+      </c>
+      <c r="C306" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>411</v>
+      </c>
+      <c r="B307" t="s">
+        <v>412</v>
+      </c>
+      <c r="C307" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>413</v>
+      </c>
+      <c r="B308" t="s">
+        <v>405</v>
+      </c>
+      <c r="C308" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>414</v>
+      </c>
+      <c r="B309" t="s">
+        <v>415</v>
+      </c>
+      <c r="C309" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>416</v>
+      </c>
+      <c r="B310" t="s">
+        <v>405</v>
+      </c>
+      <c r="C310" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>417</v>
+      </c>
+      <c r="B311" t="s">
+        <v>405</v>
+      </c>
+      <c r="C311" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>418</v>
+      </c>
+      <c r="B312" t="s">
+        <v>415</v>
+      </c>
+      <c r="C312" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>419</v>
+      </c>
+      <c r="B313" t="s">
+        <v>405</v>
+      </c>
+      <c r="C313" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>420</v>
+      </c>
+      <c r="B314" t="s">
+        <v>415</v>
+      </c>
+      <c r="C314" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>421</v>
+      </c>
+      <c r="B315" t="s">
+        <v>415</v>
+      </c>
+      <c r="C315" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>422</v>
+      </c>
+      <c r="B316" t="s">
+        <v>415</v>
+      </c>
+      <c r="C316" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>423</v>
+      </c>
+      <c r="B317" t="s">
+        <v>424</v>
+      </c>
+      <c r="C317" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>425</v>
+      </c>
+      <c r="B318" t="s">
+        <v>424</v>
+      </c>
+      <c r="C318" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>426</v>
+      </c>
+      <c r="B319" t="s">
+        <v>424</v>
+      </c>
+      <c r="C319" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>427</v>
+      </c>
+      <c r="B320" t="s">
+        <v>424</v>
+      </c>
+      <c r="C320" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>428</v>
+      </c>
+      <c r="B321" t="s">
+        <v>424</v>
+      </c>
+      <c r="C321" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>429</v>
+      </c>
+      <c r="B322" t="s">
+        <v>424</v>
+      </c>
+      <c r="C322" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>430</v>
+      </c>
+      <c r="B323" t="s">
+        <v>424</v>
+      </c>
+      <c r="C323" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>431</v>
+      </c>
+      <c r="B324" t="s">
+        <v>424</v>
+      </c>
+      <c r="C324" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>432</v>
+      </c>
+      <c r="B325" t="s">
+        <v>424</v>
+      </c>
+      <c r="C325" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>433</v>
+      </c>
+      <c r="B326" t="s">
+        <v>424</v>
+      </c>
+      <c r="C326" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>434</v>
+      </c>
+      <c r="B327" t="s">
+        <v>424</v>
+      </c>
+      <c r="C327" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>435</v>
+      </c>
+      <c r="B328" t="s">
+        <v>424</v>
+      </c>
+      <c r="C328" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>436</v>
+      </c>
+      <c r="B329" t="s">
+        <v>424</v>
+      </c>
+      <c r="C329" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>437</v>
+      </c>
+      <c r="B330" t="s">
+        <v>438</v>
+      </c>
+      <c r="C330" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>439</v>
+      </c>
+      <c r="B331" t="s">
+        <v>438</v>
+      </c>
+      <c r="C331" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>440</v>
+      </c>
+      <c r="B332" t="s">
+        <v>424</v>
+      </c>
+      <c r="C332" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>441</v>
+      </c>
+      <c r="B333" t="s">
+        <v>424</v>
+      </c>
+      <c r="C333" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>442</v>
+      </c>
+      <c r="B334" t="s">
+        <v>424</v>
+      </c>
+      <c r="C334" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>443</v>
+      </c>
+      <c r="B335" t="s">
+        <v>424</v>
+      </c>
+      <c r="C335" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>444</v>
+      </c>
+      <c r="B336" t="s">
+        <v>424</v>
+      </c>
+      <c r="C336" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>445</v>
+      </c>
+      <c r="B337" t="s">
+        <v>424</v>
+      </c>
+      <c r="C337" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>446</v>
+      </c>
+      <c r="B338" t="s">
+        <v>424</v>
+      </c>
+      <c r="C338" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>447</v>
+      </c>
+      <c r="B339" t="s">
+        <v>448</v>
+      </c>
+      <c r="C339" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>449</v>
+      </c>
+      <c r="B340" t="s">
+        <v>424</v>
+      </c>
+      <c r="C340" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>450</v>
+      </c>
+      <c r="B341" t="s">
+        <v>424</v>
+      </c>
+      <c r="C341" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>451</v>
+      </c>
+      <c r="B342" t="s">
+        <v>424</v>
+      </c>
+      <c r="C342" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>452</v>
+      </c>
+      <c r="B343" t="s">
+        <v>424</v>
+      </c>
+      <c r="C343" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>453</v>
+      </c>
+      <c r="B344" t="s">
+        <v>424</v>
+      </c>
+      <c r="C344" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>454</v>
+      </c>
+      <c r="B345" t="s">
+        <v>424</v>
+      </c>
+      <c r="C345" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>455</v>
+      </c>
+      <c r="B346" t="s">
+        <v>424</v>
+      </c>
+      <c r="C346" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>456</v>
+      </c>
+      <c r="B347" t="s">
+        <v>457</v>
+      </c>
+      <c r="C347" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>458</v>
+      </c>
+      <c r="B348" t="s">
+        <v>448</v>
+      </c>
+      <c r="C348" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>459</v>
+      </c>
+      <c r="B349" t="s">
+        <v>424</v>
+      </c>
+      <c r="C349" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>460</v>
+      </c>
+      <c r="B350" t="s">
+        <v>424</v>
+      </c>
+      <c r="C350" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B351" t="s">
+        <v>424</v>
+      </c>
+      <c r="C351" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>462</v>
+      </c>
+      <c r="B352" t="s">
+        <v>463</v>
+      </c>
+      <c r="C352" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>464</v>
+      </c>
+      <c r="B353" t="s">
+        <v>424</v>
+      </c>
+      <c r="C353" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>465</v>
+      </c>
+      <c r="B354" t="s">
+        <v>424</v>
+      </c>
+      <c r="C354" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>466</v>
+      </c>
+      <c r="B355" t="s">
+        <v>424</v>
+      </c>
+      <c r="C355" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>467</v>
+      </c>
+      <c r="B356" t="s">
+        <v>424</v>
+      </c>
+      <c r="C356" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>468</v>
+      </c>
+      <c r="B357" t="s">
+        <v>424</v>
+      </c>
+      <c r="C357" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>469</v>
+      </c>
+      <c r="B358" t="s">
+        <v>424</v>
+      </c>
+      <c r="C358" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>470</v>
+      </c>
+      <c r="B359" t="s">
+        <v>424</v>
+      </c>
+      <c r="C359" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>471</v>
+      </c>
+      <c r="B360" t="s">
+        <v>424</v>
+      </c>
+      <c r="C360" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>472</v>
+      </c>
+      <c r="B361" t="s">
+        <v>473</v>
+      </c>
+      <c r="C361" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>474</v>
+      </c>
+      <c r="B362" t="s">
+        <v>475</v>
+      </c>
+      <c r="C362" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -1551,13 +6543,13 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="169"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B8B7F-2970-46F9-A348-A5A5D4DDC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4AEEB0-FD66-4432-90E9-CD2C235502D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,28 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4AEEB0-FD66-4432-90E9-CD2C235502D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B6894C-51EC-4456-BAC9-9E088DDEFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Object</t>
   </si>
@@ -37,250 +47,190 @@
     <t>Node</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>TEMPEU_001300003777</t>
-  </si>
-  <si>
-    <t>TEMPEU_001300003778</t>
-  </si>
-  <si>
-    <t>PHOENX_000400761871</t>
-  </si>
-  <si>
-    <t>PHOENX_000400763789</t>
-  </si>
-  <si>
-    <t>TEMPEU_001300003732</t>
-  </si>
-  <si>
-    <t>TEMPEU_001300003766</t>
-  </si>
-  <si>
-    <t>VRSM_000001000218</t>
-  </si>
-  <si>
-    <t>VRSM_000001000219</t>
-  </si>
-  <si>
-    <t>VRSM_000001000220</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$1022ITIM</t>
-  </si>
-  <si>
-    <t>G000001240</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$1022ITIF</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000MX10930050</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001993009</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$1098ITIK</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10006006</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006112AD1L08</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10502031</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10502053</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000TR10GIT111</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PT10A52515</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PT10A52507</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40708100</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$0000000710</t>
-  </si>
-  <si>
-    <t>H000004185</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$0000000400</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US20CA8322</t>
-  </si>
-  <si>
-    <t>CSCALA_1923$B63</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9438</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9601</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9928</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015184</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051735</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0024065233</t>
-  </si>
-  <si>
-    <t>G000000279</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057670</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056668</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056666</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040977</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040633</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000265213</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000265214</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010472</t>
-  </si>
-  <si>
-    <t>G000001238</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010469</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010486</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010236</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010255</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092051</t>
-  </si>
-  <si>
-    <t>G000001233</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010183</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040634</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040636</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000031699</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000496733</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000496731</t>
-  </si>
-  <si>
-    <t>CFLTFLE_22450000002733</t>
-  </si>
-  <si>
-    <t>CFLTFLE_22450000002732</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001993125 RISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000704 </t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000089 </t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100183</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000067 </t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100383</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100385</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100758</t>
-  </si>
-  <si>
-    <t>OL000009818_I</t>
-  </si>
-  <si>
-    <t>L000009818</t>
-  </si>
-  <si>
-    <t>OL000013323_I</t>
-  </si>
-  <si>
-    <t>L000013323</t>
-  </si>
-  <si>
-    <t>OL000013462_I</t>
-  </si>
-  <si>
-    <t>L000013462</t>
-  </si>
-  <si>
-    <t>OL000013500_I</t>
-  </si>
-  <si>
-    <t>L000013500</t>
-  </si>
-  <si>
-    <t>OL000013503_I</t>
-  </si>
-  <si>
-    <t>L000013503</t>
-  </si>
-  <si>
-    <t>FR6304043</t>
-  </si>
-  <si>
-    <t>FR6304728</t>
-  </si>
-  <si>
-    <t>FR6304793</t>
+    <t>CFLTFLE_1098HSE Health, Safety, Environment and Quality</t>
+  </si>
+  <si>
+    <t>P000000435</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098IT-ID IT costs hardware ID</t>
+  </si>
+  <si>
+    <t>P000000688</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098IT-IF IT costs hardware/software IF</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098IT-IK IT costs DC management &amp; Cloud (Infrastructure)</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098IT-IT IT costs Technology Office (Infrastructure)</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098Q Quality</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098PROD Production</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098MARCOM Marketing Communication (M&amp;S)</t>
+  </si>
+  <si>
+    <t>P000000689</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098SCM Supply Chain Management</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098SERVICE Customer Service (M&amp;S)</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098SALENG Sales Engineering (M&amp;S)</t>
+  </si>
+  <si>
+    <t>P000000690</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000059TW0201000000 TW02 Smart Antennas expense_R&amp;D</t>
+  </si>
+  <si>
+    <t>P000000593</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000247TW0201000000 TW02 SA-VA TFT-232 AUO 3.3umExpR&amp;D</t>
+  </si>
+  <si>
+    <t>P000000591</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000547TW0201000000 Reactive Mesogens</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000808DE0401000000 OLED R&amp;D IC Charge Korea</t>
+  </si>
+  <si>
+    <t>P000001126</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000814DE0401000000 Support Appl.Lab Asia</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000816DE0402000000 Next Generation Blue Display</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000827KR0301000000 LGD-NB-23_NY_ML2001 PFAS replacement</t>
+  </si>
+  <si>
+    <t>P000000590</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000827KR0302000000 LGD-NB-23_NY_ML1105 PFAS replacement</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000833KR0301000000 LGD-GamingNB-23_Widerange_VRR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000833KR0302000000 LGD-NB-24_High CR &amp; VRR Low Vop</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000833KR0303000000 LGD-LC-NB-UBFFS-22_High CR &amp; VRR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000837KR0301000000 Maintenance/Process Optimization OLEDS K</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000838DE0401000000 ETM DE</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000838DE0413001000 ETM DE (EL PD)</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000839CN0101000000 ETM CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001094CN0101000000 BOE-OLED-IT-LT1 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001096CN0101000000 BOE-OLED-IT-QT1 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001100CN0101000000 BOE-OLED-mobile-L11+ CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001102CN0101000000 CSOT-OLED-Mobile-C10 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001106CN0101000000 GVO-OLED-IT-tandem CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001108CN0101000000 GVO-OLED-mobile-VM8 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001110CN0101000000 GVO-OLED-mobile-VM9 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001112CN0101000000 SHTM-OLED-Automotive-Tandem CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001114CN0101000000 SHTM-OLED-mobile-T9 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001116CN0101000000 SHTM-OLED-mobile-U10 CN</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001119KR0301000000 LGD-OLED-IT-RDG KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001125KR0301000000 LGD-OLED-mobile-RSO KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001129KR0301000000 LGD-OLED-TV-WBH KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001131KR0301000000 SDC-OLED-IT-T3 KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001137KR0301000000 SDC-OLED-Mobile-M16 KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001139KR0301000000 SDC-OLED-TV-QM3 KR</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001146CN0101000000 SHTM-OLED-IT-Mobile-Tandem CN</t>
+  </si>
+  <si>
+    <t>CFLTFLE_1098D&amp;E Engineering</t>
+  </si>
+  <si>
+    <t>P000000436</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000CO10100002 [ISS] - Temp. GM</t>
+  </si>
+  <si>
+    <t>H000000979</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$5111_V39</t>
+  </si>
+  <si>
+    <t>H000003640</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$AMI4_V39</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$AMI8_A59</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$5111_E49</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$5112_L1</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$6113_L1</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1316,7 @@
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,620 +1324,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
       <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2006,95 +1748,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB6886B-B926-416F-9E18-14155C49FD97}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B6894C-51EC-4456-BAC9-9E088DDEFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C66E3-0E93-41DB-98ED-A853B2CAD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Object</t>
   </si>
@@ -47,190 +36,61 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_1098HSE Health, Safety, Environment and Quality</t>
-  </si>
-  <si>
-    <t>P000000435</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098IT-ID IT costs hardware ID</t>
-  </si>
-  <si>
-    <t>P000000688</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098IT-IF IT costs hardware/software IF</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098IT-IK IT costs DC management &amp; Cloud (Infrastructure)</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098IT-IT IT costs Technology Office (Infrastructure)</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098Q Quality</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098PROD Production</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098MARCOM Marketing Communication (M&amp;S)</t>
-  </si>
-  <si>
-    <t>P000000689</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098SCM Supply Chain Management</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098SERVICE Customer Service (M&amp;S)</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098SALENG Sales Engineering (M&amp;S)</t>
-  </si>
-  <si>
-    <t>P000000690</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000059TW0201000000 TW02 Smart Antennas expense_R&amp;D</t>
-  </si>
-  <si>
-    <t>P000000593</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000247TW0201000000 TW02 SA-VA TFT-232 AUO 3.3umExpR&amp;D</t>
-  </si>
-  <si>
-    <t>P000000591</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000547TW0201000000 Reactive Mesogens</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000808DE0401000000 OLED R&amp;D IC Charge Korea</t>
-  </si>
-  <si>
-    <t>P000001126</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000814DE0401000000 Support Appl.Lab Asia</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000816DE0402000000 Next Generation Blue Display</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000827KR0301000000 LGD-NB-23_NY_ML2001 PFAS replacement</t>
-  </si>
-  <si>
-    <t>P000000590</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000827KR0302000000 LGD-NB-23_NY_ML1105 PFAS replacement</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000833KR0301000000 LGD-GamingNB-23_Widerange_VRR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000833KR0302000000 LGD-NB-24_High CR &amp; VRR Low Vop</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000833KR0303000000 LGD-LC-NB-UBFFS-22_High CR &amp; VRR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000837KR0301000000 Maintenance/Process Optimization OLEDS K</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000838DE0401000000 ETM DE</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000838DE0413001000 ETM DE (EL PD)</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000839CN0101000000 ETM CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001094CN0101000000 BOE-OLED-IT-LT1 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001096CN0101000000 BOE-OLED-IT-QT1 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001100CN0101000000 BOE-OLED-mobile-L11+ CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001102CN0101000000 CSOT-OLED-Mobile-C10 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001106CN0101000000 GVO-OLED-IT-tandem CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001108CN0101000000 GVO-OLED-mobile-VM8 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001110CN0101000000 GVO-OLED-mobile-VM9 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001112CN0101000000 SHTM-OLED-Automotive-Tandem CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001114CN0101000000 SHTM-OLED-mobile-T9 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001116CN0101000000 SHTM-OLED-mobile-U10 CN</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001119KR0301000000 LGD-OLED-IT-RDG KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001125KR0301000000 LGD-OLED-mobile-RSO KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001129KR0301000000 LGD-OLED-TV-WBH KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001131KR0301000000 SDC-OLED-IT-T3 KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001137KR0301000000 SDC-OLED-Mobile-M16 KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001139KR0301000000 SDC-OLED-TV-QM3 KR</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001146CN0101000000 SHTM-OLED-IT-Mobile-Tandem CN</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1098D&amp;E Engineering</t>
-  </si>
-  <si>
-    <t>P000000436</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000CO10100002 [ISS] - Temp. GM</t>
-  </si>
-  <si>
-    <t>H000000979</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$5111_V39</t>
-  </si>
-  <si>
-    <t>H000003640</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$AMI4_V39</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$AMI8_A59</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$5111_E49</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$5112_L1</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$6113_L1</t>
+    <t>CNOW_7210$$$0000059614</t>
+  </si>
+  <si>
+    <t>L000011363</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058819</t>
+  </si>
+  <si>
+    <t>L000010153</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057491</t>
+  </si>
+  <si>
+    <t>L000011391</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000059609</t>
+  </si>
+  <si>
+    <t>L000011384</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0024065322</t>
+  </si>
+  <si>
+    <t>L000011379</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000025513</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000022402</t>
+  </si>
+  <si>
+    <t>L000011358</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000005301</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015955</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056965</t>
+  </si>
+  <si>
+    <t>L000012317</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006112TQ0002</t>
+  </si>
+  <si>
+    <t>L000009340</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,391 +1205,71 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C66E3-0E93-41DB-98ED-A853B2CAD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13472A4E-1FEF-48A7-8B2F-0816120A1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="7515" yWindow="4155" windowWidth="24480" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Object</t>
   </si>
@@ -36,61 +36,52 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000059614</t>
-  </si>
-  <si>
-    <t>L000011363</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058819</t>
-  </si>
-  <si>
-    <t>L000010153</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057491</t>
-  </si>
-  <si>
-    <t>L000011391</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000059609</t>
-  </si>
-  <si>
-    <t>L000011384</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0024065322</t>
-  </si>
-  <si>
-    <t>L000011379</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000025513</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000022402</t>
-  </si>
-  <si>
-    <t>L000011358</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000005301</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015955</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056965</t>
-  </si>
-  <si>
-    <t>L000012317</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006112TQ0002</t>
-  </si>
-  <si>
-    <t>L000009340</t>
+    <t>ITEMPLA_001520001098 Manifesto - Sales promotion</t>
+  </si>
+  <si>
+    <t>H000002867</t>
+  </si>
+  <si>
+    <t>ITEMPLA_011520001099 Manifesto - Medical Activities</t>
+  </si>
+  <si>
+    <t>ITEMPLA_021520001102 Manifesto - Sales Promo BR</t>
+  </si>
+  <si>
+    <t>ITEMPLA_031520001103 Manifesto - Medical BR</t>
+  </si>
+  <si>
+    <t>ITEMPLA_041520001100 Manifesto - Sales promotion</t>
+  </si>
+  <si>
+    <t>ITEMPLA_051520001105 Manifesto - Medical</t>
+  </si>
+  <si>
+    <t>ITEMPLA_061520001106 Manifesto - Sales promotion Advertising</t>
+  </si>
+  <si>
+    <t>ITEMPLA_071520001107 Manifesto -Other Medical</t>
+  </si>
+  <si>
+    <t>ITEMPLA_081520001108 Manifesto - Sales promotion Congress and</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10170301 EUTIROX MANIFESTO</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10180601 EUTIROX MEDICAL MANIFESTO</t>
+  </si>
+  <si>
+    <t>ITEMPLA_111520001110 Manifesto - Sales Promo EC</t>
+  </si>
+  <si>
+    <t>ITEMPLA_121520001111 Manifesto - Medical Act. EC</t>
+  </si>
+  <si>
+    <t>ITEMPLA_131520001112 Manifesto - Sales Promo CO</t>
+  </si>
+  <si>
+    <t>ITEMPLA_141520001113 Manifesto - Medical Act. CO</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,79 +1188,111 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13472A4E-1FEF-48A7-8B2F-0816120A1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14788E40-61F3-4182-BE2D-C84A48749E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="4155" windowWidth="24480" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Object</t>
   </si>
@@ -36,52 +36,127 @@
     <t>Node</t>
   </si>
   <si>
-    <t>ITEMPLA_001520001098 Manifesto - Sales promotion</t>
-  </si>
-  <si>
-    <t>H000002867</t>
-  </si>
-  <si>
-    <t>ITEMPLA_011520001099 Manifesto - Medical Activities</t>
-  </si>
-  <si>
-    <t>ITEMPLA_021520001102 Manifesto - Sales Promo BR</t>
-  </si>
-  <si>
-    <t>ITEMPLA_031520001103 Manifesto - Medical BR</t>
-  </si>
-  <si>
-    <t>ITEMPLA_041520001100 Manifesto - Sales promotion</t>
-  </si>
-  <si>
-    <t>ITEMPLA_051520001105 Manifesto - Medical</t>
-  </si>
-  <si>
-    <t>ITEMPLA_061520001106 Manifesto - Sales promotion Advertising</t>
-  </si>
-  <si>
-    <t>ITEMPLA_071520001107 Manifesto -Other Medical</t>
-  </si>
-  <si>
-    <t>ITEMPLA_081520001108 Manifesto - Sales promotion Congress and</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10170301 EUTIROX MANIFESTO</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10180601 EUTIROX MEDICAL MANIFESTO</t>
-  </si>
-  <si>
-    <t>ITEMPLA_111520001110 Manifesto - Sales Promo EC</t>
-  </si>
-  <si>
-    <t>ITEMPLA_121520001111 Manifesto - Medical Act. EC</t>
-  </si>
-  <si>
-    <t>ITEMPLA_131520001112 Manifesto - Sales Promo CO</t>
-  </si>
-  <si>
-    <t>ITEMPLA_141520001113 Manifesto - Medical Act. CO</t>
+    <t>D00080400000000 INNOVA PDFPARSE</t>
+  </si>
+  <si>
+    <t>P000001015</t>
+  </si>
+  <si>
+    <t>T00032000000</t>
+  </si>
+  <si>
+    <t>P000001073</t>
+  </si>
+  <si>
+    <t>T00035000000</t>
+  </si>
+  <si>
+    <t>P000001081</t>
+  </si>
+  <si>
+    <t>T00036400000</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152IMIPCTOG01 Facility cost for CTO Group</t>
+  </si>
+  <si>
+    <t>P000000646</t>
+  </si>
+  <si>
+    <t>CFLTFLE_11030000000280 Thermal Conducting Layer</t>
+  </si>
+  <si>
+    <t>P000001094</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40810001</t>
+  </si>
+  <si>
+    <t>G000001001</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20RTEF04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001003 </t>
+  </si>
+  <si>
+    <t>D00109800000000</t>
+  </si>
+  <si>
+    <t>P000000591</t>
+  </si>
+  <si>
+    <t>D00110400000000</t>
+  </si>
+  <si>
+    <t>D00112000000000</t>
+  </si>
+  <si>
+    <t>D00112400000000</t>
+  </si>
+  <si>
+    <t>D00112600000000</t>
+  </si>
+  <si>
+    <t>D00113000000000</t>
+  </si>
+  <si>
+    <t>D00113200000000</t>
+  </si>
+  <si>
+    <t>D00113800000000</t>
+  </si>
+  <si>
+    <t>D00114000000000</t>
+  </si>
+  <si>
+    <t>D00114800000000</t>
+  </si>
+  <si>
+    <t>D00114900000000</t>
+  </si>
+  <si>
+    <t>CSCALA_1203$0000001003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000630 </t>
+  </si>
+  <si>
+    <t>CSCALA_1785$0000000830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_10548-308-COMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000096 </t>
+  </si>
+  <si>
+    <t>CFLTFLE_1760BGEF-LE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPEU_1000PL80L70030                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000131 </t>
+  </si>
+  <si>
+    <t>CFLTFLE_10550000005103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000637 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057091 </t>
+  </si>
+  <si>
+    <t>G000001164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPEU_1000GB10005630 </t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,111 +1263,207 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1300,12 +1471,12 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A28 A34:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="177"/>
     <cfRule type="duplicateValues" dxfId="2" priority="178"/>
     <cfRule type="duplicateValues" dxfId="1" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A28 A34:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="186"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14788E40-61F3-4182-BE2D-C84A48749E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F74E6-A8A7-4E8A-95BD-4C44647C7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="6510" yWindow="3240" windowWidth="14865" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Object</t>
   </si>
@@ -36,127 +36,130 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00080400000000 INNOVA PDFPARSE</t>
-  </si>
-  <si>
-    <t>P000001015</t>
-  </si>
-  <si>
-    <t>T00032000000</t>
-  </si>
-  <si>
-    <t>P000001073</t>
-  </si>
-  <si>
-    <t>T00035000000</t>
-  </si>
-  <si>
-    <t>P000001081</t>
-  </si>
-  <si>
-    <t>T00036400000</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2152IMIPCTOG01 Facility cost for CTO Group</t>
-  </si>
-  <si>
-    <t>P000000646</t>
-  </si>
-  <si>
-    <t>CFLTFLE_11030000000280 Thermal Conducting Layer</t>
-  </si>
-  <si>
-    <t>P000001094</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40810001</t>
-  </si>
-  <si>
-    <t>G000001001</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US20RTEF04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001003 </t>
-  </si>
-  <si>
-    <t>D00109800000000</t>
-  </si>
-  <si>
-    <t>P000000591</t>
-  </si>
-  <si>
-    <t>D00110400000000</t>
-  </si>
-  <si>
-    <t>D00112000000000</t>
-  </si>
-  <si>
-    <t>D00112400000000</t>
-  </si>
-  <si>
-    <t>D00112600000000</t>
-  </si>
-  <si>
-    <t>D00113000000000</t>
-  </si>
-  <si>
-    <t>D00113200000000</t>
-  </si>
-  <si>
-    <t>D00113800000000</t>
-  </si>
-  <si>
-    <t>D00114000000000</t>
-  </si>
-  <si>
-    <t>D00114800000000</t>
-  </si>
-  <si>
-    <t>D00114900000000</t>
-  </si>
-  <si>
-    <t>CSCALA_1203$0000001003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000630 </t>
-  </si>
-  <si>
-    <t>CSCALA_1785$0000000830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_10548-308-COMP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000096 </t>
-  </si>
-  <si>
-    <t>CFLTFLE_1760BGEF-LE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPEU_1000PL80L70030                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000131 </t>
-  </si>
-  <si>
-    <t>CFLTFLE_10550000005103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000637 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057091 </t>
-  </si>
-  <si>
-    <t>G000001164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPEU_1000GB10005630 </t>
+    <t>D00011500000000 Packaging Solution</t>
+  </si>
+  <si>
+    <t>P000001013</t>
+  </si>
+  <si>
+    <t>D00115000000000 AE11 2024</t>
+  </si>
+  <si>
+    <t>D00115700000000 TICS Feasibility</t>
+  </si>
+  <si>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>D00116000000000 LTO 280 electrochemical feasibility</t>
+  </si>
+  <si>
+    <t>RD230012 W5882 Low Selective  Tungsten Slurry (W5</t>
+  </si>
+  <si>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>RD230014 PYTK W5880-1 Low Selective W slurry CIP</t>
+  </si>
+  <si>
+    <t>RD230015 HPN8222B for Intel TSV</t>
+  </si>
+  <si>
+    <t>RD240002 COF2 purification development</t>
+  </si>
+  <si>
+    <t>P000001019</t>
+  </si>
+  <si>
+    <t>RD242001 DP1196 for Ru Liner Barrier Applications</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400747336 EL-P REG/REACH, BF R7 Coatings</t>
+  </si>
+  <si>
+    <t>P000000611</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400750067 EL-P REG/REACH, BF R8 IND-Funct</t>
+  </si>
+  <si>
+    <t>IQUATRO_001010000220 EL-P REG/BPR  IR3535</t>
+  </si>
+  <si>
+    <t>IQUATRO_001100000460 EL-PC Trade Compliance</t>
+  </si>
+  <si>
+    <t>P000000610</t>
+  </si>
+  <si>
+    <t>IQUATRO_001100000480 EL-PC IND reg projects</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000818JP0101000000 SC&amp;F LYNX (less yellow next xirallic)</t>
+  </si>
+  <si>
+    <t>P000000621</t>
+  </si>
+  <si>
+    <t>PQUATRO_D001151DE0401000000 PDP Inorganic UV-Filter Expansion</t>
+  </si>
+  <si>
+    <t>P000000631</t>
+  </si>
+  <si>
+    <t>PQUATRO_D000822DE0401000000 PDP Liquid mirror non nano TLS</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$0000000999</t>
+  </si>
+  <si>
+    <t>H000000241</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400762249</t>
+  </si>
+  <si>
+    <t>L000013253</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763815</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763370</t>
+  </si>
+  <si>
+    <t>L000010101</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763896</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763897</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763901</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763821</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763822</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763823</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763824</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763825</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763831</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763833</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,119 +1266,119 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1386,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,20 +1394,20 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1412,15 +1415,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -1428,10 +1431,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,31 +1442,63 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1471,12 +1506,12 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A28 A34:A1048576">
+  <conditionalFormatting sqref="A6:A1048576 A1">
     <cfRule type="duplicateValues" dxfId="3" priority="177"/>
     <cfRule type="duplicateValues" dxfId="2" priority="178"/>
     <cfRule type="duplicateValues" dxfId="1" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A28 A34:A1048576">
+  <conditionalFormatting sqref="A6:A1048576 A1">
     <cfRule type="duplicateValues" dxfId="0" priority="186"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F74E6-A8A7-4E8A-95BD-4C44647C7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9995609B-0475-470B-8937-AC2C34BD6DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3240" windowWidth="14865" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="192">
   <si>
     <t>Object</t>
   </si>
@@ -36,130 +36,574 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00011500000000 Packaging Solution</t>
-  </si>
-  <si>
-    <t>P000001013</t>
-  </si>
-  <si>
-    <t>D00115000000000 AE11 2024</t>
-  </si>
-  <si>
-    <t>D00115700000000 TICS Feasibility</t>
-  </si>
-  <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>D00116000000000 LTO 280 electrochemical feasibility</t>
-  </si>
-  <si>
-    <t>RD230012 W5882 Low Selective  Tungsten Slurry (W5</t>
-  </si>
-  <si>
-    <t>P000001016</t>
-  </si>
-  <si>
-    <t>RD230014 PYTK W5880-1 Low Selective W slurry CIP</t>
-  </si>
-  <si>
-    <t>RD230015 HPN8222B for Intel TSV</t>
-  </si>
-  <si>
-    <t>RD240002 COF2 purification development</t>
-  </si>
-  <si>
-    <t>P000001019</t>
-  </si>
-  <si>
-    <t>RD242001 DP1196 for Ru Liner Barrier Applications</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400747336 EL-P REG/REACH, BF R7 Coatings</t>
-  </si>
-  <si>
-    <t>P000000611</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400750067 EL-P REG/REACH, BF R8 IND-Funct</t>
-  </si>
-  <si>
-    <t>IQUATRO_001010000220 EL-P REG/BPR  IR3535</t>
-  </si>
-  <si>
-    <t>IQUATRO_001100000460 EL-PC Trade Compliance</t>
-  </si>
-  <si>
-    <t>P000000610</t>
-  </si>
-  <si>
-    <t>IQUATRO_001100000480 EL-PC IND reg projects</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000818JP0101000000 SC&amp;F LYNX (less yellow next xirallic)</t>
-  </si>
-  <si>
-    <t>P000000621</t>
-  </si>
-  <si>
-    <t>PQUATRO_D001151DE0401000000 PDP Inorganic UV-Filter Expansion</t>
-  </si>
-  <si>
-    <t>P000000631</t>
-  </si>
-  <si>
-    <t>PQUATRO_D000822DE0401000000 PDP Liquid mirror non nano TLS</t>
-  </si>
-  <si>
-    <t>CSCALA_1022$0000000999</t>
-  </si>
-  <si>
-    <t>H000000241</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400762249</t>
-  </si>
-  <si>
-    <t>L000013253</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763815</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763370</t>
-  </si>
-  <si>
-    <t>L000010101</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763896</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763897</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763901</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763821</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763822</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763823</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763824</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763825</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763831</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763833</t>
+    <t>CORAERP_MMOR1975.6619</t>
+  </si>
+  <si>
+    <t>L000013275</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10005920</t>
+  </si>
+  <si>
+    <t>G000001120</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70MS4005</t>
+  </si>
+  <si>
+    <t>L000012357</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31SP31TT</t>
+  </si>
+  <si>
+    <t>H000000339</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31SP32TT</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31SP34TT</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31SP35TT</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX31MA51TT</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006203600823</t>
+  </si>
+  <si>
+    <t>L000011673</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000DE40657585</t>
+  </si>
+  <si>
+    <t>L000013328</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000536500</t>
+  </si>
+  <si>
+    <t>L000012174</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR60718100</t>
+  </si>
+  <si>
+    <t>L000013472</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006101000002</t>
+  </si>
+  <si>
+    <t>L000013677</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000AR1011000A</t>
+  </si>
+  <si>
+    <t>H000002483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.2738 </t>
+  </si>
+  <si>
+    <t>G000000633</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$0000000110</t>
+  </si>
+  <si>
+    <t>G000000288</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L20</t>
+  </si>
+  <si>
+    <t>H000001085</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L20</t>
+  </si>
+  <si>
+    <t>H000001074</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L21</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L21</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L22</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L22</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L23</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L23</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L24</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L24</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L25</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L26</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L26</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25DS_L27</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$25RA_L27</t>
+  </si>
+  <si>
+    <t>CSCALA_1085$42_RD1</t>
+  </si>
+  <si>
+    <t>H000000729</t>
+  </si>
+  <si>
+    <t>CSCALA_1085$42_RD2</t>
+  </si>
+  <si>
+    <t>CSCALA_1085$42_RD3</t>
+  </si>
+  <si>
+    <t>CSCALA_1085$42_RD4</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L11</t>
+  </si>
+  <si>
+    <t>H000001084</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L22</t>
+  </si>
+  <si>
+    <t>H000001073</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L01</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L12</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L14</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L20</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L04</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L15</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L08</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L19</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L07</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L18</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L02</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L13</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$PVS_L10</t>
+  </si>
+  <si>
+    <t>H000001086</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L06</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L17</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$DSC_L05</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$REG_L16</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDO_L25</t>
+  </si>
+  <si>
+    <t>H000000772</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDG_L31</t>
+  </si>
+  <si>
+    <t>H000001088</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDG_L26</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDG_L27</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDG_L29</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$RDG_L30</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_501</t>
+  </si>
+  <si>
+    <t>H000000803</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_810</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_811</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_812</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_813</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_814</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_815</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_816</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_817</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_818</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3301_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_501</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_810</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_811</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_812</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_813</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_814</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_815</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_816</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_817</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_818</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3303_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_501</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_810</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_811</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_812</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_813</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_814</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_815</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_816</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_817</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_818</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3400_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_810</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_811</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_812</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_813</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_814</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_815</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_816</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_817</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3500_818</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_501</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_810</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_811</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_812</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_813</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_814</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_815</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_816</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_817</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_818</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3510_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$4001_501</t>
+  </si>
+  <si>
+    <t>H000004210</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$4001_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$4001_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3172_501</t>
+  </si>
+  <si>
+    <t>H000000875</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3172_821</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3172_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3172_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3171_501</t>
+  </si>
+  <si>
+    <t>H000000773</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3171_819</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3171_999</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$3171_ICR</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A350_L33</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A351_L33</t>
+  </si>
+  <si>
+    <t>H000000802</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A350_L11</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A350_L12</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A351_L12</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A350_L05</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A351_L05</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A351_L34</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$A350_L09</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$VR00_A06</t>
+  </si>
+  <si>
+    <t>H000001077</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$6528_L35</t>
+  </si>
+  <si>
+    <t>H000000923</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$GMAD_L36</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$VR00_L36</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$VR00_L37</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$VR00_L38</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_707</t>
+  </si>
+  <si>
+    <t>H000000774</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_703</t>
+  </si>
+  <si>
+    <t>H000001075</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_L52</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_LA4</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_LA4</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$330_LA4</t>
+  </si>
+  <si>
+    <t>H000004164</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_L52</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$330_L52</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_L77</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_LB3</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$330_LB3</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_LB3</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_LA8</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$330_LA8</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$350_LA8</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$321_GC2</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$300_GA8</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,264 +1699,1301 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
-        <v>30</v>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>188</v>
+      </c>
+      <c r="B144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="179"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204.ONE\Documents\GitHub\GCOH-Tickets-for-Processing\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E319F0-35E6-48F0-983C-39C0A3D3C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692D05A-E8FD-49EE-B9CD-329E638F1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="17370" yWindow="4065" windowWidth="19035" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Object</t>
   </si>
@@ -50,100 +39,58 @@
     <t>L000013677</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1975.6620</t>
-  </si>
-  <si>
-    <t>G000000763</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001584399</t>
-  </si>
-  <si>
-    <t>L000013542</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000EC1010010A</t>
-  </si>
-  <si>
-    <t>H000000650</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GBTL53</t>
-  </si>
-  <si>
-    <t>G000000235</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001584398</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006302LD0901</t>
-  </si>
-  <si>
-    <t>L000011934</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502723611</t>
-  </si>
-  <si>
-    <t>L000013315</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000NL40000000</t>
-  </si>
-  <si>
     <t>L000007703</t>
   </si>
   <si>
-    <t>CEMERAL_70006502000000</t>
-  </si>
-  <si>
-    <t>L000013607</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000MX10930052</t>
-  </si>
-  <si>
-    <t>G000001233</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB1000563A</t>
-  </si>
-  <si>
-    <t>G000001164</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502LD0901</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40165500</t>
-  </si>
-  <si>
-    <t>H000000561</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40166193</t>
-  </si>
-  <si>
-    <t>H000000554</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40166194</t>
-  </si>
-  <si>
-    <t>H000000560</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000500005</t>
-  </si>
-  <si>
-    <t>G000000175</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10000003</t>
-  </si>
-  <si>
-    <t>L000013555</t>
+    <t xml:space="preserve">CEMERAL_70006203600110 </t>
+  </si>
+  <si>
+    <t>L000006987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CON_00012429TTO </t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CON_00012478TTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CON_00012503TTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CON_00012548TTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CPRJ-98202400091 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CPRJ-98202400092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEXT_CPRJ-98202400093 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000876695 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70006502961771 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPEU_1000DE40MS4003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1968.5173 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1248$SLSB SLS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.RLSA </t>
+  </si>
+  <si>
+    <t>L000007449</t>
   </si>
 </sst>
 </file>
@@ -151,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="###,000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="###,000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -745,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -754,21 +701,21 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -1217,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,26 +1186,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,111 +1213,87 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692D05A-E8FD-49EE-B9CD-329E638F1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976FF6F-E45A-4F9B-80BE-FD5645D10B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="4065" windowWidth="19035" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="1680" yWindow="1995" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
+    <definedName name="ID" localSheetId="0" hidden="1">"61959ef7-15dc-48f1-aa6f-6638d6026e91"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Object</t>
   </si>
@@ -36,61 +48,223 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000013677</t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006203600110 </t>
-  </si>
-  <si>
-    <t>L000006987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012429TTO </t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012478TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012503TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012548TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400091 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400092 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400093 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000876695 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006502961771 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPEU_1000DE40MS4003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1968.5173 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1248$SLSB SLS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.RLSA </t>
-  </si>
-  <si>
-    <t>L000007449</t>
+    <t>CITR_1000$$$1721IT011</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9927</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000021376</t>
+  </si>
+  <si>
+    <t>G000000627</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010237</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$IBT</t>
+  </si>
+  <si>
+    <t>G000001235</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T2AL30 Quality Assurance (AL)</t>
+  </si>
+  <si>
+    <t>L000009407</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T1AL15 ECC Evobrutinib dedicated</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T6AL60 Gebäude B (Produktion)</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$35_A03</t>
+  </si>
+  <si>
+    <t>H000000221</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$70_C43</t>
+  </si>
+  <si>
+    <t>H000000224</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$100_C09</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$130_C67</t>
+  </si>
+  <si>
+    <t>CFLTFLE_17710000513700 PROMO Thyroids</t>
+  </si>
+  <si>
+    <t>H000003309</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700005591 52-Merck Sponsored Programs</t>
+  </si>
+  <si>
+    <t>H000000319</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006102 W0_Donations for Patient Benefit</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006104 W0_Advisory Boards</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006109 W0_Advisory Board</t>
+  </si>
+  <si>
+    <t>ITEMPEU_009000001530 Turkish Market Onco Projects</t>
+  </si>
+  <si>
+    <t>PLEAN_X310161CH6843038 Bavencio RCC Pfizer – direct cost</t>
+  </si>
+  <si>
+    <t>H000003328</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5010202 SP PROM MAT-KW-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000002960</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5010206 SP PROM MAT-AE-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5013201 SP CONG/EVENTS-BH-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5015401 SP PROM OTHERS-LB-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000003142</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181SA5030301 BAV V9 COM-OTHER M&amp;S-SA</t>
+  </si>
+  <si>
+    <t>H000003343</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5022401 MED CONSULTANCY-LB-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023202 MED OTHER NON R&amp;D-KW-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000002974</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023203 MED OTHER NON R&amp;D-QA-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023207 MED OTHER NON R&amp;D-OM-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5010202 SP PROM MAT-BH-FERT</t>
+  </si>
+  <si>
+    <t>H000002969</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5015407 SP PROM OTHERS-JO-FERT</t>
+  </si>
+  <si>
+    <t>H000003081</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5030403 SP OTHER M&amp;S-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010201 SP PROM MAT-AE-DIAB</t>
+  </si>
+  <si>
+    <t>H000002963</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010202 SP PROM MAT-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010204 SP PROM MAT-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010205 SP PROM MAT-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5011204 SP ADVT-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5030507 SP REG-LY-DIAB</t>
+  </si>
+  <si>
+    <t>H000003173</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301SA5030301 DIA COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>H000003348</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5010205 SP PROM MAT-QA-ENDO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5011203 SP ADVT-KW-ENDO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401DE6230405 1891_KZ_A5_SAI_M&amp;S OTH</t>
+  </si>
+  <si>
+    <t>H000000281</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401SA5015303 END COM-OTHER PROM-SA</t>
+  </si>
+  <si>
+    <t>H000003351</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401SA5030302 END COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5013403 SP CONG/EVENTS-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>H000003255</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5015403 SP PROM OTHERS-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5030501 SP OTHER M&amp;S-LY-MAVEN</t>
+  </si>
+  <si>
+    <t>H000003174</t>
+  </si>
+  <si>
+    <t>PLEAN_X310801AE5015507 SP PROM OTHERS-EA-cME</t>
+  </si>
+  <si>
+    <t>H000001103</t>
+  </si>
+  <si>
+    <t>PLEAN_X310801AE5015510 SP PROM OTHERS-SC-CME</t>
+  </si>
+  <si>
+    <t>H000001102</t>
   </si>
 </sst>
 </file>
@@ -98,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###,000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -1164,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,23 +1360,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1210,18 +1384,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,71 +1403,343 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1316,5 +1762,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692D05A-E8FD-49EE-B9CD-329E638F1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B650AB-3B96-4761-969D-68B999BF322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="4065" windowWidth="19035" windowHeight="13695" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$129</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
   <si>
     <t>Object</t>
   </si>
@@ -36,61 +36,586 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000013677</t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006203600110 </t>
-  </si>
-  <si>
-    <t>L000006987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012429TTO </t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012478TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012503TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CON_00012548TTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400091 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400092 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_CPRJ-98202400093 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000876695 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006502961771 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPEU_1000DE40MS4003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1968.5173 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1248$SLSB SLS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.RLSA </t>
-  </si>
-  <si>
-    <t>L000007449</t>
+    <t>CTEMPLA_1000MX10211025</t>
+  </si>
+  <si>
+    <t>H000000772</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000CA20198470</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30202070</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30203030</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30203050</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30203100</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30LG3010</t>
+  </si>
+  <si>
+    <t>CEMERAL_7000640352SS40</t>
+  </si>
+  <si>
+    <t>H000004379</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007001433240</t>
+  </si>
+  <si>
+    <t>CSCALA_1785$60_67</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH60E20010</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20PM5300</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20PM5600</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20PM5700</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010300</t>
+  </si>
+  <si>
+    <t>P000000426</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40T00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPEU_1000FR60801000 </t>
+  </si>
+  <si>
+    <t>L000011494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR2288.1884 </t>
+  </si>
+  <si>
+    <t>L000010489</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CAOOEI Pension termination costs</t>
+  </si>
+  <si>
+    <t>H000004334</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9934</t>
+  </si>
+  <si>
+    <t>L000013461</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1917.2245</t>
+  </si>
+  <si>
+    <t>L000011362</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9736</t>
+  </si>
+  <si>
+    <t>G000000622</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9935</t>
+  </si>
+  <si>
+    <t>L000013553</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006403GIC001</t>
+  </si>
+  <si>
+    <t>G000000165</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000655050</t>
+  </si>
+  <si>
+    <t>L000009975</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000AR10110003</t>
+  </si>
+  <si>
+    <t>H000002483</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000MX10804023</t>
+  </si>
+  <si>
+    <t>H000000680</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000UY10GM2231</t>
+  </si>
+  <si>
+    <t>G000000634</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000CO10102500</t>
+  </si>
+  <si>
+    <t>H000000457</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20GGS004</t>
+  </si>
+  <si>
+    <t>G000000073</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006203801109 Disposal Exp-WH</t>
+  </si>
+  <si>
+    <t>L000009228</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006101TM0002 APAC Mfg Head - Life Science</t>
+  </si>
+  <si>
+    <t>L000009224</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006203100110 To Book ISCO APAC Cost</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000655050 Engineering &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>L000013692</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T2AL30 Quality Assurance (AL)</t>
+  </si>
+  <si>
+    <t>L000009407</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.5738 SLS TMIC and Cust. &amp; Bus. Insights</t>
+  </si>
+  <si>
+    <t>L000005481</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000AT40RD0001 Workflows R&amp;D</t>
+  </si>
+  <si>
+    <t>L000013315</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000649901 AA R&amp;D Workflows</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000496902 AA R&amp;D workflow team</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860826 SLS Sales Industrial &amp; Testing</t>
+  </si>
+  <si>
+    <t>L000008394</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000003021 SLS Sales I&amp;T</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860823 XXXSLS Sales Diagnostic</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000003020 JP APPLIED SALES</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860911 SLS Sales Customer Segment</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000002101 SLS Sales Pharma &amp; Diagnostics</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860915 Lab Marketing manager</t>
+  </si>
+  <si>
+    <t>L000008403</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860909 CE Dealer Management</t>
+  </si>
+  <si>
+    <t>L000008406</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70MB0000 SAP Next QM</t>
+  </si>
+  <si>
+    <t>L000013459</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400763883 SAC Patents</t>
+  </si>
+  <si>
+    <t>L000006422</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000629700 Analytics &amp; Development Support</t>
+  </si>
+  <si>
+    <t>L000006429</t>
+  </si>
+  <si>
+    <t>IPHOENX_000002425301 P_mRNA scale up &amp; process improv (3.0)</t>
+  </si>
+  <si>
+    <t>IPHOENX_000002427301 P_Lipidomics</t>
+  </si>
+  <si>
+    <t>L000006432 Intermediates India</t>
+  </si>
+  <si>
+    <t>L000006420</t>
+  </si>
+  <si>
+    <t>IPHOENX_000002423601 CTO Super Enzyme program</t>
+  </si>
+  <si>
+    <t>L000006435</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092007 Process Solutions</t>
+  </si>
+  <si>
+    <t>L000012399</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US10999957 Inventory Disposal - 3rd party</t>
+  </si>
+  <si>
+    <t>L000010188</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US10999970 Non Allocated personnel costs</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020223 STL RS SIGMA REDEVELOPMENT CORP (SPRUCE)</t>
+  </si>
+  <si>
+    <t>L000010608</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020249 STL RS SECURITY BUILDING-OLIVE ST</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020251 STL RS SPRUCE BUILDING</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000022109 RBI APP APPI ASSETS CO</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000023303 STL BT 2230 PACKAGING DEPR</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860811 SLS Sales Area</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000002100 SLS Sales Area</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0079586000 Strategic Assist RS</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860902 XXXeCommerce &amp; Digital</t>
+  </si>
+  <si>
+    <t>L000008396</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000006600 eCommerce &amp; Digital</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860901 Head of LS</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000006607 Head of LS</t>
+  </si>
+  <si>
+    <t>CEMERAL_64010010860903 Commercial Enablement</t>
+  </si>
+  <si>
+    <t>L000012414</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000006610 Commercial Enablement</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502961430 SLS AGH Sales</t>
+  </si>
+  <si>
+    <t>L000008420</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502961450 Comm Enablement</t>
+  </si>
+  <si>
+    <t>L000008428</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502961436 SLS Digital Sales</t>
+  </si>
+  <si>
+    <t>L000008433</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502961770 Customer Excellence Tech Service</t>
+  </si>
+  <si>
+    <t>L000008439</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502991732 Customer Excellence</t>
+  </si>
+  <si>
+    <t>EMERAL_70006502961511 SLS Commercial head</t>
+  </si>
+  <si>
+    <t>L000008437</t>
+  </si>
+  <si>
+    <t>LT1347700000000</t>
+  </si>
+  <si>
+    <t>CEMERAL_7000640352SS05</t>
+  </si>
+  <si>
+    <t>H000002445</t>
+  </si>
+  <si>
+    <t>CEMERAL_7000640352SS06</t>
+  </si>
+  <si>
+    <t>CEMERAL_7000640399SS20</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$1721IT011</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9927</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000021376</t>
+  </si>
+  <si>
+    <t>G000000627</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010237</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$IBT</t>
+  </si>
+  <si>
+    <t>G000001235</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T1AL15 ECC Evobrutinib dedicated</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70T6AL60 Gebäude B (Produktion)</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$35_A03</t>
+  </si>
+  <si>
+    <t>H000000221</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$70_C43</t>
+  </si>
+  <si>
+    <t>H000000224</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$100_C09</t>
+  </si>
+  <si>
+    <t>CSCALA_1872$130_C67</t>
+  </si>
+  <si>
+    <t>CFLTFLE_17710000513700 PROMO Thyroids</t>
+  </si>
+  <si>
+    <t>H000003309</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700005591 52-Merck Sponsored Programs</t>
+  </si>
+  <si>
+    <t>H000000319</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006102 W0_Donations for Patient Benefit</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006104 W0_Advisory Boards</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006109 W0_Advisory Board</t>
+  </si>
+  <si>
+    <t>ITEMPEU_009000001530 Turkish Market Onco Projects</t>
+  </si>
+  <si>
+    <t>PLEAN_X310161CH6843038 Bavencio RCC Pfizer – direct cost</t>
+  </si>
+  <si>
+    <t>H000003328</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5010202 SP PROM MAT-KW-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000002960</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5010206 SP PROM MAT-AE-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5013201 SP CONG/EVENTS-BH-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5015401 SP PROM OTHERS-LB-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000003142</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181SA5030301 BAV V9 COM-OTHER M&amp;S-SA</t>
+  </si>
+  <si>
+    <t>H000003343</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5022401 MED CONSULTANCY-LB-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023202 MED OTHER NON R&amp;D-KW-BAVEN V9</t>
+  </si>
+  <si>
+    <t>H000002974</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023203 MED OTHER NON R&amp;D-QA-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182AE5023207 MED OTHER NON R&amp;D-OM-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5010202 SP PROM MAT-BH-FERT</t>
+  </si>
+  <si>
+    <t>H000002969</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5015407 SP PROM OTHERS-JO-FERT</t>
+  </si>
+  <si>
+    <t>H000003081</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5030403 SP OTHER M&amp;S-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010201 SP PROM MAT-AE-DIAB</t>
+  </si>
+  <si>
+    <t>H000002963</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010202 SP PROM MAT-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010204 SP PROM MAT-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010205 SP PROM MAT-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5011204 SP ADVT-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5030507 SP REG-LY-DIAB</t>
+  </si>
+  <si>
+    <t>H000003173</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301SA5030301 DIA COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>H000003348</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5010205 SP PROM MAT-QA-ENDO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5011203 SP ADVT-KW-ENDO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401DE6230405 1891_KZ_A5_SAI_M&amp;S OTH</t>
+  </si>
+  <si>
+    <t>H000000281</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401SA5015303 END COM-OTHER PROM-SA</t>
+  </si>
+  <si>
+    <t>H000003351</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401SA5030302 END COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5013403 SP CONG/EVENTS-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>H000003255</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5015403 SP PROM OTHERS-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5030501 SP OTHER M&amp;S-LY-MAVEN</t>
+  </si>
+  <si>
+    <t>H000003174</t>
+  </si>
+  <si>
+    <t>PLEAN_X310801AE5015507 SP PROM OTHERS-EA-cME</t>
+  </si>
+  <si>
+    <t>H000001103</t>
+  </si>
+  <si>
+    <t>PLEAN_X310801AE5015510 SP PROM OTHERS-SC-CME</t>
+  </si>
+  <si>
+    <t>H000001102</t>
   </si>
 </sst>
 </file>
@@ -802,7 +1327,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -850,6 +1375,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1164,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,122 +1719,1029 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>20</v>
       </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>187</v>
+      </c>
+      <c r="B125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA771E4-ED83-444E-A766-D296DBB05185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB06321-0D2A-4202-9864-A0D9FFAB1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$10</definedName>
+    <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -47,94 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_1044PMLO Order Processing - Performance Materials  BOL (Business Oper</t>
-  </si>
-  <si>
-    <t>P000000667</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BOL Surface Sol Bus. Operation Local</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BOL_999</t>
-  </si>
-  <si>
-    <t>CEMERAL_700063019901PG XXXField force general</t>
-  </si>
-  <si>
-    <t>P000000669</t>
-  </si>
-  <si>
-    <t>CEMERAL_700063019905PG XXXMarketing department</t>
-  </si>
-  <si>
-    <t>CEMERAL_700063029901PG XXXField force general</t>
-  </si>
-  <si>
-    <t>CEMERAL_700063029905PG XXXMarketing department</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006302991404 XXXOrder processing &amp; logistics/CCC - PM</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044PMDD Other Lines - General cost  Performance Materials</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044PMFF Field Force - Performance Materials</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044PMID Internal Sales Service - Performance Materials  Decorative</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1798C05 PM sales team</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1798C12 PM customer service</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PMFF Surface Solutions Field Force</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PMFF_999</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PMFF_P19</t>
-  </si>
-  <si>
-    <t>CSCALA_1050$B18 Performance Materials Field Force</t>
-  </si>
-  <si>
-    <t>CSCALA_1923$B18 Performance Materials Field Force</t>
-  </si>
-  <si>
-    <t>CSCALA_1923$B19 Performance Materials Marketing</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPAACE02 SAM SiO2 CDP 702</t>
-  </si>
-  <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPAACE03 new dopant interface layer CDP 703</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPCXMT01 CDP165 CXMT demo</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPDRAM01 CDP170-DRAM pre-work</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPMOR002 Cost Alloc CDP192-EUV MOR Program</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPSOD801 CDP191-Merck Ltd-Intel SOD</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPTFOM05 CDP197-Micron &amp; EMD OTS Program</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPTFOM06 CDP198-NI Demo for Kioxia</t>
+    <t>PLEAN_X310529DE5015017 GVAP Head Office</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10009099</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10200034 Regional GVAP</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$DUSA</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ0F27 HC GVAP Operations</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6810043 Innovation research</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6814165 GBF Head Projects</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6814189 Pilots NPP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201DE5015032 FD COM PROM OTH Fertility</t>
+  </si>
+  <si>
+    <t>H000000457</t>
+  </si>
+  <si>
+    <t>H000001056</t>
+  </si>
+  <si>
+    <t>H000000176</t>
   </si>
 </sst>
 </file>
@@ -142,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###,000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -1208,7 +1155,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1233,215 +1180,71 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1263,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB06321-0D2A-4202-9864-A0D9FFAB1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0EF9F-11B9-4E40-BC26-A8BCF49636EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +37,70 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PLEAN_X310529DE5015017 GVAP Head Office</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10009099</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10200034 Regional GVAP</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$DUSA</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ0F27 HC GVAP Operations</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6810043 Innovation research</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6814165 GBF Head Projects</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6814189 Pilots NPP</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201DE5015032 FD COM PROM OTH Fertility</t>
-  </si>
-  <si>
-    <t>H000000457</t>
-  </si>
-  <si>
-    <t>H000001056</t>
-  </si>
-  <si>
-    <t>H000000176</t>
+    <t>CPHOENX_01010000669795</t>
+  </si>
+  <si>
+    <t>L000013771</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000025522</t>
+  </si>
+  <si>
+    <t>L000010052</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.5LP5 AR Allowances - E2E Promise Venture</t>
+  </si>
+  <si>
+    <t>L000013787</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056959</t>
+  </si>
+  <si>
+    <t>L000010757</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092054</t>
+  </si>
+  <si>
+    <t>L000011934</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000006609</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092055</t>
+  </si>
+  <si>
+    <t>L000013423</t>
+  </si>
+  <si>
+    <t>PLEAN_I200013CN687010028</t>
+  </si>
+  <si>
+    <t>L000009790</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000026928</t>
+  </si>
+  <si>
+    <t>L000009506</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30130800</t>
+  </si>
+  <si>
+    <t>H000004383</t>
+  </si>
+  <si>
+    <t>CSCALA_1826$317_P61</t>
+  </si>
+  <si>
+    <t>D30010200000000 Biochem developed kits</t>
+  </si>
+  <si>
+    <t>L000013318</t>
   </si>
 </sst>
 </file>
@@ -89,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###,000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="###,000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -683,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -692,21 +711,21 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -1155,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,36 +1199,36 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1217,34 +1236,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0EF9F-11B9-4E40-BC26-A8BCF49636EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC7C53-1606-42F5-8BE7-A6FE80C32B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="32940" yWindow="3195" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Object</t>
   </si>
@@ -43,64 +54,49 @@
     <t>L000013771</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000025522</t>
-  </si>
-  <si>
-    <t>L000010052</t>
-  </si>
-  <si>
     <t>CORAERP_MMOR1945.5LP5 AR Allowances - E2E Promise Venture</t>
   </si>
   <si>
     <t>L000013787</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000056959</t>
-  </si>
-  <si>
-    <t>L000010757</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092054</t>
-  </si>
-  <si>
-    <t>L000011934</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000006609</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092055</t>
-  </si>
-  <si>
-    <t>L000013423</t>
-  </si>
-  <si>
-    <t>PLEAN_I200013CN687010028</t>
-  </si>
-  <si>
-    <t>L000009790</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000026928</t>
-  </si>
-  <si>
-    <t>L000009506</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US30130800</t>
-  </si>
-  <si>
-    <t>H000004383</t>
-  </si>
-  <si>
-    <t>CSCALA_1826$317_P61</t>
-  </si>
-  <si>
-    <t>D30010200000000 Biochem developed kits</t>
-  </si>
-  <si>
-    <t>L000013318</t>
+    <t>CNOW_7210$$$0000010300 RISE Business Expense</t>
+  </si>
+  <si>
+    <t>P000000560</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9145 RISE Bus Expense</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40T00002 RISE LE &amp; Tax</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000551103 Electronics Efficiency Initiative</t>
+  </si>
+  <si>
+    <t>P000000559</t>
+  </si>
+  <si>
+    <t>D00027100000000 Molybdenum Metal</t>
+  </si>
+  <si>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>D00030600000000 Spin-on Si</t>
+  </si>
+  <si>
+    <t>D00054300000000 Process Materials</t>
+  </si>
+  <si>
+    <t>D00003700000000 Gen 2 Fillox</t>
+  </si>
+  <si>
+    <t>D00077300000000 Spin On Low K</t>
+  </si>
+  <si>
+    <t>D00003400000000 PSOD-Si</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1173,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,20 +1219,20 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1244,50 +1240,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC7C53-1606-42F5-8BE7-A6FE80C32B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8581EA-CBB2-4546-BFF9-B4A0D40B7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="3195" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Object</t>
   </si>
@@ -48,55 +37,52 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_01010000669795</t>
-  </si>
-  <si>
-    <t>L000013771</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.5LP5 AR Allowances - E2E Promise Venture</t>
-  </si>
-  <si>
-    <t>L000013787</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010300 RISE Business Expense</t>
-  </si>
-  <si>
-    <t>P000000560</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9145 RISE Bus Expense</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000NL40T00002 RISE LE &amp; Tax</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000551103 Electronics Efficiency Initiative</t>
-  </si>
-  <si>
-    <t>P000000559</t>
-  </si>
-  <si>
-    <t>D00027100000000 Molybdenum Metal</t>
-  </si>
-  <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>D00030600000000 Spin-on Si</t>
-  </si>
-  <si>
-    <t>D00054300000000 Process Materials</t>
-  </si>
-  <si>
-    <t>D00003700000000 Gen 2 Fillox</t>
-  </si>
-  <si>
-    <t>D00077300000000 Spin On Low K</t>
-  </si>
-  <si>
-    <t>D00003400000000 PSOD-Si</t>
+    <t>CNOW_7210$$$0000056959</t>
+  </si>
+  <si>
+    <t>L000010757</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092054</t>
+  </si>
+  <si>
+    <t>L000011934</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000006609</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092055</t>
+  </si>
+  <si>
+    <t>L000013423</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000026928</t>
+  </si>
+  <si>
+    <t>L000009506</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30130800</t>
+  </si>
+  <si>
+    <t>H000004383</t>
+  </si>
+  <si>
+    <t>CSCALA_1826$317_P61</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GBTL09</t>
+  </si>
+  <si>
+    <t>G000000325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000059999 </t>
+  </si>
+  <si>
+    <t>L000009790</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,15 +1197,15 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,23 +1213,23 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,39 +1237,15 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8581EA-CBB2-4546-BFF9-B4A0D40B7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE05ED2-84AD-4E13-ABBD-A8D13F9F0FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Object</t>
   </si>
@@ -37,52 +37,82 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000056959</t>
-  </si>
-  <si>
-    <t>L000010757</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092054</t>
-  </si>
-  <si>
-    <t>L000011934</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000006609</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092055</t>
-  </si>
-  <si>
-    <t>L000013423</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000026928</t>
-  </si>
-  <si>
-    <t>L000009506</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US30130800</t>
-  </si>
-  <si>
-    <t>H000004383</t>
-  </si>
-  <si>
-    <t>CSCALA_1826$317_P61</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GBTL09</t>
-  </si>
-  <si>
-    <t>G000000325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000059999 </t>
-  </si>
-  <si>
-    <t>L000009790</t>
+    <t>CEMERAL_64016401991349</t>
+  </si>
+  <si>
+    <t>L000011218</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006112TILSPS</t>
+  </si>
+  <si>
+    <t>L000013508</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000510513</t>
+  </si>
+  <si>
+    <t>L000013465</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000BE40MS2006</t>
+  </si>
+  <si>
+    <t>P000000850</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000IE10005741</t>
+  </si>
+  <si>
+    <t>H000000685</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000530901</t>
+  </si>
+  <si>
+    <t>P000000086</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000530910</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502001000</t>
+  </si>
+  <si>
+    <t>G000000704</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502001001</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000530905</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000530906</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80GFO022</t>
+  </si>
+  <si>
+    <t>G000000187</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000530913</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR60636400</t>
+  </si>
+  <si>
+    <t>L000013461</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.5746</t>
+  </si>
+  <si>
+    <t>L000012511</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.5746</t>
   </si>
 </sst>
 </file>
@@ -1156,11 +1186,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1197,55 +1225,111 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE05ED2-84AD-4E13-ABBD-A8D13F9F0FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3397BCF7-808A-4C2A-886A-8DBDABDD87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Object</t>
   </si>
@@ -37,82 +48,115 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_64016401991349</t>
-  </si>
-  <si>
-    <t>L000011218</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006112TILSPS</t>
-  </si>
-  <si>
-    <t>L000013508</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000510513</t>
-  </si>
-  <si>
-    <t>L000013465</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000BE40MS2006</t>
-  </si>
-  <si>
-    <t>P000000850</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000IE10005741</t>
-  </si>
-  <si>
-    <t>H000000685</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000530901</t>
-  </si>
-  <si>
-    <t>P000000086</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000530910</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502001000</t>
-  </si>
-  <si>
-    <t>G000000704</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502001001</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000530905</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000530906</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GFO022</t>
-  </si>
-  <si>
-    <t>G000000187</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000530913</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR60636400</t>
-  </si>
-  <si>
-    <t>L000013461</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.5746</t>
-  </si>
-  <si>
-    <t>L000012511</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.5746</t>
+    <t>FI100007000000 OLED Application Lab China</t>
+  </si>
+  <si>
+    <t>P000001126</t>
+  </si>
+  <si>
+    <t>FK10001501000 Sheet resistance measurement system</t>
+  </si>
+  <si>
+    <t>I100007000000 OLED Application Lab China</t>
+  </si>
+  <si>
+    <t>K10001501000 Sheet resistance measurement system</t>
+  </si>
+  <si>
+    <t>FN197011010000000000 Purchase cleaning jig</t>
+  </si>
+  <si>
+    <t>N197011010000000000 Purchase cleaning jig</t>
+  </si>
+  <si>
+    <t>D25340000 Display Variances/Overhead</t>
+  </si>
+  <si>
+    <t>P000000698</t>
+  </si>
+  <si>
+    <t>FD25340000 Display Variances/Overhead</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000680200 Quattro-Display Solutions Global Marketi</t>
+  </si>
+  <si>
+    <t>FP000000687_IO XX_EL-DS-M Global Mkt Other (IO)</t>
+  </si>
+  <si>
+    <t>P000001121</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000640110 Quattro-Display Solutions Product Resear</t>
+  </si>
+  <si>
+    <t>D00070900000000 PM-OQA LC+Pigments R&amp;D activities</t>
+  </si>
+  <si>
+    <t>FD00070900000000 PM-OQA LC+Pigments R&amp;D activities</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000644400 Quattro-Product Research Display Chemist</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000643200 Quattro-Product Research Display Physics</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000641320 Quattro-Product Research Emerging Displa</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648700 Quattro-XXXProduct Development LC Materi</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000647700 Quattro-Product Research Material Resear</t>
+  </si>
+  <si>
+    <t>P000001117</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB40000130 CTC General Scientific</t>
+  </si>
+  <si>
+    <t>P000001130</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB40000160 CTC-1VR-building</t>
+  </si>
+  <si>
+    <t>D00045000000000 BT / IT problems</t>
+  </si>
+  <si>
+    <t>P000001135</t>
+  </si>
+  <si>
+    <t>D00071400000000 Novel methods &amp; tools</t>
+  </si>
+  <si>
+    <t>FD00045000000000 BT / IT problems</t>
+  </si>
+  <si>
+    <t>FD00071400000000 Novel methods &amp; tools</t>
+  </si>
+  <si>
+    <t>D00039700000000 R&amp;D variance Disply Solutions</t>
+  </si>
+  <si>
+    <t>FD00039700000000 R&amp;D variance Disply Solutions</t>
+  </si>
+  <si>
+    <t>FP000000704_IO EL-DS-J Japan Other (IO)</t>
+  </si>
+  <si>
+    <t>P000001111</t>
+  </si>
+  <si>
+    <t>IQUATRO_001100000260 Advertisement_PM1</t>
+  </si>
+  <si>
+    <t>D00010000 EL-OT Mirror project</t>
+  </si>
+  <si>
+    <t>FD00010000 EL-OT Mirror project</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1230,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1217,119 +1261,231 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3397BCF7-808A-4C2A-886A-8DBDABDD87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5B6C7-B8E1-45BE-9AE8-FACED6EB6FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,115 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>FI100007000000 OLED Application Lab China</t>
+    <t>CSCALA_1721$T11_926</t>
   </si>
   <si>
-    <t>P000001126</t>
+    <t>G000000895</t>
   </si>
   <si>
-    <t>FK10001501000 Sheet resistance measurement system</t>
+    <t>CSCALA_1820$A851_AL5</t>
   </si>
   <si>
-    <t>I100007000000 OLED Application Lab China</t>
+    <t>H000004183</t>
   </si>
   <si>
-    <t>K10001501000 Sheet resistance measurement system</t>
+    <t>CSCALA_1721$T11</t>
   </si>
   <si>
-    <t>FN197011010000000000 Purchase cleaning jig</t>
-  </si>
-  <si>
-    <t>N197011010000000000 Purchase cleaning jig</t>
-  </si>
-  <si>
-    <t>D25340000 Display Variances/Overhead</t>
-  </si>
-  <si>
-    <t>P000000698</t>
-  </si>
-  <si>
-    <t>FD25340000 Display Variances/Overhead</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000680200 Quattro-Display Solutions Global Marketi</t>
-  </si>
-  <si>
-    <t>FP000000687_IO XX_EL-DS-M Global Mkt Other (IO)</t>
-  </si>
-  <si>
-    <t>P000001121</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000640110 Quattro-Display Solutions Product Resear</t>
-  </si>
-  <si>
-    <t>D00070900000000 PM-OQA LC+Pigments R&amp;D activities</t>
-  </si>
-  <si>
-    <t>FD00070900000000 PM-OQA LC+Pigments R&amp;D activities</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000644400 Quattro-Product Research Display Chemist</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000643200 Quattro-Product Research Display Physics</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000641320 Quattro-Product Research Emerging Displa</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648700 Quattro-XXXProduct Development LC Materi</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000647700 Quattro-Product Research Material Resear</t>
-  </si>
-  <si>
-    <t>P000001117</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB40000130 CTC General Scientific</t>
-  </si>
-  <si>
-    <t>P000001130</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB40000160 CTC-1VR-building</t>
-  </si>
-  <si>
-    <t>D00045000000000 BT / IT problems</t>
-  </si>
-  <si>
-    <t>P000001135</t>
-  </si>
-  <si>
-    <t>D00071400000000 Novel methods &amp; tools</t>
-  </si>
-  <si>
-    <t>FD00045000000000 BT / IT problems</t>
-  </si>
-  <si>
-    <t>FD00071400000000 Novel methods &amp; tools</t>
-  </si>
-  <si>
-    <t>D00039700000000 R&amp;D variance Disply Solutions</t>
-  </si>
-  <si>
-    <t>FD00039700000000 R&amp;D variance Disply Solutions</t>
-  </si>
-  <si>
-    <t>FP000000704_IO EL-DS-J Japan Other (IO)</t>
-  </si>
-  <si>
-    <t>P000001111</t>
-  </si>
-  <si>
-    <t>IQUATRO_001100000260 Advertisement_PM1</t>
-  </si>
-  <si>
-    <t>D00010000 EL-OT Mirror project</t>
-  </si>
-  <si>
-    <t>FD00010000 EL-OT Mirror project</t>
+    <t>CSCALA_1820$A851</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1137,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,12 +1168,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1274,218 +1181,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5B6C7-B8E1-45BE-9AE8-FACED6EB6FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACF1EEA-CDFA-4C0A-9BD2-5AA7BF6A6EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="462">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +37,1384 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1721$T11_926</t>
-  </si>
-  <si>
-    <t>G000000895</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A851_AL5</t>
-  </si>
-  <si>
-    <t>H000004183</t>
-  </si>
-  <si>
-    <t>CSCALA_1721$T11</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A851</t>
+    <t>PLEAN_X310203AE5043201 R&amp;D LOCAL-AE-FERT</t>
+  </si>
+  <si>
+    <t>H000003513</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020201 MED EDUCATION-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022201 MED CONSULTANCY-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023201 MED OTHER NON R&amp;D-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5020201 MED EDUCATION-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022201 MED CONSULTANCY-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023201 MED OTHER NON R&amp;D-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020201 MED EDUCATION-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022201 MED CONSULTANCY-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023201 MED OTHER NON R&amp;D-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5020201 MED EDUCATION-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022201 MED CONSULTANCY-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023201 MED OTHER NON R&amp;D-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013201 SP CONG/EVENTS-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015202 SP GAP OTHER-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015210 SP DIGITAL-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030201 SP OTHER M&amp;S-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030202 SP RIGISTRATION RENEWAL-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020201 MED EDUCATION-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022201 MED CONSULTANCY-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043201 R&amp;D LOCAL-AE-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022202 MED CONSULTANCY-BH-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023203 MED OTHER NON R&amp;D-BH-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020202 MED EDUCATION-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022202 MED CONSULTANCY-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023203 MED OTHER NON R&amp;D-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5021202 MED DONATION-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022202 MED CONSULTANCY-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023203 MED OTHER NON R&amp;D-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013202 SP CONG/EVENTS-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030204 SP RIGISTRATION RENEWAL-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022202 MED CONSULTANCY-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202CH7621200 FER MED Donations</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322CH7630201 Local R&amp;D Regulatory Concor Family</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332CH7630200 MAP Euthyrox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023501 MED OTHER NON R&amp;D-FS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043501 R&amp;D LOCAL-FS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020200 DZ- Prise en charge Dr Abdelhafi Soumeya</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020201 DZ- MEDICO Speakers fees</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020209 7eme COM SAFRO (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020212 EAHP CONGRES 24</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5021201 DZ- PSP SKIN CARE KITS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5021203 DZ- RAS cartridges purchase</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023200 DZ- Awareness Compaign 2023 (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023201 DZ- Sponsorship AIC (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023202 DZ- PSP RAS Testing - Clinica fees HQ50</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023208 DZ- MSL activities</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023213 DZ- Sponsoring ASPATH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023214 DZ- sponsoring SICAN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020203 FERT-DZ-PERGOVERIS LAUNCH ACTIVITIES DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020209 FERT-DZ-SAMERE SYMPOSIUM (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020210 FERT-DZ-SAMERE SYMPOSIUM (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023202 FERT-DZ-EXCELLENCE IN ART III-TURKEY HQ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023210 FERT-DZ-WORKSHOP FERTILIA (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023216 FERT-NA-ESHRE 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023217 FERT-NA-EMEA ACADEME CONFERENCE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023218 FERT-DZ-AFFS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010201 Materiels promotionnels</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010207 Promotion material</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013200 Congrés et Journées Nationales et region</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013201 Stand alone Diabetes et Thyroids (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013214 Journées regionales (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013216 congres et journées nationales et region</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023202 MEDIA AWARENESS COMPAIGN HYPOTHYROIDISM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023209 DZ - Call Center LEVOTHYROX New Formula</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023221 52 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023222 52 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023229 52 Med. N R&amp;D-EG-Med N R&amp;D-Patient S.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023234 52 Med. N R&amp;D-EG-Med N R&amp;D- Med Screen.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023221 A4 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023222 A4 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023231 A4 Med. N R&amp;D-EG-Med N R&amp;D-P Awareness</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302EG5023222 B4 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302EG5023234 B4 Med. N R&amp;D-EG-Med N R&amp;D- Med Screen.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5020226 B5 Med. N R&amp;D-EG-Med. Edu.-Med. Edu.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5015222 B5 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5023222 B5 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5023242 B5 Med. N R&amp;D-EG-Med N R&amp;D-Medical P.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5010224 77 Commercial-EG-Pro. material-Digital M</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5011217 77 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5013218 77 Commercial-EG-Cong&amp;events-Conferences</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5013220 77 Commercial-EG-Cong&amp;events-Expert M.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5015240 77 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5030247 77 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5020226 77 Med. N R&amp;D-EG-Med. Edu.-Med. Edu.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5023222 77 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5023231 77 Med. N R&amp;D-EG-Med N R&amp;D-P Awareness</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043402 R&amp;D REGISTRTAION-IQ-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043402 R&amp;D REGISTRTAION-IQ-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323AE5043402 R&amp;D REGISTRTAION-IQ-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030401 SP OTHER M&amp;S-IQ-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333AE5043402 R&amp;D REGISTRTAION-IQ-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043402 R&amp;D REGISTRTAION-IQ-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5020402 MED EDUCATION-IR-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023402 MED OTHER NON R&amp;D-IR-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020402 MED EDUCATION-IR-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023402 MED OTHER NON R&amp;D-IR-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5020402 MED EDUCATION-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022402 MED CONSULTANCY-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023402 MED OTHER NON R&amp;D-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010402 SP PROM MAT-IR-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322IT5521328 Cardio MED Non R&amp;D Med Don</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322IT5523328 Cardio MED Non R&amp;D Med Other</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331IT5511327 Digital SProm Eutirox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043406 R&amp;D REGISTRTAION-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020403 MED EDUCATION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021403 MED DONATION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022403 MED CONSULTANCY-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023403 MED OTHER NON R&amp;D-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043406 R&amp;D REGISTRTAION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022403 MED CONSULTANCY-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023403 MED OTHER NON R&amp;D-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022403 MED CONSULTANCY-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023403 MED OTHER NON R&amp;D-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043406 R&amp;D REGISTRTAION-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022403 MED CONSULTANCY-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023403 MED OTHER NON R&amp;D-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323AE5043406 R&amp;D REGISTRTAION-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010403 SP PROM MAT-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013403 SP CONG/EVENTS-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015409 SP PROM OTHERS-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030403 SP OTHER M&amp;S-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020403 MED EDUCATION-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022403 MED CONSULTANCY-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023403 MED OTHER NON R&amp;D-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333AE5043406 R&amp;D REGISTRTAION-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043406 R&amp;D REGISTRTAION-JO-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015502 SP PROM OTHERS-KE-THYROID / MENIFESTO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023204 MED OTHER NON R&amp;D-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022203 MED CONSULTANCY-KW-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023204 MED OTHER NON R&amp;D-KW-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020203 MED EDUCATION-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022203 MED CONSULTANCY-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023204 MED OTHER NON R&amp;D-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022203 MED CONSULTANCY-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023204 MED OTHER NON R&amp;D-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010203 SP PROM MAT-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013203 SP CONG/EVENTS-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030205 SP MOFA DOC LEGALIZA.-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030206 SP RIGISTRATION RENEWAL-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020203 MED EDUCATION-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022203 MED CONSULTANCY-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023204 MED OTHER NON R&amp;D-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043408 R&amp;D REGISTRTAION-LB-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020404 MED EDUCATION-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021404 MED DONATION-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022404 MED CONSULTANCY-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023404 MED OTHER NON R&amp;D-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043407 R&amp;D LOCAL-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023404 MED OTHER NON R&amp;D-LB-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043408 R&amp;D REGISTRTAION-LB-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043408 R&amp;D REGISTRTAION-LB-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023503 MED OTHER NON R&amp;D-LY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015503 SP PROM OTHERS-LY-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020202 MA-Master Class Rabat-Nord</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020203 MA-MasterClass Casa Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020204 MA-Master Class Casa-Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5013200 Congres ESmo Gi</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020207 MA-Master Class Casa-Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020211 MA-Master Class Rabat-Nord</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023203 MA-ESTRO 2023 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023204 NA- WCGIC 2023 congress (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023217 MA-AMFROM / FFCD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023220 NA- ESMO 2023 congress (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5010201 Materiel promotionnel Thyroide</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5013200 Congrès Thyroide (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5015200 Digitalisation de la thyroidie (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010206 Virtual Center</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013209 Digitalisation de la thyroidie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020202 MA - SMEDIAN CONGRESS 2023 PARTICIPATION</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5021200 MA - MEDICAL SPONSORSHIP PHARMA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015505 SP PROM OTHERS-NG-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020204 MED EDUCATION-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022204 MED CONSULTANCY-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023205 MED OTHER NON R&amp;D-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022204 MED CONSULTANCY-OM-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023205 MED OTHER NON R&amp;D-OM-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023205 MED OTHER NON R&amp;D-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5011204 SP ADVT-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013204 SP CONG/EVENTS-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030208 SP RIGISTRATION RENEWAL-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020204 MED EDUCATION-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022204 MED CONSULTANCY-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023205 MED OTHER NON R&amp;D-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043410 R&amp;D REGISTRTAION-PS-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023405 MED OTHER NON R&amp;D-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023405 MED OTHER NON R&amp;D-PS-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022405 MED CONSULTANCY-PS-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022405 MED CONSULTANCY-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023405 MED OTHER NON R&amp;D-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022405 MED CONSULTANCY-PS-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023405 MED OTHER NON R&amp;D-PS-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020205 MED EDUCATION-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022205 MED CONSULTANCY-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023206 MED OTHER NON R&amp;D-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022205 MED CONSULTANCY-QA-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023206 MED OTHER NON R&amp;D-QA-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022205 MED CONSULTANCY-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023206 MED OTHER NON R&amp;D-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022205 MED CONSULTANCY-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013205 SP CONG/EVENTS-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015216 SP PROM OTHERS-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030209 SP MOFA DOC LEGALIZA.-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030210 SP RIGISTRATION RENEWAL-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022205 MED CONSULTANCY-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001SA5010301 SHR COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001SA5013301 SHR COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5020301 ERB MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5021301 ERB MED-MED DONATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5022301 ERB MED-MED CONSULTANT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5023301 ERB MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5020301 FER MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5022301 FER MED-MED CONSULTANT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5023301 FER MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302SA5020301 DIA MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302SA5023301 DIA MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322SA5023301 CAR MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5010301 THY COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5013301 THY COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5030302 THY COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332SA5020301 THY MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332SA5023301 THY MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043412 R&amp;D REGISTRTAION-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021406 MED DONATION-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022406 MED CONSULTANCY-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023406 MED OTHER NON R&amp;D-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043412 R&amp;D REGISTRTAION-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022406 MED CONSULTANCY-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023406 MED OTHER NON R&amp;D-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030404 SP OTHER M&amp;S-SY-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043412 R&amp;D REGISTRTAION-SY-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001MA5013200 Congrès de la SMEPS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310341TN6013200 manifesto Tunisie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5023200 MA- PSP RAS TESTING PRIVATE (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023222 CRC Preceptorship Berlin</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6021200 TN- RAS cartridges purchase (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6021201 TN - RAS KITS - ALFAHEALTH CARE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6023200 TN- RESEARCHLIGHT fees 2023 (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023206 FERT-TN-SRMGO-LUNCH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023208 FERT-MA-AGC AGADIR</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023209 FERT-MA-SMFC SPONSORSHIP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020212 FERT-DZ-GENSPARK</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023219 FERT-DZ-DEXEUS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6020200 FERT-TN-PATIENT AWARENESS CAMPAIGN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023208 FERT-TN-Tunisian HCPs sponsorship for SR</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023209 FERT-TN-SALON DE GYNECO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023210 FERT-TN-AFFS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322MA5020200 PEC DR ALAMI</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322MA5020201 Printemps de cardiologie 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322TN5013200 ESC Congress Participation 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322TN5023201 Medical Sponsorship - Algerian Society</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5013204 Manifesto Maroc</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010208 Thyroidaware website Traduction</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010209 Manifesto Algérie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013217 Congres et journées</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013220 Thyroid speaker tour</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6010201 Materiel promotionnel (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6013201 Journées regionales (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6015200 Tables rondes , Ateliers et staffs</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020205 MEDICO EVENT 2023</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020206 Medico Event 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5023201 Soumission nouvelle formule levothyrox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5020205 EXPERT MEETING ENF DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5020206 MANOFESTO - MEDICAL ACTIVITIES - ALGERIA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023210 Participation au congrés de la SAEM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331VN5010200 THY COM Promotion material</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023207 MED OTHER NON R&amp;D-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013206 SP CONG/EVENTS-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030212 SP RIGISTRATION RENEWAL-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020206 MED EDUCATION-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022206 MED CONSULTANCY-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010201 SP PROM MAT-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013201 SP CONG/EVENTS-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015206 SP PROM OTHERS-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030201 SP OTHER M&amp;S-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030202 SP RIGISTRATION RENEWAL-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022201 MED CONSULTANCY-AE-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023201 MED OTHER NON R&amp;D-AE-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013202 SP CONG/EVENTS-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030203 SP OTHER M&amp;S-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030204 SP RIGISTRATION RENEWAL-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022202 MED CONSULTANCY-BH-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023203 MED OTHER NON R&amp;D-BH-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321CH7610200 CARDIO COM Promo (Mailings, Ads, etc.)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030502 SP OTHER M&amp;S-FS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010204 Materiels promotionels</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023202 JNLF23 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023203 MEDICAL SYMPOSIUM DZ23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023204 EAN congres23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023206 MEDICAL SYMPOSIUM DZ23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023208 ECTRIMS23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023213 Rencontre de neurologie de paris 23 HQ5</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5010216 B5 Commercial-EG-Pro. material-Print M.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5010224 B5 Commercial-EG-Pro. material-Digital M</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5011217 B5 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5015240 B5 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5030247 B5 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023221 B3 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023222 B3 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023229 B3 Med. N R&amp;D-EG-Med N R&amp;D-Patient S.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023242 B3 Med. N R&amp;D-EG-Med N R&amp;D-Medical P.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030401 SP OTHER M&amp;S-IQ-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010402 SP PROM MAT-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013402 SP CONG/EVENTS-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015406 SP PROM OTHERS-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030402 SP OTHER M&amp;S-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010403 SP PROM MAT-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013403 SP CONG/EVENTS-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015409 SP PROM OTHERS-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030403 SP OTHER M&amp;S-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022401 MED CONSULTANCY-JO-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023401 MED OTHER NON R&amp;D-JO-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010203 SP PROM MAT-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013203 SP CONG/EVENTS-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030205 SP RIGISTRATION RENEWAL-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030206 SP RIGISTRATION RENEWAL-KW-CARD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022203 MED CONSULTANCY-KW-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023204 MED OTHER NON R&amp;D-KW-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030404 SP OTHER M&amp;S-LB-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5020402 MED EDUCATION-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022402 MED CONSULTANCY-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023402 MED OTHER NON R&amp;D-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015503 SP PROM OTHERS-LY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030506 SP REG-LY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023405 MED OTHER NON R&amp;D-LY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5010200 Matériel promotionnel cardiology</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013200 Sponsoring Journées scientifiques cardio</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013202 table ronde cardiology (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013204 Congrès nationaux (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010202 Matériel promotionnel cardiology (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010203 promtional material maroc</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5020200 EXCELLENCE ACADEMY MA 23 (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5020202 Journée des amis des mouvememnt anormaux</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5023200 Association neurologue du nord Maroc (MA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5020202 EXCELLENCE ACADEMY MA 23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013501 SP CONG/EVENTS-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015505 SP PROM OTHERS-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030509 SP REG-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013204 SP CONG/EVENTS-OM-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030208 SP RIGISTRATION RENEWAL-OM-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022204 MED CONSULTANCY-OM-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023205 MED OTHER NON R&amp;D-OM-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013405 SP CONG/EVENTS-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015415 SP PROM OTHERS-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022403 MED CONSULTANCY-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023403 MED OTHER NON R&amp;D-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013205 SP CONG/EVENTS-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030209 SP OTHER M&amp;S-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030210 SP RIGISTRATION RENEWAL-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022205 MED CONSULTANCY-QA-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023206 MED OTHER NON R&amp;D-QA-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5010301 CAR COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5013301 CAR COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5030302 CAR COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512SA5020301 MAV MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512SA5023301 MAV MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030406 SP OTHER M&amp;S-SY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5020404 MED EDUCATION-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022404 MED CONSULTANCY-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023404 MED OTHER NON R&amp;D-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010206 materiel promotionel cardiologie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5013208 Congres et journées Cardiologie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN6013202 STNDT nephro</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5020206 ACADEME NOV 23 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5021201 WBD sponsoring APRENE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5022201 Cross charging speakers Adboard</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5022202 Cross charge speaker adboard</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN6020201 Medical Symposium TN Local congresses</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512VN5020300 MAV MED Education</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512VN5022300 MAV MED Consultants</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013206 SP CONG/EVENTS-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030212 SP RIGISTRATION RENEWAL-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101IT5510238 ERB COM PROM Erbitux Promo</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010201 Promotional Material-DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010205 RTE Oncologie North Africa</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013200 SPONSORSHIP DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013201 Merck Program DZ - Workshop Side Effect</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013203 STATE OF THE ART Mcrc H&amp;N DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013205 ONCO'cases 2023 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013210 SPONSOR DZ Journée post AsCO-ESMO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013212 Master Class mCRC H&amp;N -SAFRO- FFCD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013214 ONCO'NNECT LES EXPERTS DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013216 Oncoquest</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013221 Oncology meeting SAFRO DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013225 ONCO'cases 2023</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5015200 Webinars / Staff &amp; RT DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5020200 MMN (Merck Medical NEWSletter)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030208 SP RIGISTRATION RENEWAL-BH-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5011217 52 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5013218 52 Commercial-EG-Cong&amp;events-Conferences</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5015223 52 Commercial-EG-Other pro&amp;Adv-MA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5015240 52 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5030247 52 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030402 SP OTHER M&amp;S-IR-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5010403 SP PROM MAT-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013409 SP CONG/EVENTS-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015412 SP PROM OTHERS-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030403 SP OTHER M&amp;S-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013203 SP CONG/EVENTS-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015205 SP GAP MRKT RESEARCH-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030204 SP OTHER M&amp;S-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030209 SP RIGISTRATION RENEWAL-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013410 SP CONG/EVENTS-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015414 SP PROM OTHERS-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030404 SP OTHER M&amp;S-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013200 Journée de l'association Diae (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013202 Association du Centre d'Oncologie du CHU</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013206 Congrès de L'AMFROM (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013208 Stand Alone ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013209 Parole d'exp</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013214 Ryad oncologia clinique</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015200 Table Ronde Hôpital Militaire Oncology</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015201 Table Ronde Erbitux Casa-Sud (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015202 Staffs Erbitux MA Casa-Sud (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015204 Table Ronde Erbitux Rabat-Nord (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010202 matériel promotionnel (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013226 Stand Alone Erbitux (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013515 SP CONG/EVENTS-NG-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5011204 SP ADVT-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013204 SP CONG/EVENTS-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030210 SP RIGISTRATION RENEWAL-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013411 SP CONG/EVENTS-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015416 SP PROM OTHERS-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030405 SP OTHER M&amp;S-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013205 SP CONG/EVENTS-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030206 SP OTHER M&amp;S-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030211 SP RIGISTRATION RENEWAL-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5013313 ERB COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5015301 ERB COM-OTHER PROM-SA-GAP MRKT RESEARCH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5015302 ERB COM-OTHER PROM-SA-GAP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5030302 ERB COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013412 SP CONG/EVENTS-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030406 SP OTHER M&amp;S-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5010201 Matériel Promotionel ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013219 Action Cancer marrakech</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013220 Pharmaco-economic Workshop</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013221 Pharmaco-économic Workshop (PHEW)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013222 Congrès de la société Marocaine de Cance</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013224 Paroles d'expert (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013229 Stand Alone ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6010200 Matériel promotionnel Onco Biotech TN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013200 Journée d'oncologie médicale du sud Onco</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013202 Journée ATCC Onco Biotech TN (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013203 Journée STOM Onco Biotech TN (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013204 Jd'oncologie médicaleducentreOncoBiotTN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013207 Journée de l'Hopital militaireOncoBiotTN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013208 Journée Salah Azaiez ATSP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6015200 Staffs, tables rondes, divers Onco</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013201 SP CONG/EVENTS-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030201 SP OTHER M&amp;S-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030202 SP RIGISTRATION RENEWAL-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030212 SP RIGISTRATION RENEWAL-YE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5015523 ERB COM PROM OTH ONC ERB ?????+?????</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5015607 ERB COM PROM OTH Bio maker project analy</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5013403 SP CONG/EVENTS-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010403 SP PROM MAT-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310361AE5030401 SP OTHER M&amp;S-JO-GEN MED SANTE</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20GAPHUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001269 </t>
   </si>
 </sst>
 </file>
@@ -1137,9 +2488,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="I421" sqref="I421"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1168,12 +2521,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1181,10 +2534,3642 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DE15E-F19F-4FC6-885E-41CE5CC7177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF2CFA-9458-4513-989A-E7BF44D75D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,250 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006203801109 Disposal Exp-WH</t>
+    <t>P000001121</t>
   </si>
   <si>
-    <t>L000009228</t>
+    <t>FP000000687_IO XX_EL-DS-M Global Mkt Other (IO)</t>
   </si>
   <si>
-    <t>CEMERAL_70006101TM0002 APAC Mfg Head - Life Science</t>
+    <t>FP000000704_IO EL-DS-J Japan Other (IO)</t>
   </si>
   <si>
-    <t>L000009224</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006203100110 To Book ISCO APAC Cost</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000669795</t>
-  </si>
-  <si>
-    <t>L000013771</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000655050 Engineering &amp; Maintenance</t>
-  </si>
-  <si>
-    <t>L000013692</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70T2AL30 Quality Assurance (AL)</t>
-  </si>
-  <si>
-    <t>L000009407</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.5738 SLS TMIC and Cust. &amp; Bus. Insights</t>
-  </si>
-  <si>
-    <t>L000005481</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000AT40RD0001 Workflows R&amp;D</t>
-  </si>
-  <si>
-    <t>L000013315</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000649901 AA R&amp;D Workflows</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000496902 AA R&amp;D workflow team</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860826 SLS Sales Industrial &amp; Testing</t>
-  </si>
-  <si>
-    <t>L000008394</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000003021 SLS Sales I&amp;T</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860823 XXXSLS Sales Diagnostic</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000003020 JP APPLIED SALES</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860911 SLS Sales Customer Segment</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000002101 SLS Sales Pharma &amp; Diagnostics</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860915 Lab Marketing manager</t>
-  </si>
-  <si>
-    <t>L000008403</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860909 CE Dealer Management</t>
-  </si>
-  <si>
-    <t>L000008406</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70MB0000 SAP Next QM</t>
-  </si>
-  <si>
-    <t>L000013459</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763883 SAC Patents</t>
-  </si>
-  <si>
-    <t>L000006422</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000629700 Analytics &amp; Development Support</t>
-  </si>
-  <si>
-    <t>L000006429</t>
-  </si>
-  <si>
-    <t>IPHOENX_000002425301 P_mRNA scale up &amp; process improv (3.0)</t>
-  </si>
-  <si>
-    <t>IPHOENX_000002427301 P_Lipidomics</t>
-  </si>
-  <si>
-    <t>L000006432 Intermediates India</t>
-  </si>
-  <si>
-    <t>L000006420</t>
-  </si>
-  <si>
-    <t>IPHOENX_000002423601 CTO Super Enzyme program</t>
-  </si>
-  <si>
-    <t>L000006435</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092007 Process Solutions</t>
-  </si>
-  <si>
-    <t>L000012399</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US10999957 Inventory Disposal - 3rd party</t>
-  </si>
-  <si>
-    <t>L000010188</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US10999970 Non Allocated personnel costs</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020223 STL RS SIGMA REDEVELOPMENT CORP (SPRUCE)</t>
-  </si>
-  <si>
-    <t>L000010608</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020249 STL RS SECURITY BUILDING-OLIVE ST</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020251 STL RS SPRUCE BUILDING</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000022109 RBI APP APPI ASSETS CO</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000023303 STL BT 2230 PACKAGING DEPR</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.5LP5 AR Allowances - E2E Promise Venture</t>
-  </si>
-  <si>
-    <t>L000013787</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860811 SLS Sales Area</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000002100 SLS Sales Area</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0079586000 Strategic Assist RS</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860902 XXXeCommerce &amp; Digital</t>
-  </si>
-  <si>
-    <t>L000008396</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000006600 eCommerce &amp; Digital</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860901 Head of LS</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000006607 Head of LS</t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010860903 Commercial Enablement</t>
-  </si>
-  <si>
-    <t>L000012414</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000006610 Commercial Enablement</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502961430 SLS AGH Sales</t>
-  </si>
-  <si>
-    <t>L000008420</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502961450 Comm Enablement</t>
-  </si>
-  <si>
-    <t>L000008428</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502961436 SLS Digital Sales</t>
-  </si>
-  <si>
-    <t>L000008433</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502961770 Customer Excellence Tech Service</t>
-  </si>
-  <si>
-    <t>L000008439</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502991732 Customer Excellence</t>
-  </si>
-  <si>
-    <t>EMERAL_70006502961511 SLS Commercial head</t>
-  </si>
-  <si>
-    <t>L000008437</t>
-  </si>
-  <si>
-    <t>LT1347700000000</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70T1AL15 ECC Evobrutinib dedicated</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70T6AL60 Gebäude B (Produktion)</t>
-  </si>
-  <si>
-    <t>D30010200000000 Biochem developed kits</t>
-  </si>
-  <si>
-    <t>L000013318</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400763207 XXXD Level up project expense</t>
-  </si>
-  <si>
-    <t>P000001121</t>
+    <t>P000001111</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1131,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1387,10 +1151,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,433 +1165,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A55 A58:A1048576">
+  <conditionalFormatting sqref="A6:A1048576 A1:A3">
     <cfRule type="duplicateValues" dxfId="3" priority="187"/>
     <cfRule type="duplicateValues" dxfId="2" priority="188"/>
     <cfRule type="duplicateValues" dxfId="1" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A55 A58:A1048576">
+  <conditionalFormatting sqref="A6:A1048576 A1:A3">
     <cfRule type="duplicateValues" dxfId="0" priority="196"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF2CFA-9458-4513-989A-E7BF44D75D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4320D-FC2D-4A14-86B2-C055CCBB1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="485">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,1453 @@
     <t>Node</t>
   </si>
   <si>
-    <t>P000001121</t>
-  </si>
-  <si>
-    <t>FP000000687_IO XX_EL-DS-M Global Mkt Other (IO)</t>
-  </si>
-  <si>
-    <t>FP000000704_IO EL-DS-J Japan Other (IO)</t>
-  </si>
-  <si>
-    <t>P000001111</t>
+    <t>PLEAN_X310203AE5043201 R&amp;D LOCAL-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020201 MED EDUCATION-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022201 MED CONSULTANCY-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023201 MED OTHER NON R&amp;D-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5020201 MED EDUCATION-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022201 MED CONSULTANCY-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023201 MED OTHER NON R&amp;D-AE-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020201 MED EDUCATION-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022201 MED CONSULTANCY-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023201 MED OTHER NON R&amp;D-AE-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5020201 MED EDUCATION-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022201 MED CONSULTANCY-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023201 MED OTHER NON R&amp;D-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013201 SP CONG/EVENTS-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015202 SP GAP OTHER-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015210 SP DIGITAL-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030201 SP OTHER M&amp;S-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030202 SP RIGISTRATION RENEWAL-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020201 MED EDUCATION-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022201 MED CONSULTANCY-AE-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043201 R&amp;D LOCAL-AE-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022202 MED CONSULTANCY-BH-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023203 MED OTHER NON R&amp;D-BH-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020202 MED EDUCATION-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022202 MED CONSULTANCY-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023203 MED OTHER NON R&amp;D-BH-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5021202 MED DONATION-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022202 MED CONSULTANCY-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023203 MED OTHER NON R&amp;D-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013202 SP CONG/EVENTS-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030204 SP RIGISTRATION RENEWAL-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022202 MED CONSULTANCY-BH-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202CH7621200 FER MED Donations</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322CH7630201 Local R&amp;D Regulatory Concor Family</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332CH7630200 MAP Euthyrox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023501 MED OTHER NON R&amp;D-FS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043501 R&amp;D LOCAL-FS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020200 DZ- Prise en charge Dr Abdelhafi Soumeya</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020201 DZ- MEDICO Speakers fees</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020209 7eme COM SAFRO (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020212 EAHP CONGRES 24</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5021201 DZ- PSP SKIN CARE KITS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5021203 DZ- RAS cartridges purchase</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023200 DZ- Awareness Compaign 2023 (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023201 DZ- Sponsorship AIC (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023202 DZ- PSP RAS Testing - Clinica fees HQ50</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023208 DZ- MSL activities</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023213 DZ- Sponsoring ASPATH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023214 DZ- sponsoring SICAN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020203 FERT-DZ-PERGOVERIS LAUNCH ACTIVITIES DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020209 FERT-DZ-SAMERE SYMPOSIUM (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020210 FERT-DZ-SAMERE SYMPOSIUM (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023202 FERT-DZ-EXCELLENCE IN ART III-TURKEY HQ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023210 FERT-DZ-WORKSHOP FERTILIA (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023216 FERT-NA-ESHRE 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023217 FERT-NA-EMEA ACADEME CONFERENCE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023218 FERT-DZ-AFFS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010201 Materiels promotionnels</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010207 Promotion material</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013200 Congrés et Journées Nationales et region</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013201 Stand alone Diabetes et Thyroids (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013214 Journées regionales (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013216 congres et journées nationales et region</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023202 MEDIA AWARENESS COMPAIGN HYPOTHYROIDISM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023209 DZ - Call Center LEVOTHYROX New Formula</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023221 52 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023222 52 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023229 52 Med. N R&amp;D-EG-Med N R&amp;D-Patient S.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102EG5023234 52 Med. N R&amp;D-EG-Med N R&amp;D- Med Screen.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023221 A4 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023222 A4 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202EG5023231 A4 Med. N R&amp;D-EG-Med N R&amp;D-P Awareness</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302EG5023222 B4 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302EG5023234 B4 Med. N R&amp;D-EG-Med N R&amp;D- Med Screen.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5020226 B5 Med. N R&amp;D-EG-Med. Edu.-Med. Edu.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5015222 B5 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5023222 B5 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322EG5023242 B5 Med. N R&amp;D-EG-Med N R&amp;D-Medical P.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5010224 77 Commercial-EG-Pro. material-Digital M</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5011217 77 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5013218 77 Commercial-EG-Cong&amp;events-Conferences</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5013220 77 Commercial-EG-Cong&amp;events-Expert M.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5015240 77 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331EG5030247 77 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5020226 77 Med. N R&amp;D-EG-Med. Edu.-Med. Edu.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5023222 77 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332EG5023231 77 Med. N R&amp;D-EG-Med N R&amp;D-P Awareness</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043402 R&amp;D REGISTRTAION-IQ-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043402 R&amp;D REGISTRTAION-IQ-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323AE5043402 R&amp;D REGISTRTAION-IQ-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030401 SP OTHER M&amp;S-IQ-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333AE5043402 R&amp;D REGISTRTAION-IQ-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043402 R&amp;D REGISTRTAION-IQ-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5020402 MED EDUCATION-IR-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023402 MED OTHER NON R&amp;D-IR-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020402 MED EDUCATION-IR-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023402 MED OTHER NON R&amp;D-IR-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5020402 MED EDUCATION-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022402 MED CONSULTANCY-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023402 MED OTHER NON R&amp;D-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010402 SP PROM MAT-IR-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322IT5521328 Cardio MED Non R&amp;D Med Don</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322IT5523328 Cardio MED Non R&amp;D Med Other</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331IT5511327 Digital SProm Eutirox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043406 R&amp;D REGISTRTAION-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020403 MED EDUCATION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021403 MED DONATION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022403 MED CONSULTANCY-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023403 MED OTHER NON R&amp;D-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043406 R&amp;D REGISTRTAION-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022403 MED CONSULTANCY-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023403 MED OTHER NON R&amp;D-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022403 MED CONSULTANCY-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023403 MED OTHER NON R&amp;D-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043406 R&amp;D REGISTRTAION-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022403 MED CONSULTANCY-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023403 MED OTHER NON R&amp;D-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323AE5043406 R&amp;D REGISTRTAION-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010403 SP PROM MAT-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013403 SP CONG/EVENTS-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015409 SP PROM OTHERS-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030403 SP OTHER M&amp;S-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020403 MED EDUCATION-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022403 MED CONSULTANCY-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023403 MED OTHER NON R&amp;D-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333AE5043406 R&amp;D REGISTRTAION-JO-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043406 R&amp;D REGISTRTAION-JO-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015502 SP PROM OTHERS-KE-THYROID / MENIFESTO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023204 MED OTHER NON R&amp;D-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022203 MED CONSULTANCY-KW-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023204 MED OTHER NON R&amp;D-KW-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5020203 MED EDUCATION-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022203 MED CONSULTANCY-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023204 MED OTHER NON R&amp;D-KW-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022203 MED CONSULTANCY-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023204 MED OTHER NON R&amp;D-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5010203 SP PROM MAT-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013203 SP CONG/EVENTS-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030205 SP MOFA DOC LEGALIZA.-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030206 SP RIGISTRATION RENEWAL-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020203 MED EDUCATION-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022203 MED CONSULTANCY-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023204 MED OTHER NON R&amp;D-KW-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043408 R&amp;D REGISTRTAION-LB-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020404 MED EDUCATION-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021404 MED DONATION-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022404 MED CONSULTANCY-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023404 MED OTHER NON R&amp;D-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043407 R&amp;D LOCAL-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023404 MED OTHER NON R&amp;D-LB-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303AE5043408 R&amp;D REGISTRTAION-LB-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043408 R&amp;D REGISTRTAION-LB-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023503 MED OTHER NON R&amp;D-LY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015503 SP PROM OTHERS-LY-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020202 MA-Master Class Rabat-Nord</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020203 MA-MasterClass Casa Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5020204 MA-Master Class Casa-Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5013200 Congres ESmo Gi</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020207 MA-Master Class Casa-Sud</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5020211 MA-Master Class Rabat-Nord</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023203 MA-ESTRO 2023 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023204 NA- WCGIC 2023 congress (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023217 MA-AMFROM / FFCD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023220 NA- ESMO 2023 congress (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5010201 Materiel promotionnel Thyroide</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5013200 Congrès Thyroide (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5015200 Digitalisation de la thyroidie (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010206 Virtual Center</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013209 Digitalisation de la thyroidie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020202 MA - SMEDIAN CONGRESS 2023 PARTICIPATION</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5021200 MA - MEDICAL SPONSORSHIP PHARMA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015505 SP PROM OTHERS-NG-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020204 MED EDUCATION-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022204 MED CONSULTANCY-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023205 MED OTHER NON R&amp;D-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022204 MED CONSULTANCY-OM-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023205 MED OTHER NON R&amp;D-OM-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023205 MED OTHER NON R&amp;D-OM-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5011204 SP ADVT-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013204 SP CONG/EVENTS-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030208 SP RIGISTRATION RENEWAL-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020204 MED EDUCATION-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022204 MED CONSULTANCY-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023205 MED OTHER NON R&amp;D-OM-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043410 R&amp;D REGISTRTAION-PS-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023405 MED OTHER NON R&amp;D-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023405 MED OTHER NON R&amp;D-PS-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022405 MED CONSULTANCY-PS-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022405 MED CONSULTANCY-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023405 MED OTHER NON R&amp;D-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022405 MED CONSULTANCY-PS-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5023405 MED OTHER NON R&amp;D-PS-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5020205 MED EDUCATION-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022205 MED CONSULTANCY-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023206 MED OTHER NON R&amp;D-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022205 MED CONSULTANCY-QA-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023206 MED OTHER NON R&amp;D-QA-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5022205 MED CONSULTANCY-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302AE5023206 MED OTHER NON R&amp;D-QA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5022205 MED CONSULTANCY-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013205 SP CONG/EVENTS-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5015216 SP PROM OTHERS-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030209 SP MOFA DOC LEGALIZA.-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030210 SP RIGISTRATION RENEWAL-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022205 MED CONSULTANCY-QA-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001SA5010301 SHR COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001SA5013301 SHR COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5020301 ERB MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5021301 ERB MED-MED DONATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5022301 ERB MED-MED CONSULTANT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102SA5023301 ERB MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5020301 FER MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5022301 FER MED-MED CONSULTANT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202SA5023301 FER MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302SA5020301 DIA MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310302SA5023301 DIA MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322SA5023301 CAR MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5010301 THY COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5013301 THY COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331SA5030302 THY COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332SA5020301 THY MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332SA5023301 THY MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310203AE5043412 R&amp;D REGISTRTAION-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5021406 MED DONATION-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5022406 MED CONSULTANCY-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102AE5023406 MED OTHER NON R&amp;D-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310103AE5043412 R&amp;D REGISTRTAION-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5022406 MED CONSULTANCY-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202AE5023406 MED OTHER NON R&amp;D-SY-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030404 SP OTHER M&amp;S-SY-THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310503AE5043412 R&amp;D REGISTRTAION-SY-MULTSC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310001MA5013200 Congrès de la SMEPS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310341TN6013200 manifesto Tunisie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102MA5023200 MA- PSP RAS TESTING PRIVATE (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN5023222 CRC Preceptorship Berlin</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6021200 TN- RAS cartridges purchase (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6021201 TN - RAS KITS - ALFAHEALTH CARE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310102TN6023200 TN- RESEARCHLIGHT fees 2023 (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023206 FERT-TN-SRMGO-LUNCH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023208 FERT-MA-AGC AGADIR</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202MA5023209 FERT-MA-SMFC SPONSORSHIP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5020212 FERT-DZ-GENSPARK</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN5023219 FERT-DZ-DEXEUS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6020200 FERT-TN-PATIENT AWARENESS CAMPAIGN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023208 FERT-TN-Tunisian HCPs sponsorship for SR</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023209 FERT-TN-SALON DE GYNECO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202TN6023210 FERT-TN-AFFS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322MA5020200 PEC DR ALAMI</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322MA5020201 Printemps de cardiologie 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322TN5013200 ESC Congress Participation 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322TN5023201 Medical Sponsorship - Algerian Society</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331MA5013204 Manifesto Maroc</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010208 Thyroidaware website Traduction</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5010209 Manifesto Algérie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013217 Congres et journées</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN5013220 Thyroid speaker tour</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6010201 Materiel promotionnel (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6013201 Journées regionales (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331TN6015200 Tables rondes , Ateliers et staffs</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020205 MEDICO EVENT 2023</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5020206 Medico Event 2024</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332MA5023201 Soumission nouvelle formule levothyrox</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5020205 EXPERT MEETING ENF DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5020206 MANOFESTO - MEDICAL ACTIVITIES - ALGERIA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332TN5023210 Participation au congrés de la SAEM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331VN5010200 THY COM Promotion material</t>
+  </si>
+  <si>
+    <t>PLEAN_X310322AE5023207 MED OTHER NON R&amp;D-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5013206 SP CONG/EVENTS-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331AE5030212 SP RIGISTRATION RENEWAL-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5020206 MED EDUCATION-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310332AE5022206 MED CONSULTANCY-YE -THYROID</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010201 SP PROM MAT-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013201 SP CONG/EVENTS-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015206 SP PROM OTHERS-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030201 SP OTHER M&amp;S-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030202 SP RIGISTRATION RENEWAL-AE-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022201 MED CONSULTANCY-AE-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023201 MED OTHER NON R&amp;D-AE-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013202 SP CONG/EVENTS-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030203 SP OTHER M&amp;S-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030204 SP RIGISTRATION RENEWAL-BH-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022202 MED CONSULTANCY-BH-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023203 MED OTHER NON R&amp;D-BH-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321CH7610200 CARDIO COM Promo (Mailings, Ads, etc.)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030502 SP OTHER M&amp;S-FS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010204 Materiels promotionels</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023202 JNLF23 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023203 MEDICAL SYMPOSIUM DZ23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023204 EAN congres23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023206 MEDICAL SYMPOSIUM DZ23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023208 ECTRIMS23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5023213 Rencontre de neurologie de paris 23 HQ5</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5010216 B5 Commercial-EG-Pro. material-Print M.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5010224 B5 Commercial-EG-Pro. material-Digital M</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5011217 B5 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5015240 B5 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321EG5030247 B5 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023221 B3 Med. N R&amp;D-EG-Med N R&amp;D-Medical Cong.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023222 B3 Med N R&amp;D-EG-Other Med activity -CRM</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023229 B3 Med. N R&amp;D-EG-Med N R&amp;D-Patient S.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512EG5023242 B3 Med. N R&amp;D-EG-Med N R&amp;D-Medical P.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030401 SP OTHER M&amp;S-IQ-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010402 SP PROM MAT-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013402 SP CONG/EVENTS-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015406 SP PROM OTHERS-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030402 SP OTHER M&amp;S-IR-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010403 SP PROM MAT-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013403 SP CONG/EVENTS-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015409 SP PROM OTHERS-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030403 SP OTHER M&amp;S-JO-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022401 MED CONSULTANCY-JO-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023401 MED OTHER NON R&amp;D-JO-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5010203 SP PROM MAT-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013203 SP CONG/EVENTS-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030205 SP RIGISTRATION RENEWAL-KW-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030206 SP RIGISTRATION RENEWAL-KW-CARD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022203 MED CONSULTANCY-KW-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023204 MED OTHER NON R&amp;D-KW-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030404 SP OTHER M&amp;S-LB-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5020402 MED EDUCATION-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022402 MED CONSULTANCY-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023402 MED OTHER NON R&amp;D-LB-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015503 SP PROM OTHERS-LY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030506 SP REG-LY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023405 MED OTHER NON R&amp;D-LY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5010200 Matériel promotionnel cardiology</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013200 Sponsoring Journées scientifiques cardio</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013202 table ronde cardiology (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321MA5013204 Congrès nationaux (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010202 Matériel promotionnel cardiology (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010203 promtional material maroc</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5020200 EXCELLENCE ACADEMY MA 23 (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5020202 Journée des amis des mouvememnt anormaux</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512MA5023200 Association neurologue du nord Maroc (MA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5020202 EXCELLENCE ACADEMY MA 23</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013501 SP CONG/EVENTS-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015505 SP PROM OTHERS-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030509 SP REG-WA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013204 SP CONG/EVENTS-OM-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030208 SP RIGISTRATION RENEWAL-OM-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022204 MED CONSULTANCY-OM-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023205 MED OTHER NON R&amp;D-OM-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013405 SP CONG/EVENTS-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5015415 SP PROM OTHERS-PS-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022403 MED CONSULTANCY-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023403 MED OTHER NON R&amp;D-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013205 SP CONG/EVENTS-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030209 SP OTHER M&amp;S-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030210 SP RIGISTRATION RENEWAL-QA-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022205 MED CONSULTANCY-QA-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023206 MED OTHER NON R&amp;D-QA-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5010301 CAR COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5013301 CAR COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321SA5030302 CAR COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512SA5020301 MAV MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512SA5023301 MAV MED-MED OTHER NON R&amp;D-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030406 SP OTHER M&amp;S-SY-CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5020404 MED EDUCATION-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5022404 MED CONSULTANCY-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512AE5023404 MED OTHER NON R&amp;D-SY-MAVEN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5010206 materiel promotionel cardiologie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN5013208 Congres et journées Cardiologie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321TN6013202 STNDT nephro</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5020206 ACADEME NOV 23 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5021201 WBD sponsoring APRENE</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5022201 Cross charging speakers Adboard</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN5022202 Cross charge speaker adboard</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512TN6020201 Medical Symposium TN Local congresses</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512VN5020300 MAV MED Education</t>
+  </si>
+  <si>
+    <t>PLEAN_X310512VN5022300 MAV MED Consultants</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5013206 SP CONG/EVENTS-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310321AE5030212 SP RIGISTRATION RENEWAL-YE -CARDIO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101IT5510238 ERB COM PROM Erbitux Promo</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010201 Promotional Material-DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010205 RTE Oncologie North Africa</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013200 SPONSORSHIP DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013201 Merck Program DZ - Workshop Side Effect</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013203 STATE OF THE ART Mcrc H&amp;N DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013205 ONCO'cases 2023 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013210 SPONSOR DZ Journée post AsCO-ESMO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013212 Master Class mCRC H&amp;N -SAFRO- FFCD</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013214 ONCO'NNECT LES EXPERTS DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013216 Oncoquest</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013221 Oncology meeting SAFRO DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013225 ONCO'cases 2023</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5015200 Webinars / Staff &amp; RT DZ (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5020200 MMN (Merck Medical NEWSletter)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030208 SP RIGISTRATION RENEWAL-BH-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5011217 52 Commercial-EG-Adv.-Adv.</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5013218 52 Commercial-EG-Cong&amp;events-Conferences</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5015223 52 Commercial-EG-Other pro&amp;Adv-MA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5015240 52 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101EG5030247 52 Commercial-EG-Other M&amp;S-Registration</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030402 SP OTHER M&amp;S-IR-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5010403 SP PROM MAT-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013409 SP CONG/EVENTS-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015412 SP PROM OTHERS-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030403 SP OTHER M&amp;S-JO-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013203 SP CONG/EVENTS-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015205 SP GAP MRKT RESEARCH-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030204 SP OTHER M&amp;S-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030209 SP RIGISTRATION RENEWAL-KW-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013410 SP CONG/EVENTS-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015414 SP PROM OTHERS-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030404 SP OTHER M&amp;S-LB-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013200 Journée de l'association Diae (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013202 Association du Centre d'Oncologie du CHU</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013206 Congrès de L'AMFROM (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013208 Stand Alone ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013209 Parole d'exp</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013214 Ryad oncologia clinique</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015200 Table Ronde Hôpital Militaire Oncology</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015201 Table Ronde Erbitux Casa-Sud (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015202 Staffs Erbitux MA Casa-Sud (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5015204 Table Ronde Erbitux Rabat-Nord (MA50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5010202 matériel promotionnel (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013226 Stand Alone Erbitux (DZ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013515 SP CONG/EVENTS-NG-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5011204 SP ADVT-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013204 SP CONG/EVENTS-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030210 SP RIGISTRATION RENEWAL-OM-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013411 SP CONG/EVENTS-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5015416 SP PROM OTHERS-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030405 SP OTHER M&amp;S-PS-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013205 SP CONG/EVENTS-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030206 SP OTHER M&amp;S-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030211 SP RIGISTRATION RENEWAL-QA-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5013313 ERB COM-CONG &amp; EVENTS-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5015301 ERB COM-OTHER PROM-SA-GAP MRKT RESEARCH</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5015302 ERB COM-OTHER PROM-SA-GAP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101SA5030302 ERB COM-OTHER M&amp;S-SA-REG. RENEWAL</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013412 SP CONG/EVENTS-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030406 SP OTHER M&amp;S-SY-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5010201 Matériel Promotionel ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013219 Action Cancer marrakech</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013220 Pharmaco-economic Workshop</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013221 Pharmaco-économic Workshop (PHEW)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101MA5013222 Congrès de la société Marocaine de Cance</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013224 Paroles d'expert (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN5013229 Stand Alone ERBITUX</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6010200 Matériel promotionnel Onco Biotech TN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013200 Journée d'oncologie médicale du sud Onco</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013202 Journée ATCC Onco Biotech TN (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013203 Journée STOM Onco Biotech TN (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013204 Jd'oncologie médicaleducentreOncoBiotTN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013207 Journée de l'Hopital militaireOncoBiotTN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6013208 Journée Salah Azaiez ATSP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101TN6015200 Staffs, tables rondes, divers Onco</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5013201 SP CONG/EVENTS-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030201 SP OTHER M&amp;S-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030202 SP RIGISTRATION RENEWAL-AE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101AE5030212 SP RIGISTRATION RENEWAL-YE-ONCO</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5015523 ERB COM PROM OTH ONC ERB 患者马拉松+媒体宣传费</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5015607 ERB COM PROM OTH Bio maker project analy</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5013403 SP CONG/EVENTS-JO-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5010403 SP PROM MAT-JO-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310361AE5030401 SP OTHER M&amp;S-JO-GEN MED SANTE</t>
+  </si>
+  <si>
+    <t>H000003513</t>
+  </si>
+  <si>
+    <t>H000002921</t>
+  </si>
+  <si>
+    <t>H000001981</t>
+  </si>
+  <si>
+    <t>H000000258</t>
+  </si>
+  <si>
+    <t>H000002887</t>
+  </si>
+  <si>
+    <t>H000004022</t>
+  </si>
+  <si>
+    <t>H000002933</t>
+  </si>
+  <si>
+    <t>H000003021</t>
+  </si>
+  <si>
+    <t>H000002982</t>
+  </si>
+  <si>
+    <t>H000001844</t>
+  </si>
+  <si>
+    <t>H000003076</t>
+  </si>
+  <si>
+    <t>H000000277</t>
+  </si>
+  <si>
+    <t>H000003122</t>
+  </si>
+  <si>
+    <t>H000003134</t>
+  </si>
+  <si>
+    <t>H000003169</t>
+  </si>
+  <si>
+    <t>H000003183</t>
+  </si>
+  <si>
+    <t>H000000297</t>
+  </si>
+  <si>
+    <t>H000003242</t>
+  </si>
+  <si>
+    <t>H000003254</t>
+  </si>
+  <si>
+    <t>H000003289</t>
+  </si>
+  <si>
+    <t>H000003342</t>
+  </si>
+  <si>
+    <t>H000003404</t>
+  </si>
+  <si>
+    <t>H000003441</t>
+  </si>
+  <si>
+    <t>H000001318</t>
+  </si>
+  <si>
+    <t>H000003554</t>
+  </si>
+  <si>
+    <t>H000001339</t>
   </si>
 </sst>
 </file>
@@ -1131,9 +2568,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1151,18 +2590,3658 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D35B76-47BC-41C7-B1A6-9F38639DF8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659145C-1F58-4322-84B7-278F71B837B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +37,49 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">PNEXT_D300109208801000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEXT_D300111208801000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1042$PSBR </t>
-  </si>
-  <si>
-    <t>L000006431</t>
-  </si>
-  <si>
-    <t>L000013677</t>
+    <t xml:space="preserve">CSCALA_1025$CON1_A20   </t>
+  </si>
+  <si>
+    <t>H000004167</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$CON1_V38</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10009777 Controlling BD&amp; Strategy HC</t>
+  </si>
+  <si>
+    <t>H000004170</t>
+  </si>
+  <si>
+    <t>CSCALA_1758$0000001007</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A815_AW3</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000UY10050033 Controlling Site ATUSA</t>
+  </si>
+  <si>
+    <t>H000004169</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A815_AV2</t>
+  </si>
+  <si>
+    <t>PLEAN_X310501CH6813064 AAN Global Costs ISS GL3</t>
+  </si>
+  <si>
+    <t>H000004175</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30CA8350 HC-DD&amp;IT - R&amp;D</t>
+  </si>
+  <si>
+    <t>H000000456</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40959201 FTE Transfer</t>
   </si>
 </sst>
 </file>
@@ -1134,9 +1153,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1157,23 +1178,79 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1181,13 +1258,13 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="189"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D35B76-47BC-41C7-B1A6-9F38639DF8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F715586E-37F3-4698-B344-5DD4EBA768C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,25 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">PNEXT_D300109208801000000 </t>
+    <t>D00083600000000 ETM KR</t>
   </si>
   <si>
-    <t xml:space="preserve">PNEXT_D300111208801000000 </t>
+    <t>P000000591</t>
   </si>
   <si>
-    <t xml:space="preserve">CSCALA_1042$PSBR </t>
+    <t>D00109000000000 AUO-OLED-Wearable</t>
   </si>
   <si>
-    <t>L000006431</t>
+    <t>D00109200000000 BOE-OLED-Automotive-T2</t>
   </si>
   <si>
-    <t>L000013677</t>
+    <t>D00112200000000 LGD-OLED-IT-RDH</t>
+  </si>
+  <si>
+    <t>D00117600000000 EL-OT_QI-LC_2024</t>
+  </si>
+  <si>
+    <t>P000000590</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1134,9 +1150,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1157,37 +1175,56 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="189"/>
+  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
+    <cfRule type="duplicateValues" dxfId="4" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
+  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F715586E-37F3-4698-B344-5DD4EBA768C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A433C1-435F-49B4-B5AB-408DABCA8CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="245">
   <si>
     <t>Object</t>
   </si>
@@ -48,25 +37,733 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00083600000000 ETM KR</t>
-  </si>
-  <si>
-    <t>P000000591</t>
-  </si>
-  <si>
-    <t>D00109000000000 AUO-OLED-Wearable</t>
-  </si>
-  <si>
-    <t>D00109200000000 BOE-OLED-Automotive-T2</t>
-  </si>
-  <si>
-    <t>D00112200000000 LGD-OLED-IT-RDH</t>
-  </si>
-  <si>
-    <t>D00117600000000 EL-OT_QI-LC_2024</t>
-  </si>
-  <si>
-    <t>P000000590</t>
+    <t>CTEMPLA_1000GT10HN0B33 BIO - SP Fertility Gonal</t>
+  </si>
+  <si>
+    <t>H000000359</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10BZ4E31 CMC -Sales Promotion Cardiovascular-Ziac</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CR1500</t>
+  </si>
+  <si>
+    <t>H000003900</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CRFI59</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CRFIMS</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CRRXMS</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20ORRX59</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CR00XE</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CR00XS</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDESOPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDESOPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDESOPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDESOPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDESOPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDFFOPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNCOPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNCOPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNCOPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNCOPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNCOPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0300</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0400</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0502</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0571</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0572</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0573</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0574</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0700</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPR0800</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPRS600</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPRS900</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNROPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0400</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0571</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0700</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPR0800</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPRS600</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDNVOPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPDPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPDPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPDPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPDPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0300</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0400</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0502</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0571</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0573</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0574</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0600</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0700</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPR0800</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPIPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOTOPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOTOPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOTOPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOTOPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOTOPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOXEPR0174</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOXEPR0374</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOXEPR0501</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOXEPR0774</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOXEPRS974</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5COOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5COPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5COPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5COPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5FOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5FOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5FOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5FOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PDOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PDPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PDPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PDPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PIOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PIPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5PIPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5ROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5ROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5ROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5ROPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5SOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5SOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5SOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5SOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5TOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5TOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5TOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES5TOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6COOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6COPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6COPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6FOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6FOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6FOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PDOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PDPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PDPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PIOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PIPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6PIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6ROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6ROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6ROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6SOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6SOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6SOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6TOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6TOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES6TOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7COOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7COPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7COPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7FOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7FOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7FOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PDOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PDPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PDPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PIOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PIPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7PIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7ROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7ROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7ROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7SOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7SOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7SOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7TOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7TOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES7TOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES800PR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8COOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8COPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8COPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8COPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8FOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8FOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8FOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8FOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PDOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PDPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PDPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PDPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PIOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PIPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8PIPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8ROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8ROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8ROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8ROPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8SOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8SOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8SOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8SOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8TOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8TOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8TOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES8TOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES900PR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9COOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9COPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9COPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9COPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9FOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9FOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9FOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9FOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PDOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PDPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PDPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PDPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PIOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PIPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PIPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9PIPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9ROOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9ROPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9ROPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9ROPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9SOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9SOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9SOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9SOPR0171</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9TOOH</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9TOPE</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9TOPR0100</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MES9TOPR0171</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CR00PI</t>
+  </si>
+  <si>
+    <t>H000003755</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0100</t>
+  </si>
+  <si>
+    <t>H000003762</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0574</t>
+  </si>
+  <si>
+    <t>H000003761</t>
+  </si>
+  <si>
+    <t>CTEMPNA_US20CFAXPI</t>
+  </si>
+  <si>
+    <t>H000003670</t>
+  </si>
+  <si>
+    <t>CTEMPNA_US20CMAXPI</t>
+  </si>
+  <si>
+    <t>H000003671</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOFSAAXPR01</t>
+  </si>
+  <si>
+    <t>H000003673</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOFSAAXPR71</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR01</t>
+  </si>
+  <si>
+    <t>H000003676</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR80</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR82</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOFCCHXPR89</t>
+  </si>
+  <si>
+    <t>H000003682</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMCCGVPR60</t>
+  </si>
+  <si>
+    <t>H000003683</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMCCEXPR75</t>
+  </si>
+  <si>
+    <t>H000003680</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMCCEXPR76</t>
+  </si>
+  <si>
+    <t>H000003681</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMCCEXPR51</t>
+  </si>
+  <si>
+    <t>H000004360</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMVPTXPR85</t>
+  </si>
+  <si>
+    <t>H000003678</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMVPLXPR73</t>
+  </si>
+  <si>
+    <t>H000003675</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMCCIXPR90</t>
+  </si>
+  <si>
+    <t>H000003679</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMEVBXPR01</t>
+  </si>
+  <si>
+    <t>H000003674</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201XEOMEVBXPR78</t>
   </si>
 </sst>
 </file>
@@ -778,17 +1475,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1150,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,40 +1878,1797 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>228</v>
+      </c>
+      <c r="B218" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>244</v>
+      </c>
+      <c r="B226" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="190"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F715586E-37F3-4698-B344-5DD4EBA768C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD345EA-8CFA-4AEB-B317-B0CF1E5D86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,25 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00083600000000 ETM KR</t>
+    <t>CEMERAL_70006202300729 GoGlobal India</t>
   </si>
   <si>
-    <t>P000000591</t>
-  </si>
-  <si>
-    <t>D00109000000000 AUO-OLED-Wearable</t>
-  </si>
-  <si>
-    <t>D00109200000000 BOE-OLED-Automotive-T2</t>
-  </si>
-  <si>
-    <t>D00112200000000 LGD-OLED-IT-RDH</t>
-  </si>
-  <si>
-    <t>D00117600000000 EL-OT_QI-LC_2024</t>
-  </si>
-  <si>
-    <t>P000000590</t>
+    <t>H000000156</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,53 +1163,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
+  <conditionalFormatting sqref="A8:A1048576 A1:A2">
     <cfRule type="duplicateValues" dxfId="4" priority="188"/>
     <cfRule type="duplicateValues" dxfId="3" priority="189"/>
     <cfRule type="duplicateValues" dxfId="2" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A1048576 A4:A6 A1:A2">
+  <conditionalFormatting sqref="A8:A1048576 A1:A2">
     <cfRule type="duplicateValues" dxfId="1" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD345EA-8CFA-4AEB-B317-B0CF1E5D86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357F943-A37A-424C-90A7-8AF6FE113422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="8505" yWindow="6210" windowWidth="14970" windowHeight="14610" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,76 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006202300729 GoGlobal India</t>
-  </si>
-  <si>
-    <t>H000000156</t>
+    <t>CITR_1000$$$1721IT011</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9927</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000021376</t>
+  </si>
+  <si>
+    <t>G000000627</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010237</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$IBT</t>
+  </si>
+  <si>
+    <t>G000001235</t>
+  </si>
+  <si>
+    <t>CPRJ-9520230032 BEAM THERAPEUTICS_ADCX</t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t>CPRJ-9520230049 Mersana Target 1 ADC</t>
+  </si>
+  <si>
+    <t>CPRJ-952024001 PharmaEssentia ADC Express</t>
+  </si>
+  <si>
+    <t>CPRJ-952024002 SUTRO_STRO-004</t>
+  </si>
+  <si>
+    <t>CPRJ-952024003 EXELIXIS_XB033</t>
+  </si>
+  <si>
+    <t>CPRJ-9820230005 ROCHE SG6</t>
+  </si>
+  <si>
+    <t>CPRJ-9820230013 ImmunoGen SSP Redevelopment</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240002 Daiichi T228-7235a (MAAA-1818) MA8</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240003 Bicycle BC6</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240005 Qualification of Procos SDG-1006</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240007 SGD-1006</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240008 BMS SC2</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240009 Lantheus  ECD Bicisate</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240012 M1774</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1227,150 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD345EA-8CFA-4AEB-B317-B0CF1E5D86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD9C8E-839D-4905-870D-D3C2CF944A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006202300729 GoGlobal India</t>
+    <t>CEMERAL_7000650296175A</t>
   </si>
   <si>
-    <t>H000000156</t>
+    <t>L000012332</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40701603</t>
+  </si>
+  <si>
+    <t>G000001235</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20CR00PI</t>
+  </si>
+  <si>
+    <t>H000003755</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR/1945.9936</t>
+  </si>
+  <si>
+    <t>G000000704</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR/1975.SM91</t>
+  </si>
+  <si>
+    <t>O000000005</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1159,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1163,6 +1187,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD9C8E-839D-4905-870D-D3C2CF944A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE4C13-E5AB-4755-AB09-A1F414AECAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +37,226 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_7000650296175A</t>
-  </si>
-  <si>
-    <t>L000012332</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40701603</t>
-  </si>
-  <si>
-    <t>G000001235</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US20CR00PI</t>
-  </si>
-  <si>
-    <t>H000003755</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR/1945.9936</t>
-  </si>
-  <si>
-    <t>G000000704</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR/1975.SM91</t>
-  </si>
-  <si>
-    <t>O000000005</t>
+    <t>CTEMPLA_1000CO10RDCPE1 Reg. Digital Camp</t>
+  </si>
+  <si>
+    <t>H000000340</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10551000 FF DOLOR ZONA NORTE - CHC 1</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10590036 Demand Planner Regional</t>
+  </si>
+  <si>
+    <t>ITEMPLA_001720000081 Familia Hepabionta</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000UY10020060 Pharmacovigilance translations</t>
+  </si>
+  <si>
+    <t>H000000385</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201DE6230432 1891_BD_A4_FD_M&amp;S OTH</t>
+  </si>
+  <si>
+    <t>H000000401</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A104_A34</t>
+  </si>
+  <si>
+    <t>H000001152</t>
+  </si>
+  <si>
+    <t>CEMERAL_7000640352SS05 Strategic Planning</t>
+  </si>
+  <si>
+    <t>H000002445</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000AR10P05010 MSQ Alemania expenses</t>
+  </si>
+  <si>
+    <t>H000004034</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ0F27 HC GVAP Operations</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6802037 ESHRE global F55 costs-1500 Germany ISS</t>
+  </si>
+  <si>
+    <t>H000000164</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6802044 ESHRE global FD0 costs-1261 Germany ISS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6802045 ESHRE global FD1 costs-1261 Germany ISS</t>
+  </si>
+  <si>
+    <t>H000000948</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6810043 Innovation research</t>
+  </si>
+  <si>
+    <t>H000000176</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6814165 GBF Head Projects</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511CH6802062 AAN Global Costs1881 US ISS F55</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009101111 7001IC1891SP3110350000</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6814195 Smart Patient Licenses &amp; Support for Car</t>
+  </si>
+  <si>
+    <t>H000001056</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10200034 Regional GVAP</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$DUSA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015700 FD COM PROM OTH ??????????????</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201DE5015032 FD COM PROM OTH Fertility</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301CN5015700 DIA COM PROM OTH health care resouce sav</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5015601 SP PROM OTHERS-FC8-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310529DE5015017 GVAP Head Office</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10009099</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511CH6802064 AAN Global Costs ISS FD1</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511CH6802081 AAN Global Costs ISS FD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPNA_1000PH80GBTL55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001262 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPEU_1000PL80GHR233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001265 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTEMPLA_1000GT10ZZ1A30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000055 </t>
+  </si>
+  <si>
+    <t>ITEMPEU_003200004198 Royalty Expenses PSI</t>
+  </si>
+  <si>
+    <t>L000006562</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US12998877 Aquisition Mirus Bio</t>
+  </si>
+  <si>
+    <t>L000013154</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US12998878 Aquisition Mirus Bio</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9935 9935 Integration Mirus Bio</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000658255 LS-ODD-DFD Transport Damage</t>
+  </si>
+  <si>
+    <t>L000013691</t>
+  </si>
+  <si>
+    <t>OFB0_3020232000_BF-LM_2102</t>
+  </si>
+  <si>
+    <t>L000013656</t>
+  </si>
+  <si>
+    <t>OFB0_3020232000_BF-LY_2102</t>
+  </si>
+  <si>
+    <t>OFB0_3020232000_BF-PB_2102</t>
+  </si>
+  <si>
+    <t>OFB0_3020232000_BF-PD_2102</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015942 Bride to retirement employees</t>
+  </si>
+  <si>
+    <t>L000010074</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2619 2619 Idle Capacity</t>
+  </si>
+  <si>
+    <t>L000010441</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000496221 LS Operations Project Controlling</t>
+  </si>
+  <si>
+    <t>L000013377</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502993165 LS ISCO Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70006502993165 </t>
+  </si>
+  <si>
+    <t>CSCALA_1826$835_HR1</t>
+  </si>
+  <si>
+    <t>L000013387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1872$0000000835 </t>
+  </si>
+  <si>
+    <t>CSCALA_1826$835_C72</t>
+  </si>
+  <si>
+    <t>CSCALA_1826$835_C81</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000DE40MS4005</t>
+  </si>
+  <si>
+    <t>L000007703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1923$B14 </t>
+  </si>
+  <si>
+    <t>L000012399</t>
   </si>
 </sst>
 </file>
@@ -787,17 +968,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1159,10 +1330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,48 +1363,413 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A1048576 A1:A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="190"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="214"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A1048576 A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE4C13-E5AB-4755-AB09-A1F414AECAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E365663-FF64-4091-8039-911E5A288ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -37,226 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPLA_1000CO10RDCPE1 Reg. Digital Camp</t>
-  </si>
-  <si>
-    <t>H000000340</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10551000 FF DOLOR ZONA NORTE - CHC 1</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10590036 Demand Planner Regional</t>
-  </si>
-  <si>
-    <t>ITEMPLA_001720000081 Familia Hepabionta</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000UY10020060 Pharmacovigilance translations</t>
-  </si>
-  <si>
-    <t>H000000385</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201DE6230432 1891_BD_A4_FD_M&amp;S OTH</t>
-  </si>
-  <si>
-    <t>H000000401</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A104_A34</t>
-  </si>
-  <si>
-    <t>H000001152</t>
-  </si>
-  <si>
-    <t>CEMERAL_7000640352SS05 Strategic Planning</t>
-  </si>
-  <si>
-    <t>H000002445</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000AR10P05010 MSQ Alemania expenses</t>
-  </si>
-  <si>
-    <t>H000004034</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ0F27 HC GVAP Operations</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6802037 ESHRE global F55 costs-1500 Germany ISS</t>
-  </si>
-  <si>
-    <t>H000000164</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6802044 ESHRE global FD0 costs-1261 Germany ISS</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6802045 ESHRE global FD1 costs-1261 Germany ISS</t>
-  </si>
-  <si>
-    <t>H000000948</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6810043 Innovation research</t>
-  </si>
-  <si>
-    <t>H000000176</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6814165 GBF Head Projects</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511CH6802062 AAN Global Costs1881 US ISS F55</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101111 7001IC1891SP3110350000</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6814195 Smart Patient Licenses &amp; Support for Car</t>
-  </si>
-  <si>
-    <t>H000001056</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10200034 Regional GVAP</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$DUSA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015700 FD COM PROM OTH ??????????????</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201DE5015032 FD COM PROM OTH Fertility</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301CN5015700 DIA COM PROM OTH health care resouce sav</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5015601 SP PROM OTHERS-FC8-FERT</t>
-  </si>
-  <si>
-    <t>PLEAN_X310529DE5015017 GVAP Head Office</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10009099</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511CH6802064 AAN Global Costs ISS FD1</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511CH6802081 AAN Global Costs ISS FD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPNA_1000PH80GBTL55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001262 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPEU_1000PL80GHR233 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001265 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEMPLA_1000GT10ZZ1A30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000055 </t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200004198 Royalty Expenses PSI</t>
-  </si>
-  <si>
-    <t>L000006562</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US12998877 Aquisition Mirus Bio</t>
-  </si>
-  <si>
-    <t>L000013154</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US12998878 Aquisition Mirus Bio</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9935 9935 Integration Mirus Bio</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000658255 LS-ODD-DFD Transport Damage</t>
-  </si>
-  <si>
-    <t>L000013691</t>
-  </si>
-  <si>
-    <t>OFB0_3020232000_BF-LM_2102</t>
-  </si>
-  <si>
-    <t>L000013656</t>
-  </si>
-  <si>
-    <t>OFB0_3020232000_BF-LY_2102</t>
-  </si>
-  <si>
-    <t>OFB0_3020232000_BF-PB_2102</t>
-  </si>
-  <si>
-    <t>OFB0_3020232000_BF-PD_2102</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015942 Bride to retirement employees</t>
-  </si>
-  <si>
-    <t>L000010074</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2619 2619 Idle Capacity</t>
-  </si>
-  <si>
-    <t>L000010441</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000496221 LS Operations Project Controlling</t>
-  </si>
-  <si>
-    <t>L000013377</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502993165 LS ISCO Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006502993165 </t>
-  </si>
-  <si>
-    <t>CSCALA_1826$835_HR1</t>
-  </si>
-  <si>
     <t>L000013387</t>
   </si>
   <si>
-    <t xml:space="preserve">CSCALA_1872$0000000835 </t>
+    <t>CSCALA_1826$0000000834</t>
   </si>
   <si>
-    <t>CSCALA_1826$835_C72</t>
+    <t>CSCALA_1786$0000000160 Regional Franchise Lead Neurology Mid Eu</t>
   </si>
   <si>
-    <t>CSCALA_1826$835_C81</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000DE40MS4005</t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1923$B14 </t>
-  </si>
-  <si>
-    <t>L000012399</t>
+    <t>H000004339</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B52"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,10 +1153,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,399 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204.ONE\Documents\GitHub\GCOH-Tickets-for-Processing\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E365663-FF64-4091-8039-911E5A288ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BAB1F-69AA-4239-B7E6-19C3AD86817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,31 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000013387</t>
+    <t xml:space="preserve">CSCALA_1759$CYBE </t>
   </si>
   <si>
-    <t>CSCALA_1826$0000000834</t>
+    <t>G000000103</t>
   </si>
   <si>
-    <t>CSCALA_1786$0000000160 Regional Franchise Lead Neurology Mid Eu</t>
+    <t>CSCALA_1758$SYBSE</t>
   </si>
   <si>
-    <t>H000004339</t>
+    <t>CTEMPEU_1000GB10005771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001272 </t>
+  </si>
+  <si>
+    <t>ITEMPEU_003300000077</t>
+  </si>
+  <si>
+    <t>L000006428</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2246</t>
+  </si>
+  <si>
+    <t>L000009794</t>
   </si>
 </sst>
 </file>
@@ -65,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="###,000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###,000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -659,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -668,21 +683,21 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -1131,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1168,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1179,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204.ONE\Documents\GitHub\GCOH-Tickets-for-Processing\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BAB1F-69AA-4239-B7E6-19C3AD86817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB3117-171E-4DD9-90F1-7EDD8EDA2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Object</t>
   </si>
@@ -48,31 +48,61 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CSCALA_1759$CYBE </t>
-  </si>
-  <si>
-    <t>G000000103</t>
-  </si>
-  <si>
-    <t>CSCALA_1758$SYBSE</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10005771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001272 </t>
-  </si>
-  <si>
-    <t>ITEMPEU_003300000077</t>
-  </si>
-  <si>
-    <t>L000006428</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2246</t>
-  </si>
-  <si>
-    <t>L000009794</t>
+    <t>CSCALA_1826$450_BD</t>
+  </si>
+  <si>
+    <t>H000004379</t>
+  </si>
+  <si>
+    <t>CSCALA_1826$450_C85</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$IT-APP</t>
+  </si>
+  <si>
+    <t>G000001233</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GBTL17</t>
+  </si>
+  <si>
+    <t>G000001278</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GBTE04</t>
+  </si>
+  <si>
+    <t>G000001276</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GBTL23</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GBTL24</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PT10A52109</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR10701600</t>
+  </si>
+  <si>
+    <t>G000000253</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006202991364</t>
+  </si>
+  <si>
+    <t>G000000318</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9778</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9000</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010452</t>
   </si>
 </sst>
 </file>
@@ -80,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###,000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="###,000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -280,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,8 +514,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -630,6 +666,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -674,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -683,21 +730,21 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -710,8 +757,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,42 +1216,106 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1211,12 +1324,12 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1 A15:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="212"/>
     <cfRule type="duplicateValues" dxfId="2" priority="213"/>
     <cfRule type="duplicateValues" dxfId="1" priority="214"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1 A15:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="221"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB3117-171E-4DD9-90F1-7EDD8EDA2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD620FB-5877-4069-B3C4-F51BADA47F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Object</t>
   </si>
@@ -48,61 +48,118 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1826$450_BD</t>
-  </si>
-  <si>
-    <t>H000004379</t>
-  </si>
-  <si>
-    <t>CSCALA_1826$450_C85</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$IT-APP</t>
-  </si>
-  <si>
-    <t>G000001233</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GBTL17</t>
-  </si>
-  <si>
-    <t>G000001278</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GBTE04</t>
-  </si>
-  <si>
-    <t>G000001276</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GBTL23</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GBTL24</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PT10A52109</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR10701600</t>
-  </si>
-  <si>
-    <t>G000000253</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006202991364</t>
-  </si>
-  <si>
-    <t>G000000318</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9778</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9000</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010452</t>
+    <t>CEMERAL_70007102319201</t>
+  </si>
+  <si>
+    <t>L000007859</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015558 PS Digital ERP Germany 2002</t>
+  </si>
+  <si>
+    <t>L000012690</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000026927 Cleveland Idle Capacity</t>
+  </si>
+  <si>
+    <t>L000009506</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052119 PS Digital Strategic Systems CH</t>
+  </si>
+  <si>
+    <t>L000011729</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052167 ICON DE 15705 STH Idle Costs</t>
+  </si>
+  <si>
+    <t>L000012893</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000059991</t>
+  </si>
+  <si>
+    <t>L000009361</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000059992</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1917.5LP7 AR Allowances - Single-Use, Systems &amp; Services</t>
+  </si>
+  <si>
+    <t>L000007346</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.LLPAX SLS PA PM Specialty &amp; Fine Chemicals</t>
+  </si>
+  <si>
+    <t>L000009204</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.NLCMX SLS CM Cell Marque</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.RLELX PS EL Electra</t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PSFF_P48</t>
+  </si>
+  <si>
+    <t>L000012394</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10200567 Process Solutions Business Franchise Pri</t>
+  </si>
+  <si>
+    <t>L000013560</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10550000003926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001175 </t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201000MCCBXPR71</t>
+  </si>
+  <si>
+    <t>H000003866</t>
+  </si>
+  <si>
+    <t>D00006600000000 Passive Matrix</t>
+  </si>
+  <si>
+    <t>P000000590</t>
+  </si>
+  <si>
+    <t>D00118700000000 GVO-OLED-mobile-VM10</t>
+  </si>
+  <si>
+    <t>P000000591</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-95202400101 MacroGenics_MGCXXX</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-952024005 Merck Healthcare_M0251</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-952024006 Regeneron M2980 ADC</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-952024013 AVIDITY_1072</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240016 Regeneron M2980 DRUG LINKER R80</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240017 Pfizer vcMMAE (SG6)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,14 +571,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -666,17 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,10 +797,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,99 +1263,179 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD620FB-5877-4069-B3C4-F51BADA47F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3D2FB-B088-4B03-97DB-10DF3656AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,118 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70007102319201</t>
+    <t>CTEMPNA_1000US20GBDEXT Global Business Development External</t>
   </si>
   <si>
-    <t>L000007859</t>
+    <t>PLEAN_X310201CH6802034 ESHRE global F04 costs-1261 Germany ISS</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000015558 PS Digital ERP Germany 2002</t>
+    <t>PLEAN_X310511CH6802061 AAN Global Costs ISS F04</t>
   </si>
   <si>
-    <t>L000012690</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000026927 Cleveland Idle Capacity</t>
-  </si>
-  <si>
-    <t>L000009506</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052119 PS Digital Strategic Systems CH</t>
-  </si>
-  <si>
-    <t>L000011729</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052167 ICON DE 15705 STH Idle Costs</t>
-  </si>
-  <si>
-    <t>L000012893</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000059991</t>
-  </si>
-  <si>
-    <t>L000009361</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000059992</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1917.5LP7 AR Allowances - Single-Use, Systems &amp; Services</t>
-  </si>
-  <si>
-    <t>L000007346</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.LLPAX SLS PA PM Specialty &amp; Fine Chemicals</t>
-  </si>
-  <si>
-    <t>L000009204</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.NLCMX SLS CM Cell Marque</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.RLELX PS EL Electra</t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PSFF_P48</t>
-  </si>
-  <si>
-    <t>L000012394</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10200567 Process Solutions Business Franchise Pri</t>
-  </si>
-  <si>
-    <t>L000013560</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10550000003926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001175 </t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201000MCCBXPR71</t>
-  </si>
-  <si>
-    <t>H000003866</t>
-  </si>
-  <si>
-    <t>D00006600000000 Passive Matrix</t>
-  </si>
-  <si>
-    <t>P000000590</t>
-  </si>
-  <si>
-    <t>D00118700000000 GVO-OLED-mobile-VM10</t>
-  </si>
-  <si>
-    <t>P000000591</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-95202400101 MacroGenics_MGCXXX</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-952024005 Merck Healthcare_M0251</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-952024006 Regeneron M2980 ADC</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-952024013 AVIDITY_1072</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240016 Regeneron M2980 DRUG LINKER R80</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240017 Pfizer vcMMAE (SG6)</t>
+    <t>H0000004379</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,12 +1157,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1272,171 +1170,75 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3D2FB-B088-4B03-97DB-10DF3656AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B406C8-97CD-4379-B384-61080428DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPNA_1000US20GBDEXT Global Business Development External</t>
+    <t>H000004379</t>
   </si>
   <si>
-    <t>PLEAN_X310201CH6802034 ESHRE global F04 costs-1261 Germany ISS</t>
+    <t>CTEMPNA_1000US20GBDEXT</t>
   </si>
   <si>
-    <t>PLEAN_X310511CH6802061 AAN Global Costs ISS F04</t>
+    <t>PLEAN_X310201CH6802034</t>
   </si>
   <si>
-    <t>H0000004379</t>
+    <t>PLEAN_X310511CH6802061</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,104 +1154,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="214"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B406C8-97CD-4379-B384-61080428DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54E4E0-3C4E-45FD-AE87-58FBB3A38E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="2610" yWindow="1965" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,73 @@
     <t>Node</t>
   </si>
   <si>
-    <t>H000004379</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US20GBDEXT</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6802034</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511CH6802061</t>
+    <t>CPHOENX_01010000618802 Quattro-CF Semi Customer Service Europe</t>
+  </si>
+  <si>
+    <t>P000000575</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10R04007 Tech Advanced Analytical R&amp;D</t>
+  </si>
+  <si>
+    <t>D24850000 Dielectrics</t>
+  </si>
+  <si>
+    <t>D26720000 XXXLow-k</t>
+  </si>
+  <si>
+    <t>D94730000 Deposition R&amp;D</t>
+  </si>
+  <si>
+    <t>D94850000 XXXSurface Prep &amp; Cleans R&amp;D</t>
+  </si>
+  <si>
+    <t>D95670000 XXXIMEC Gallon Line Rental</t>
+  </si>
+  <si>
+    <t>EN200303 I.500066 Tempe Particle Expansion</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500020 PM-I KGaA</t>
+  </si>
+  <si>
+    <t>IQUATRO_001060000063 XXXRecharge R&amp;D Costs Japan</t>
+  </si>
+  <si>
+    <t>IQUATRO_001100000010 CN02 Promotion Material  IC</t>
+  </si>
+  <si>
+    <t>ITEMPEU_009000001804 Building BE40</t>
+  </si>
+  <si>
+    <t>IVRSM_000001000027 XXXUS10 Home IO AM Planar RD TW91</t>
+  </si>
+  <si>
+    <t>K10001666000 Lab Build Phase 2</t>
+  </si>
+  <si>
+    <t>RD200016 Tempe - Disc Stack Centrifuge</t>
+  </si>
+  <si>
+    <t>RD200037 E.63527 Tempe R&amp;D Malvern Zetasizer 2020</t>
+  </si>
+  <si>
+    <t>RD200041 E.63503 Tempe R&amp;D Kanomax Purchase 2020</t>
+  </si>
+  <si>
+    <t>RD200042 E.63507 Tempe R&amp;D prepFAST Purchase 2020</t>
+  </si>
+  <si>
+    <t>RD200053 I.500068 Upgrade PLA Tempe Technology</t>
+  </si>
+  <si>
+    <t>RD200060 I.500065 Upgrade PLA Judong Lab- Ebara</t>
+  </si>
+  <si>
+    <t>RD210028 E.64121 Tempe TF Apps Lab P5000 Tool Up</t>
+  </si>
+  <si>
+    <t>RD210062 E.65058 PYTK AA Ion chromatography purch</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1211,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1230,159 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54E4E0-3C4E-45FD-AE87-58FBB3A38E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25EE87-113B-41E9-B51D-6EA97CD55202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1965" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,73 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_01010000618802 Quattro-CF Semi Customer Service Europe</t>
+    <t>CITR_1000$$$IT-ID1042</t>
   </si>
   <si>
-    <t>P000000575</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10R04007 Tech Advanced Analytical R&amp;D</t>
-  </si>
-  <si>
-    <t>D24850000 Dielectrics</t>
-  </si>
-  <si>
-    <t>D26720000 XXXLow-k</t>
-  </si>
-  <si>
-    <t>D94730000 Deposition R&amp;D</t>
-  </si>
-  <si>
-    <t>D94850000 XXXSurface Prep &amp; Cleans R&amp;D</t>
-  </si>
-  <si>
-    <t>D95670000 XXXIMEC Gallon Line Rental</t>
-  </si>
-  <si>
-    <t>EN200303 I.500066 Tempe Particle Expansion</t>
-  </si>
-  <si>
-    <t>IPHOENX_000001500020 PM-I KGaA</t>
-  </si>
-  <si>
-    <t>IQUATRO_001060000063 XXXRecharge R&amp;D Costs Japan</t>
-  </si>
-  <si>
-    <t>IQUATRO_001100000010 CN02 Promotion Material  IC</t>
-  </si>
-  <si>
-    <t>ITEMPEU_009000001804 Building BE40</t>
-  </si>
-  <si>
-    <t>IVRSM_000001000027 XXXUS10 Home IO AM Planar RD TW91</t>
-  </si>
-  <si>
-    <t>K10001666000 Lab Build Phase 2</t>
-  </si>
-  <si>
-    <t>RD200016 Tempe - Disc Stack Centrifuge</t>
-  </si>
-  <si>
-    <t>RD200037 E.63527 Tempe R&amp;D Malvern Zetasizer 2020</t>
-  </si>
-  <si>
-    <t>RD200041 E.63503 Tempe R&amp;D Kanomax Purchase 2020</t>
-  </si>
-  <si>
-    <t>RD200042 E.63507 Tempe R&amp;D prepFAST Purchase 2020</t>
-  </si>
-  <si>
-    <t>RD200053 I.500068 Upgrade PLA Tempe Technology</t>
-  </si>
-  <si>
-    <t>RD200060 I.500065 Upgrade PLA Judong Lab- Ebara</t>
-  </si>
-  <si>
-    <t>RD210028 E.64121 Tempe TF Apps Lab P5000 Tool Up</t>
-  </si>
-  <si>
-    <t>RD210062 E.65058 PYTK AA Ion chromatography purch</t>
+    <t>G000000277</t>
   </si>
 </sst>
 </file>
@@ -1189,11 +1126,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1214,174 +1149,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25EE87-113B-41E9-B51D-6EA97CD55202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45966D96-3C11-4611-8CA8-F97E621D379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="8865" yWindow="2835" windowWidth="19140" windowHeight="17805" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +37,91 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CITR_1000$$$IT-ID1042</t>
-  </si>
-  <si>
-    <t>G000000277</t>
+    <t>CEMERAL_70007001028006</t>
+  </si>
+  <si>
+    <t>P000000534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70007001028001 </t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPDRAM01 CDP170-DRAM pre-work</t>
+  </si>
+  <si>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPPLAD01 CDP 171-Defect detection by HF etch decoration</t>
+  </si>
+  <si>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPPLAD02 CDP172-Post-W CMP e-test to correlate with defects</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPPLAM01 CDP174 Miscellaneous tasks for Planarization group</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPTFOM05 CDP197-Micron &amp; EMD OTS Program</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152EMDPTFOM07 CDP201-ALD Mo inhibitor</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152SAMSPVDM01 CDP202-PVD Based IGZO &amp; Dopant Screening</t>
+  </si>
+  <si>
+    <t>P000000575</t>
+  </si>
+  <si>
+    <t>D95090000 XXXPolar Bear</t>
+  </si>
+  <si>
+    <t>T00013300000 IMEC Gallon Line Rental</t>
+  </si>
+  <si>
+    <t>D24870000 Feasibility ER&amp;BD</t>
+  </si>
+  <si>
+    <t>D25220000 Benchmarking</t>
+  </si>
+  <si>
+    <t>D25370000 JDP with IMEC</t>
+  </si>
+  <si>
+    <t>D26490000 EUV MOR</t>
+  </si>
+  <si>
+    <t>D26750000 ALD</t>
+  </si>
+  <si>
+    <t>D27600000 Etch Gas</t>
+  </si>
+  <si>
+    <t>D94750000 Dielectrics R&amp;D</t>
+  </si>
+  <si>
+    <t>D94770000 Lithography R&amp;D</t>
+  </si>
+  <si>
+    <t>D94790000 Planarization R&amp;D</t>
+  </si>
+  <si>
+    <t>D94830000 XXXSpecialty Gases R&amp;D</t>
+  </si>
+  <si>
+    <t>D95250000 CANON</t>
+  </si>
+  <si>
+    <t>D95260000 EUV Incubator Inorganic</t>
+  </si>
+  <si>
+    <t>D95270000 W Slurries Commerc.</t>
+  </si>
+  <si>
+    <t>D95830000 High Index Fluid</t>
   </si>
 </sst>
 </file>
@@ -689,9 +759,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1126,9 +1195,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1145,11 +1216,203 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45966D96-3C11-4611-8CA8-F97E621D379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A2E0F-17EF-42AA-BF77-DA6557D4FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="2835" windowWidth="19140" windowHeight="17805" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Object</t>
   </si>
@@ -37,91 +37,31 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70007001028006</t>
+    <t>CEMERAL_70006101MS3412</t>
   </si>
   <si>
-    <t>P000000534</t>
+    <t>L000012190</t>
   </si>
   <si>
-    <t xml:space="preserve">CEMERAL_70007001028001 </t>
+    <t>CEMERAL_70006101MS3413</t>
   </si>
   <si>
-    <t>CFLTFLE_2152EMDPDRAM01 CDP170-DRAM pre-work</t>
+    <t>CORAERP_MMOR1945.6747</t>
   </si>
   <si>
-    <t>P000001010</t>
+    <t>L000013781</t>
   </si>
   <si>
-    <t>CFLTFLE_2152EMDPPLAD01 CDP 171-Defect detection by HF etch decoration</t>
+    <t>IQUATRO_001050000620</t>
   </si>
   <si>
-    <t>P000001016</t>
+    <t>P000000963</t>
   </si>
   <si>
-    <t>CFLTFLE_2152EMDPPLAD02 CDP172-Post-W CMP e-test to correlate with defects</t>
+    <t>CFLTFLE_1044PMSP</t>
   </si>
   <si>
-    <t>CFLTFLE_2152EMDPPLAM01 CDP174 Miscellaneous tasks for Planarization group</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2152EMDPTFOM05 CDP197-Micron &amp; EMD OTS Program</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2152EMDPTFOM07 CDP201-ALD Mo inhibitor</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2152SAMSPVDM01 CDP202-PVD Based IGZO &amp; Dopant Screening</t>
-  </si>
-  <si>
-    <t>P000000575</t>
-  </si>
-  <si>
-    <t>D95090000 XXXPolar Bear</t>
-  </si>
-  <si>
-    <t>T00013300000 IMEC Gallon Line Rental</t>
-  </si>
-  <si>
-    <t>D24870000 Feasibility ER&amp;BD</t>
-  </si>
-  <si>
-    <t>D25220000 Benchmarking</t>
-  </si>
-  <si>
-    <t>D25370000 JDP with IMEC</t>
-  </si>
-  <si>
-    <t>D26490000 EUV MOR</t>
-  </si>
-  <si>
-    <t>D26750000 ALD</t>
-  </si>
-  <si>
-    <t>D27600000 Etch Gas</t>
-  </si>
-  <si>
-    <t>D94750000 Dielectrics R&amp;D</t>
-  </si>
-  <si>
-    <t>D94770000 Lithography R&amp;D</t>
-  </si>
-  <si>
-    <t>D94790000 Planarization R&amp;D</t>
-  </si>
-  <si>
-    <t>D94830000 XXXSpecialty Gases R&amp;D</t>
-  </si>
-  <si>
-    <t>D95250000 CANON</t>
-  </si>
-  <si>
-    <t>D95260000 EUV Incubator Inorganic</t>
-  </si>
-  <si>
-    <t>D95270000 W Slurries Commerc.</t>
-  </si>
-  <si>
-    <t>D95830000 High Index Fluid</t>
+    <t>P000001198</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,167 +1192,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A2E0F-17EF-42AA-BF77-DA6557D4FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF1CBA-8E81-41EF-A172-8F514040F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>Object</t>
   </si>
@@ -37,31 +37,304 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006101MS3412</t>
-  </si>
-  <si>
     <t>L000012190</t>
   </si>
   <si>
-    <t>CEMERAL_70006101MS3413</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.6747</t>
-  </si>
-  <si>
-    <t>L000013781</t>
-  </si>
-  <si>
-    <t>IQUATRO_001050000620</t>
-  </si>
-  <si>
-    <t>P000000963</t>
-  </si>
-  <si>
-    <t>CFLTFLE_1044PMSP</t>
-  </si>
-  <si>
-    <t>P000001198</t>
+    <t>IPHOENX_004120497076</t>
+  </si>
+  <si>
+    <t>L000012154</t>
+  </si>
+  <si>
+    <t>IPHOENX_004120497077</t>
+  </si>
+  <si>
+    <t>IPHOENX_004120497081</t>
+  </si>
+  <si>
+    <t>C0000000000000000000000024030013</t>
+  </si>
+  <si>
+    <t>L000007122</t>
+  </si>
+  <si>
+    <t>C0000000000000000000000024032213</t>
+  </si>
+  <si>
+    <t>C0000000000000000000000024050043</t>
+  </si>
+  <si>
+    <t>C0000000000000000000000024066011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70007001583001 </t>
+  </si>
+  <si>
+    <t>L000007703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70006101MS3413 </t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LSCC_P48</t>
+  </si>
+  <si>
+    <t>L000008498</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BSFF_999</t>
+  </si>
+  <si>
+    <t>L000008493</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BSFF_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BSFF_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSD_P48</t>
+  </si>
+  <si>
+    <t>L000008497</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LEPM_999</t>
+  </si>
+  <si>
+    <t>L000008495</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LEPM_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MMSS_P48</t>
+  </si>
+  <si>
+    <t>L000008494</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RARE_999</t>
+  </si>
+  <si>
+    <t>L000008473</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RARE_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RSCE_999</t>
+  </si>
+  <si>
+    <t>L000008471</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RSCE_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RSCM_999</t>
+  </si>
+  <si>
+    <t>L000008464</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$RSCM_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$SFDC_P48</t>
+  </si>
+  <si>
+    <t>L000011888</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LWFF_P48</t>
+  </si>
+  <si>
+    <t>L000008460</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BMFF_P48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEMERAL_000009101189 </t>
+  </si>
+  <si>
+    <t>L000012271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.NLD0 </t>
+  </si>
+  <si>
+    <t>L000013188</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PSFF_P19</t>
+  </si>
+  <si>
+    <t>L000012394</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057623</t>
+  </si>
+  <si>
+    <t>G000001131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000010299 </t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010426</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2988</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70ADG400</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007102308300</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80ADG211</t>
+  </si>
+  <si>
+    <t>G000001222</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL800GME50</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80GFO08A</t>
+  </si>
+  <si>
+    <t>G000000704</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GFO059</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000CA20198477</t>
+  </si>
+  <si>
+    <t>H000003918</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006104404040</t>
+  </si>
+  <si>
+    <t>L000011687</t>
+  </si>
+  <si>
+    <t>CPHOENX_01019183506300</t>
+  </si>
+  <si>
+    <t>G000000441</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR10M32185</t>
+  </si>
+  <si>
+    <t>P000000606</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PT10O15312</t>
+  </si>
+  <si>
+    <t>H000001945</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000CO10100302</t>
+  </si>
+  <si>
+    <t>P000000801</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000699201</t>
+  </si>
+  <si>
+    <t>G000000182</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390214</t>
+  </si>
+  <si>
+    <t>H000001679</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390220</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390221</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390222</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390223</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390224</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390225</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390226</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390227</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390228</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390229</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40390230</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ACC_P19</t>
+  </si>
+  <si>
+    <t>G000000635</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ACC_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CFO_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSHR_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSHR_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSPO_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSPO_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$EDP_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$GRF_P19</t>
+  </si>
+  <si>
+    <t>G000000179</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$GRF_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$GRFE_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$GRFE_P48</t>
   </si>
 </sst>
 </file>
@@ -773,7 +1046,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1135,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,26 +1490,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,21 +1525,552 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOH-Tickets-for-Processing\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF1CBA-8E81-41EF-A172-8F514040F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8028FD31-DC62-445F-AC7E-B37ACC539E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Object</t>
   </si>
@@ -37,304 +48,19 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000012190</t>
-  </si>
-  <si>
-    <t>IPHOENX_004120497076</t>
-  </si>
-  <si>
-    <t>L000012154</t>
-  </si>
-  <si>
-    <t>IPHOENX_004120497077</t>
-  </si>
-  <si>
-    <t>IPHOENX_004120497081</t>
-  </si>
-  <si>
-    <t>C0000000000000000000000024030013</t>
-  </si>
-  <si>
-    <t>L000007122</t>
-  </si>
-  <si>
-    <t>C0000000000000000000000024032213</t>
-  </si>
-  <si>
-    <t>C0000000000000000000000024050043</t>
-  </si>
-  <si>
-    <t>C0000000000000000000000024066011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70007001583001 </t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006101MS3413 </t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LSCC_P48</t>
-  </si>
-  <si>
-    <t>L000008498</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BSFF_999</t>
-  </si>
-  <si>
-    <t>L000008493</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BSFF_P19</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BSFF_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CSD_P48</t>
-  </si>
-  <si>
-    <t>L000008497</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LEPM_999</t>
-  </si>
-  <si>
-    <t>L000008495</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LEPM_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MMSS_P48</t>
-  </si>
-  <si>
-    <t>L000008494</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RARE_999</t>
-  </si>
-  <si>
-    <t>L000008473</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RARE_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RSCE_999</t>
-  </si>
-  <si>
-    <t>L000008471</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RSCE_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RSCM_999</t>
-  </si>
-  <si>
-    <t>L000008464</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$RSCM_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$SFDC_P48</t>
-  </si>
-  <si>
-    <t>L000011888</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LWFF_P48</t>
-  </si>
-  <si>
-    <t>L000008460</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BMFF_P48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEMERAL_000009101189 </t>
-  </si>
-  <si>
-    <t>L000012271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.NLD0 </t>
-  </si>
-  <si>
-    <t>L000013188</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PSFF_P19</t>
-  </si>
-  <si>
-    <t>L000012394</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057623</t>
-  </si>
-  <si>
-    <t>G000001131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000010299 </t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010426</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2988</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70ADG400</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007102308300</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80ADG211</t>
-  </si>
-  <si>
-    <t>G000001222</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL800GME50</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GFO08A</t>
-  </si>
-  <si>
-    <t>G000000704</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GFO059</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000CA20198477</t>
-  </si>
-  <si>
-    <t>H000003918</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006104404040</t>
-  </si>
-  <si>
-    <t>L000011687</t>
-  </si>
-  <si>
-    <t>CPHOENX_01019183506300</t>
-  </si>
-  <si>
-    <t>G000000441</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR10M32185</t>
-  </si>
-  <si>
-    <t>P000000606</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PT10O15312</t>
-  </si>
-  <si>
-    <t>H000001945</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000CO10100302</t>
-  </si>
-  <si>
-    <t>P000000801</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000699201</t>
-  </si>
-  <si>
-    <t>G000000182</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390214</t>
-  </si>
-  <si>
-    <t>H000001679</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390220</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390221</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390222</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390223</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390224</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390225</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390226</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390227</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390228</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390229</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40390230</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ACC_P19</t>
-  </si>
-  <si>
     <t>G000000635</t>
   </si>
   <si>
-    <t>CSCALA_1042$ACC_P48</t>
+    <t>CTEMPLA_1000PA10ZZ0A41</t>
   </si>
   <si>
-    <t>CSCALA_1042$CFO_P48</t>
+    <t xml:space="preserve">G000001105 </t>
   </si>
   <si>
-    <t>CSCALA_1042$CSHR_P19</t>
+    <t>CTEMPLA_1000PA20ZZ0A41</t>
   </si>
   <si>
-    <t>CSCALA_1042$CSHR_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CSPO_P19</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CSPO_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$EDP_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$GRF_P19</t>
-  </si>
-  <si>
-    <t>G000000179</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$GRF_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$GRFE_P19</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$GRFE_P48</t>
+    <t>CTEMPNA_1000PH80GBTL55</t>
   </si>
 </sst>
 </file>
@@ -1046,57 +772,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1468,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,568 +1185,24 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOH-Tickets-for-Processing\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8028FD31-DC62-445F-AC7E-B37ACC539E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D453B58F-633D-42DC-B2A2-0BB7A5D91295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="32115" yWindow="2670" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>G000000635</t>
+    <t>CSCALA_1042$LSRG_P48</t>
   </si>
   <si>
-    <t>CTEMPLA_1000PA10ZZ0A41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001105 </t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA20ZZ0A41</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GBTL55</t>
+    <t>L000008494</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,26 +1157,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D453B58F-633D-42DC-B2A2-0BB7A5D91295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D45DE-A4EF-4073-AA2F-E2F11DE024A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32115" yWindow="2670" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1042$LSRG_P48</t>
+    <t>IEMERAL_000009101209 7001IC1891SI3110250000</t>
   </si>
   <si>
-    <t>L000008494</t>
+    <t>H000000176</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6814188 Behavioral Sciences</t>
+  </si>
+  <si>
+    <t>H000001056</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1141,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1163,6 +1169,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D45DE-A4EF-4073-AA2F-E2F11DE024A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFE52E-6DDC-46CB-8EA4-6198846BC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>IEMERAL_000009101209 7001IC1891SI3110250000</t>
+    <t>CSCALA_1826$0000000860</t>
   </si>
   <si>
-    <t>H000000176</t>
+    <t>CSCALA_1872$0000000860</t>
   </si>
   <si>
-    <t>PLEAN_X310201CH6814188 Behavioral Sciences</t>
+    <t>CFLTFLE_11030000000860</t>
   </si>
   <si>
-    <t>H000001056</t>
+    <t>G000000103</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,14 +1166,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1197,7 +1205,6 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFE52E-6DDC-46CB-8EA4-6198846BC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D1B9D-6593-4975-A942-F4588902FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,91 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1826$0000000860</t>
-  </si>
-  <si>
-    <t>CSCALA_1872$0000000860</t>
-  </si>
-  <si>
-    <t>CFLTFLE_11030000000860</t>
-  </si>
-  <si>
-    <t>G000000103</t>
+    <t>CPHOENX_01019183000002</t>
+  </si>
+  <si>
+    <t>G000000277</t>
+  </si>
+  <si>
+    <t>CPHOENX_01019183000003</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GFO060</t>
+  </si>
+  <si>
+    <t>G000000704</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40699005</t>
+  </si>
+  <si>
+    <t>H000000774</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10180602</t>
+  </si>
+  <si>
+    <t>H000002854</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000AR10310080</t>
+  </si>
+  <si>
+    <t>G000000180</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80GFO08B</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ0A13</t>
+  </si>
+  <si>
+    <t>H000004183</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000663131</t>
+  </si>
+  <si>
+    <t>G000000253</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9940</t>
+  </si>
+  <si>
+    <t>L000013396</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057298</t>
+  </si>
+  <si>
+    <t>L000013397</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040934</t>
+  </si>
+  <si>
+    <t>L000013391</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010288</t>
+  </si>
+  <si>
+    <t>G000000282</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010270</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010271</t>
+  </si>
+  <si>
+    <t>L000013390</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000031677</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,12 +1241,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1179,10 +1254,114 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D1B9D-6593-4975-A942-F4588902FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD74978-9AD2-4A0C-8715-58BEBE02E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4020" yWindow="2565" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Object</t>
   </si>
@@ -48,91 +48,106 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_01019183000002</t>
-  </si>
-  <si>
-    <t>G000000277</t>
-  </si>
-  <si>
-    <t>CPHOENX_01019183000003</t>
-  </si>
-  <si>
-    <t>G000001240</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GFO060</t>
-  </si>
-  <si>
-    <t>G000000704</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40699005</t>
-  </si>
-  <si>
-    <t>H000000774</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10180602</t>
-  </si>
-  <si>
-    <t>H000002854</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000AR10310080</t>
-  </si>
-  <si>
-    <t>G000000180</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GFO08B</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ0A13</t>
-  </si>
-  <si>
-    <t>H000004183</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000663131</t>
-  </si>
-  <si>
-    <t>G000000253</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9940</t>
-  </si>
-  <si>
-    <t>L000013396</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057298</t>
-  </si>
-  <si>
-    <t>L000013397</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040934</t>
-  </si>
-  <si>
-    <t>L000013391</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010288</t>
-  </si>
-  <si>
-    <t>G000000282</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010270</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010271</t>
-  </si>
-  <si>
-    <t>L000013390</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000031677</t>
+    <t>CTEMPLA_1000CO10103010 [MED] - RAS Test Erb</t>
+  </si>
+  <si>
+    <t>H000004092</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000CO10102269 [ISS]-BUH Specialty</t>
+  </si>
+  <si>
+    <t>H000000337</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000CO10103020 [ISS] - Comm. Dir.</t>
+  </si>
+  <si>
+    <t>H000004107</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PE10MSMX01 Awareness campaigns (M#xico)</t>
+  </si>
+  <si>
+    <t>H000000339</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020104 STL RS ENVIRONMENTAL SERVICES</t>
+  </si>
+  <si>
+    <t>L000013772</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020173 STL RS EH&amp;S OPERATIONS</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020714 BWY - GMP Warehouse</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ1O25 Medical non R&amp;D Erbitux</t>
+  </si>
+  <si>
+    <t>H000000359</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ2B25 Medical non R&amp;D mavenclad</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ2E25 Medical non R&amp;D Diabetes</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ2O25 Medical non R&amp;D Bavencio</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ3B25 Medical non R&amp;D Fertility</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000GT10ZZ4B25 Medical non R&amp;D Endocrinololy</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10PA1B25 Medical non R&amp;D Rebif</t>
+  </si>
+  <si>
+    <t>H000000369</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10PA1O26 Medical non R&amp;D Erbitux</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10PA2B25 Medical non R&amp;D mavenclad</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10PA4B26 Medical non R&amp;D Endocrinololy</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ1B25 Medical non R&amp;D Rebif</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ1E25 Medical non R&amp;D Cardiovascular</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ2B25 Medical non R&amp;D mavenclad</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ2E25 Medical non R&amp;D Diabetes</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ2O25 Medical non R&amp;D Bavencio</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ3B25 Medical non R&amp;D Fertility</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ3E25 Medical non R&amp;D Thyroids</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000PA10ZZ4B25 Medical non R&amp;D Endocrinololy</t>
+  </si>
+  <si>
+    <t>ITEMPLA_003202000811 GT10IC1072SP311017Liq.Of.CU</t>
+  </si>
+  <si>
+    <t>H000000352</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,87 +1296,167 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1384,6 +1479,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD74978-9AD2-4A0C-8715-58BEBE02E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425EDD0B-FC10-4767-BE5B-835216220AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2565" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Object</t>
   </si>
@@ -48,106 +48,55 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPLA_1000CO10103010 [MED] - RAS Test Erb</t>
-  </si>
-  <si>
-    <t>H000004092</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000CO10102269 [ISS]-BUH Specialty</t>
-  </si>
-  <si>
-    <t>H000000337</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000CO10103020 [ISS] - Comm. Dir.</t>
-  </si>
-  <si>
-    <t>H000004107</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PE10MSMX01 Awareness campaigns (M#xico)</t>
-  </si>
-  <si>
-    <t>H000000339</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020104 STL RS ENVIRONMENTAL SERVICES</t>
-  </si>
-  <si>
-    <t>L000013772</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020173 STL RS EH&amp;S OPERATIONS</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020714 BWY - GMP Warehouse</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ1O25 Medical non R&amp;D Erbitux</t>
-  </si>
-  <si>
-    <t>H000000359</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ2B25 Medical non R&amp;D mavenclad</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ2E25 Medical non R&amp;D Diabetes</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ2O25 Medical non R&amp;D Bavencio</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ3B25 Medical non R&amp;D Fertility</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000GT10ZZ4B25 Medical non R&amp;D Endocrinololy</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10PA1B25 Medical non R&amp;D Rebif</t>
-  </si>
-  <si>
-    <t>H000000369</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10PA1O26 Medical non R&amp;D Erbitux</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10PA2B25 Medical non R&amp;D mavenclad</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10PA4B26 Medical non R&amp;D Endocrinololy</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ1B25 Medical non R&amp;D Rebif</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ1E25 Medical non R&amp;D Cardiovascular</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ2B25 Medical non R&amp;D mavenclad</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ2E25 Medical non R&amp;D Diabetes</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ2O25 Medical non R&amp;D Bavencio</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ3B25 Medical non R&amp;D Fertility</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ3E25 Medical non R&amp;D Thyroids</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000PA10ZZ4B25 Medical non R&amp;D Endocrinololy</t>
-  </si>
-  <si>
-    <t>ITEMPLA_003202000811 GT10IC1072SP311017Liq.Of.CU</t>
-  </si>
-  <si>
-    <t>H000000352</t>
+    <t xml:space="preserve">CNOW_7210$$$0000040106 </t>
+  </si>
+  <si>
+    <t>L000013226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057264 </t>
+  </si>
+  <si>
+    <t>L000011321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020060 </t>
+  </si>
+  <si>
+    <t>L000007212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000051463 </t>
+  </si>
+  <si>
+    <t>L000006298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040059 </t>
+  </si>
+  <si>
+    <t>L000009959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000052113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000025989 </t>
+  </si>
+  <si>
+    <t>L000013423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000010584 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000052114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000052128 </t>
+  </si>
+  <si>
+    <t>L000008908</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,15 +1253,15 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,135 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425EDD0B-FC10-4767-BE5B-835216220AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB782972-6C6C-4A6C-9207-286946C2B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="31845" yWindow="2760" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -48,55 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040106 </t>
-  </si>
-  <si>
-    <t>L000013226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057264 </t>
-  </si>
-  <si>
-    <t>L000011321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020060 </t>
-  </si>
-  <si>
-    <t>L000007212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000051463 </t>
-  </si>
-  <si>
-    <t>L000006298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040059 </t>
-  </si>
-  <si>
-    <t>L000009959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000052113 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000025989 </t>
-  </si>
-  <si>
-    <t>L000013423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000010584 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000052114 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000052128 </t>
-  </si>
-  <si>
-    <t>L000008908</t>
+    <t>CNOW_AUS0$$$0000092052 Project SPICE - Exceptionals</t>
+  </si>
+  <si>
+    <t>P000001198</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000861001</t>
+  </si>
+  <si>
+    <t>L000013622</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000860001</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40860000</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000AT10SC0002</t>
+  </si>
+  <si>
+    <t>H000000653</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000TR10MS1104</t>
+  </si>
+  <si>
+    <t>L000011663</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9946</t>
+  </si>
+  <si>
+    <t>G000001003</t>
   </si>
 </sst>
 </file>
@@ -1180,11 +1165,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1221,63 +1204,39 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB782972-6C6C-4A6C-9207-286946C2B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234034D4-34AE-43D9-80A9-278E5360A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="2760" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +48,58 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_AUS0$$$0000092052 Project SPICE - Exceptionals</t>
-  </si>
-  <si>
-    <t>P000001198</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000861001</t>
-  </si>
-  <si>
-    <t>L000013622</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000860001</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000NL40860000</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000AT10SC0002</t>
-  </si>
-  <si>
-    <t>H000000653</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000TR10MS1104</t>
-  </si>
-  <si>
-    <t>L000011663</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9946</t>
-  </si>
-  <si>
-    <t>G000001003</t>
+    <t>CSCALA_1042$PMFF_P48</t>
+  </si>
+  <si>
+    <t>P000000669</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BOL_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BOL_P48</t>
+  </si>
+  <si>
+    <t>P000000615</t>
+  </si>
+  <si>
+    <t>P000000147</t>
+  </si>
+  <si>
+    <t>RPL_E6_0104</t>
+  </si>
+  <si>
+    <t>RPL_E6_0182</t>
+  </si>
+  <si>
+    <t>P000001013</t>
+  </si>
+  <si>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>PFLTFLE_EMDPTFOM12 DMAI RD Support</t>
+  </si>
+  <si>
+    <t>D00082500000000 PDP Syn Mica White</t>
+  </si>
+  <si>
+    <t>T00038400000 CP-5 Screen. St. 11</t>
+  </si>
+  <si>
+    <t>T00040600000 30LINa-Onahama</t>
+  </si>
+  <si>
+    <t>D00115100000000 PDP Inorganic UV-Filter Expansion</t>
+  </si>
+  <si>
+    <t>D00118100000000 PFAS-free KrF Resist</t>
+  </si>
+  <si>
+    <t>D00118500000000 PHPS Analysis</t>
+  </si>
+  <si>
+    <t>D00118600000000 SN-597 Substance Supply</t>
   </si>
 </sst>
 </file>
@@ -1165,9 +1183,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1196,47 +1216,95 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234034D4-34AE-43D9-80A9-278E5360A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99874C7F-B92E-4BD8-A868-E4ADE3F1FA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="2505" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,58 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1042$PMFF_P48</t>
+    <t>CFLTFLE_10550000002940 BP Building &amp; Fac</t>
   </si>
   <si>
-    <t>P000000669</t>
+    <t>H000003386</t>
   </si>
   <si>
-    <t>CSCALA_1042$BOL_P19</t>
+    <t>PLEAN_X310181AE5010204 SP PROM MAT-QA-BAVEN V9</t>
   </si>
   <si>
-    <t>CSCALA_1042$BOL_P48</t>
+    <t>H000002966</t>
   </si>
   <si>
-    <t>P000000615</t>
+    <t>PLEAN_X310201AE5015203 SP PROM OTHERS-AE-FERT</t>
   </si>
   <si>
-    <t>P000000147</t>
+    <t>H000002969</t>
   </si>
   <si>
-    <t>RPL_E6_0104</t>
+    <t>PLEAN_X310201AE5015204 SP DIGITAL-AE-FERT</t>
   </si>
   <si>
-    <t>RPL_E6_0182</t>
+    <t>PLEAN_X310301AE5011201 SP ADVT-AE-DIAB</t>
   </si>
   <si>
-    <t>P000001013</t>
+    <t>H000002963</t>
   </si>
   <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>PFLTFLE_EMDPTFOM12 DMAI RD Support</t>
-  </si>
-  <si>
-    <t>D00082500000000 PDP Syn Mica White</t>
-  </si>
-  <si>
-    <t>T00038400000 CP-5 Screen. St. 11</t>
-  </si>
-  <si>
-    <t>T00040600000 30LINa-Onahama</t>
-  </si>
-  <si>
-    <t>D00115100000000 PDP Inorganic UV-Filter Expansion</t>
-  </si>
-  <si>
-    <t>D00118100000000 PFAS-free KrF Resist</t>
-  </si>
-  <si>
-    <t>D00118500000000 PHPS Analysis</t>
-  </si>
-  <si>
-    <t>D00118600000000 SN-597 Substance Supply</t>
+    <t>PLEAN_X310301AE5015202 SP GAP MRKT RESEARCH-AE-DIAB</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,95 +1192,39 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99874C7F-B92E-4BD8-A868-E4ADE3F1FA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E0DA3-C66D-4124-8F0F-3D5BA765F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_10550000002940 BP Building &amp; Fac</t>
+    <t>CSCALA_1022$ITN_IT3</t>
   </si>
   <si>
-    <t>H000003386</t>
-  </si>
-  <si>
-    <t>PLEAN_X310181AE5010204 SP PROM MAT-QA-BAVEN V9</t>
-  </si>
-  <si>
-    <t>H000002966</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5015203 SP PROM OTHERS-AE-FERT</t>
-  </si>
-  <si>
-    <t>H000002969</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5015204 SP DIGITAL-AE-FERT</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301AE5011201 SP ADVT-AE-DIAB</t>
-  </si>
-  <si>
-    <t>H000002963</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301AE5015202 SP GAP MRKT RESEARCH-AE-DIAB</t>
+    <t>G000000277</t>
   </si>
 </sst>
 </file>
@@ -1159,11 +1135,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1185,46 +1159,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E0DA3-C66D-4124-8F0F-3D5BA765F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1A0B6-1249-4CBA-8D7A-F722730692DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,112 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1022$ITN_IT3</t>
-  </si>
-  <si>
-    <t>G000000277</t>
+    <t>CNOW_7210$$$0000020115 STL RS PURCHASING</t>
+  </si>
+  <si>
+    <t>L000010608</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020199 STL RS MISC EXPENSES - COGS 2110</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020264 STL RS SPRING BUILDING</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020499 STL RS MISCELLANEOUS EXPENSE G&amp;A</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015249 DE RS Cost of Goods Sold Scient. Res.h</t>
+  </si>
+  <si>
+    <t>L000012340</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1917.3069 BM Repair Center</t>
+  </si>
+  <si>
+    <t>L000005770</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3069 BM Repair Center</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3135 BioM Field Service France</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3140 AA Repair Center</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3516 IH BioM Service</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3520 BCS Field Service</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3521 BCS Repair Center</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000695808 BioM-WE-Validation-KGaA</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000DE40FS0005 Field Service SGX</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000DE40MS1200 BioM-WE-Validation</t>
+  </si>
+  <si>
+    <t>ITEMPEU_003200003018 BM Repair Center Costs</t>
+  </si>
+  <si>
+    <t>ITEMPEU_003200003020 BM Repair Center Costs</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.3077 BM Validation Services</t>
+  </si>
+  <si>
+    <t>ITEMPEU_003200003021 BM Repair Center Costs</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.3030 MM NA Repair Center</t>
+  </si>
+  <si>
+    <t>L000005734</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.3138 Biocontrol Field Service</t>
+  </si>
+  <si>
+    <t>CFLTFLE_13060000000048 Tech Services BIOM</t>
+  </si>
+  <si>
+    <t>L000013780</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000021451 Tech Service BioM</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.5267 BioM Validation Services NA</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$7MAN 7958_ZMAN</t>
+  </si>
+  <si>
+    <t>L000009779</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1968.LLL3 SLS L3 Molecular Prep &amp; PCR</t>
+  </si>
+  <si>
+    <t>L000009142</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400753222 Rueckstellung Url/Gleit Innendienst</t>
+  </si>
+  <si>
+    <t>L000011242</t>
+  </si>
+  <si>
+    <t>IPHOENX_000400753221 Rueckstellung Url/Gleit Verwaltung</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1237,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1159,6 +1263,222 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1A0B6-1249-4CBA-8D7A-F722730692DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C49D0-54E5-48B3-96D0-499CD769856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,112 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000020115 STL RS PURCHASING</t>
+    <t>CNOW_7210$$$0000056334</t>
   </si>
   <si>
-    <t>L000010608</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020199 STL RS MISC EXPENSES - COGS 2110</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020264 STL RS SPRING BUILDING</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020499 STL RS MISCELLANEOUS EXPENSE G&amp;A</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015249 DE RS Cost of Goods Sold Scient. Res.h</t>
-  </si>
-  <si>
-    <t>L000012340</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1917.3069 BM Repair Center</t>
-  </si>
-  <si>
-    <t>L000005770</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3069 BM Repair Center</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3135 BioM Field Service France</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3140 AA Repair Center</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3516 IH BioM Service</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3520 BCS Field Service</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3521 BCS Repair Center</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000695808 BioM-WE-Validation-KGaA</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000DE40FS0005 Field Service SGX</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000DE40MS1200 BioM-WE-Validation</t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200003018 BM Repair Center Costs</t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200003020 BM Repair Center Costs</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.3077 BM Validation Services</t>
-  </si>
-  <si>
-    <t>ITEMPEU_003200003021 BM Repair Center Costs</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.3030 MM NA Repair Center</t>
-  </si>
-  <si>
-    <t>L000005734</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.3138 Biocontrol Field Service</t>
-  </si>
-  <si>
-    <t>CFLTFLE_13060000000048 Tech Services BIOM</t>
-  </si>
-  <si>
-    <t>L000013780</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000021451 Tech Service BioM</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.5267 BioM Validation Services NA</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$7MAN 7958_ZMAN</t>
-  </si>
-  <si>
-    <t>L000009779</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1968.LLL3 SLS L3 Molecular Prep &amp; PCR</t>
-  </si>
-  <si>
-    <t>L000009142</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400753222 Rueckstellung Url/Gleit Innendienst</t>
-  </si>
-  <si>
-    <t>L000011242</t>
-  </si>
-  <si>
-    <t>IPHOENX_000400753221 Rueckstellung Url/Gleit Verwaltung</t>
+    <t xml:space="preserve">G000000123 </t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,222 +1161,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C49D0-54E5-48B3-96D0-499CD769856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650DB206-424D-4241-BA98-6E5E7A7C8269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4275" yWindow="4215" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,28 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000056334</t>
+    <t>CTEMPEU_1000PL800GME50 MBS FS Ent.Serv. Translation Serv.</t>
   </si>
   <si>
-    <t xml:space="preserve">G000000123 </t>
+    <t>G000001220</t>
+  </si>
+  <si>
+    <t>D00119500000000</t>
+  </si>
+  <si>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>D00119600000000</t>
+  </si>
+  <si>
+    <t>RD240007</t>
+  </si>
+  <si>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>RD242005 STI 2801 for TI</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1179,38 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650DB206-424D-4241-BA98-6E5E7A7C8269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E410D-2031-4966-8F09-6CBEB9CA4A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4215" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>Object</t>
   </si>
@@ -48,28 +48,304 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPEU_1000PL800GME50 MBS FS Ent.Serv. Translation Serv.</t>
-  </si>
-  <si>
-    <t>G000001220</t>
-  </si>
-  <si>
-    <t>D00119500000000</t>
-  </si>
-  <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>D00119600000000</t>
-  </si>
-  <si>
-    <t>RD240007</t>
-  </si>
-  <si>
-    <t>P000001016</t>
-  </si>
-  <si>
-    <t>RD242005 STI 2801 for TI</t>
+    <t>H000000888</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512123</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512123001</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6507000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6508000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6509000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6510000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000037CH6500000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000037CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000010DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000010DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000011DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000011DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000013DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000013DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000014DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000014DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000015DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000015DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000017DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000017DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000020DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000020DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000022DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000022DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030DE5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5006000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5006000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5007000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5008000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5009000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5010000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029IT5000000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029IT5001000</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1429,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1175,10 +1449,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,31 +1460,783 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E410D-2031-4966-8F09-6CBEB9CA4A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E2221-6656-4184-B608-C3E0FF22A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Object</t>
   </si>
@@ -48,304 +48,43 @@
     <t>Node</t>
   </si>
   <si>
-    <t>H000000888</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512123</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512123001</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6507000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6508000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6509000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6510000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000037CH6500000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000037CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000010DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000010DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000011DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000011DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000013DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000013DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000014DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000014DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000015DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000015DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000017DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000017DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000020DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000020DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000022DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000022DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030DE5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5006000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5006000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5007000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5008000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5009000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5010000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029IT5000000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029IT5001000</t>
+    <t>CPHOENX_0101629800</t>
+  </si>
+  <si>
+    <t>H000004376</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101629880</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101630100</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101633900</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101634700</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101640100</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101643900</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101648100</t>
+  </si>
+  <si>
+    <t>CPHOENX_0101685900</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000AE10RDIC44</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10005746</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PT10MD8006</t>
   </si>
 </sst>
 </file>
@@ -1429,9 +1168,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1449,10 +1190,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,703 +1281,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E2221-6656-4184-B608-C3E0FF22A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FEC0D-0135-47C6-8636-9A6C99DFC89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Object</t>
   </si>
@@ -48,43 +48,82 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_0101629800</t>
-  </si>
-  <si>
-    <t>H000004376</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101629880</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101630100</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101633900</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101634700</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101640100</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101643900</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101648100</t>
-  </si>
-  <si>
-    <t>CPHOENX_0101685900</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000AE10RDIC44</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10005746</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PT10MD8006</t>
+    <t>PTEMPNA_US201MEDOPMPR0101</t>
+  </si>
+  <si>
+    <t>H000003763</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0300</t>
+  </si>
+  <si>
+    <t>H000003757</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0400</t>
+  </si>
+  <si>
+    <t>H000003768</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0572</t>
+  </si>
+  <si>
+    <t>H000003766</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0573</t>
+  </si>
+  <si>
+    <t>H000003767</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0502</t>
+  </si>
+  <si>
+    <t>H000003760</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0571</t>
+  </si>
+  <si>
+    <t>H000003765</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0600</t>
+  </si>
+  <si>
+    <t>H000003770</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0700</t>
+  </si>
+  <si>
+    <t>H000003758</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPR0800</t>
+  </si>
+  <si>
+    <t>H000003771</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPRS600</t>
+  </si>
+  <si>
+    <t>H000003764</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201MEDOPMPRS900</t>
+  </si>
+  <si>
+    <t>H000003772</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$VACI</t>
+  </si>
+  <si>
+    <t>L000008967</t>
   </si>
 </sst>
 </file>
@@ -796,17 +835,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1168,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,104 +1230,109 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4FEC0D-0135-47C6-8636-9A6C99DFC89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3268BD2-C158-42B7-938D-06FE78F28FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,82 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PTEMPNA_US201MEDOPMPR0101</t>
+    <t xml:space="preserve">CORAERP_MMOR1945.6511 </t>
   </si>
   <si>
-    <t>H000003763</t>
+    <t>L000006622</t>
   </si>
   <si>
-    <t>PTEMPNA_US201MEDOPMPR0300</t>
+    <t>PQUATRO_T000398DE0412000 CPD Basic Eng</t>
   </si>
   <si>
-    <t>H000003757</t>
+    <t>H000000888</t>
   </si>
   <si>
-    <t>PTEMPNA_US201MEDOPMPR0400</t>
+    <t>CTEMPNA_1000PH80GMK003</t>
   </si>
   <si>
-    <t>H000003768</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0572</t>
-  </si>
-  <si>
-    <t>H000003766</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0573</t>
-  </si>
-  <si>
-    <t>H000003767</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0502</t>
-  </si>
-  <si>
-    <t>H000003760</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0571</t>
-  </si>
-  <si>
-    <t>H000003765</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0600</t>
-  </si>
-  <si>
-    <t>H000003770</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0700</t>
-  </si>
-  <si>
-    <t>H000003758</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPR0800</t>
-  </si>
-  <si>
-    <t>H000003771</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPRS600</t>
-  </si>
-  <si>
-    <t>H000003764</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201MEDOPMPRS900</t>
-  </si>
-  <si>
-    <t>H000003772</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$VACI</t>
-  </si>
-  <si>
-    <t>L000008967</t>
+    <t xml:space="preserve">G000000235 </t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,86 +1181,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3268BD2-C158-42B7-938D-06FE78F28FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A63B5A-8AF7-40BA-B0DE-5A153AA83ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.6511 </t>
+    <t>RDC0000992</t>
   </si>
   <si>
-    <t>L000006622</t>
+    <t>H000004376</t>
   </si>
   <si>
-    <t>PQUATRO_T000398DE0412000 CPD Basic Eng</t>
+    <t>CFLTFLE_1760BGGM-Q2 R&amp;D Global</t>
   </si>
   <si>
-    <t>H000000888</t>
+    <t>H000000907</t>
   </si>
   <si>
-    <t>CTEMPNA_1000PH80GMK003</t>
+    <t>CSCALA_1212$0000003175 GDO Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">G000000235 </t>
+    <t>CSCALA_1872$0000000195 Global Clinical Quality</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10548-150-RAI Global Hub PH IC Income</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2276891077IC CM Croatia DE-SCI-D</t>
+  </si>
+  <si>
+    <t>CSCALA_1248$C360</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q321</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,26 +1171,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A63B5A-8AF7-40BA-B0DE-5A153AA83ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD6575-B26A-4E89-AC27-A2C8CCA53076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="34200" yWindow="3000" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +48,25 @@
     <t>Node</t>
   </si>
   <si>
-    <t>RDC0000992</t>
-  </si>
-  <si>
     <t>H000004376</t>
   </si>
   <si>
-    <t>CFLTFLE_1760BGGM-Q2 R&amp;D Global</t>
+    <t>CSCALA_1820$Q321_P93</t>
   </si>
   <si>
-    <t>H000000907</t>
+    <t>CSCALA_1820$Q321_P94</t>
   </si>
   <si>
-    <t>CSCALA_1212$0000003175 GDO Sweden</t>
+    <t>CSCALA_1820$Q321_P95</t>
   </si>
   <si>
-    <t>CSCALA_1872$0000000195 Global Clinical Quality</t>
+    <t>CSCALA_1820$Q321_P96</t>
   </si>
   <si>
-    <t>CFLTFLE_10548-150-RAI Global Hub PH IC Income</t>
+    <t>CSCALA_1820$Q321_P98</t>
   </si>
   <si>
-    <t>CFLTFLE_2276891077IC CM Croatia DE-SCI-D</t>
-  </si>
-  <si>
-    <t>CSCALA_1248$C360</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321</t>
+    <t>CSCALA_1820$Q321_Q03</t>
   </si>
 </sst>
 </file>
@@ -1149,11 +1140,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1171,7 +1160,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1179,18 +1168,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,14 +1203,6 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD6575-B26A-4E89-AC27-A2C8CCA53076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F819570-C4F4-47AE-BED3-9C80300C4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="3000" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="181">
   <si>
     <t>Object</t>
   </si>
@@ -48,25 +48,541 @@
     <t>Node</t>
   </si>
   <si>
-    <t>H000004376</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P93</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P94</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P95</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P96</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P98</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_Q03</t>
+    <t>D00023600000000 Other Display Technologies</t>
+  </si>
+  <si>
+    <t>P000000436</t>
+  </si>
+  <si>
+    <t>D00079900000000 EL-D QA - R&amp;D activities</t>
+  </si>
+  <si>
+    <t>P000001210</t>
+  </si>
+  <si>
+    <t>D00000900000000 KR LC other new display modes (KR03)</t>
+  </si>
+  <si>
+    <t>P000001217</t>
+  </si>
+  <si>
+    <t>D00005200000000 IPS/FFS</t>
+  </si>
+  <si>
+    <t>P000001214</t>
+  </si>
+  <si>
+    <t>D00005300000000 TN</t>
+  </si>
+  <si>
+    <t>D00005400000000 VA</t>
+  </si>
+  <si>
+    <t>P000001215</t>
+  </si>
+  <si>
+    <t>D00005600000000 SA-VA</t>
+  </si>
+  <si>
+    <t>P000001220</t>
+  </si>
+  <si>
+    <t>D00006600000000 Passive Matrix</t>
+  </si>
+  <si>
+    <t>D00007400000000 UB-FFS</t>
+  </si>
+  <si>
+    <t>P000001216</t>
+  </si>
+  <si>
+    <t>D00007700000000 Other New application</t>
+  </si>
+  <si>
+    <t>P000001252</t>
+  </si>
+  <si>
+    <t>D00008600000000 PS-VA</t>
+  </si>
+  <si>
+    <t>D00019000000000 LGD IPS TV VPU18A(LL)</t>
+  </si>
+  <si>
+    <t>D00019200000000 LGD AH-IPS Fast RT NBPC for gaming</t>
+  </si>
+  <si>
+    <t>D00019300000000 LGD UB-FFS MNT for Apple</t>
+  </si>
+  <si>
+    <t>D00023700000000 UB-plus for TV</t>
+  </si>
+  <si>
+    <t>P000001219</t>
+  </si>
+  <si>
+    <t>D00023900000000 FFS mode</t>
+  </si>
+  <si>
+    <t>D00038200000000 LGD_ UB-FFS LC for Apple tablet</t>
+  </si>
+  <si>
+    <t>D00039700000000 R&amp;D variance Disply Solutions</t>
+  </si>
+  <si>
+    <t>P000001211</t>
+  </si>
+  <si>
+    <t>D00052900000000 UB-FFS New Material R&amp;D</t>
+  </si>
+  <si>
+    <t>D00053100000000 FFS New Material R&amp;D</t>
+  </si>
+  <si>
+    <t>D00053200000000 Benchmarking R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001212</t>
+  </si>
+  <si>
+    <t>D00053300000000 UBplus New Material R&amp;D</t>
+  </si>
+  <si>
+    <t>D00071700000000 Change &amp; Quality</t>
+  </si>
+  <si>
+    <t>D00072200000000 CC-variance R&amp;D</t>
+  </si>
+  <si>
+    <t>D00075200000000 LGD-LC-Auto-FFS-22_Fast RT_Succ. ML-1533</t>
+  </si>
+  <si>
+    <t>D00082700000000 LGD-NB-23_NY_ML2001 PFAS replacement</t>
+  </si>
+  <si>
+    <t>D00083300000000 LGD-GamingNB-23_Widerange_VRR</t>
+  </si>
+  <si>
+    <t>D00117600000000 EL-OT_QI-LC_2024</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300001038 D213801 - 21773  New LC Modes</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500000 Patent Costs Liquid Crystals</t>
+  </si>
+  <si>
+    <t>P000000594</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500009 Patent Costs OLED</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500019 PM-D Patterning Materials</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500023 Patterning, QM for PCC; KGaA</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500026 LC Windows; KGaA</t>
+  </si>
+  <si>
+    <t>IPHOENX_000001500027 Smart Antenna; KGaA</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB40000130 CTC General Scientific</t>
+  </si>
+  <si>
+    <t>P000001244</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB40000137 EL-DS R&amp;D FD UK</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB40000160 CTC-1VR-building</t>
+  </si>
+  <si>
+    <t>D00000300000000 Siloxane</t>
+  </si>
+  <si>
+    <t>P000001246</t>
+  </si>
+  <si>
+    <t>D00001400000000 KR Reactive Mesogens (KR03)</t>
+  </si>
+  <si>
+    <t>P000001251</t>
+  </si>
+  <si>
+    <t>D00005900000000 Smart Antennas</t>
+  </si>
+  <si>
+    <t>P000001245</t>
+  </si>
+  <si>
+    <t>D00006700000000 GIGA</t>
+  </si>
+  <si>
+    <t>D00008700000000 Display Shrink materials</t>
+  </si>
+  <si>
+    <t>P000000592</t>
+  </si>
+  <si>
+    <t>D00046200000000 Smart Antenna</t>
+  </si>
+  <si>
+    <t>D00048300000000 Low-K</t>
+  </si>
+  <si>
+    <t>P000001248</t>
+  </si>
+  <si>
+    <t>D00048900000000 Future Displays Hardcoat</t>
+  </si>
+  <si>
+    <t>P000001247</t>
+  </si>
+  <si>
+    <t>D00049000000000 Future Displays Hardcoat</t>
+  </si>
+  <si>
+    <t>D00054500000000 Micro-LED</t>
+  </si>
+  <si>
+    <t>D00054600000000 Smart Antenna</t>
+  </si>
+  <si>
+    <t>D00054700000000 Reactive Mesogens</t>
+  </si>
+  <si>
+    <t>D00058900000000 Reactive Mesigen</t>
+  </si>
+  <si>
+    <t>D00064600000000 FE-PCC</t>
+  </si>
+  <si>
+    <t>P000001199</t>
+  </si>
+  <si>
+    <t>D00064800000000 Reactive Mesogen</t>
+  </si>
+  <si>
+    <t>D00072400000000 Low-k-materials</t>
+  </si>
+  <si>
+    <t>D00072700000000 Service und QA RM</t>
+  </si>
+  <si>
+    <t>D00072800000000 Digital Optics</t>
+  </si>
+  <si>
+    <t>D00073000000000 Fully Flexible Hardcoat</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300000226 D201601 - 20976 - RM</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300000227 D201601 - 20976 - Reimb RM for VA</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300003231 Display - Digital Optics Exp</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300003232 Display - Digital Optics Inc</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300003597 FE-PCC</t>
+  </si>
+  <si>
+    <t>P000001253</t>
+  </si>
+  <si>
+    <t>P000001222</t>
+  </si>
+  <si>
+    <t>D00081400000000 Support Appl.Lab Asia</t>
+  </si>
+  <si>
+    <t>P000001224</t>
+  </si>
+  <si>
+    <t>D00083700000000 Maintenance/Process Optimization OLEDS K</t>
+  </si>
+  <si>
+    <t>P000001223</t>
+  </si>
+  <si>
+    <t>I100007000000 OLED Application Lab China</t>
+  </si>
+  <si>
+    <t>K10001501000 Sheet resistance measurement system</t>
+  </si>
+  <si>
+    <t>P000001221</t>
+  </si>
+  <si>
+    <t>D00024700000000 TW02 SA-VA TFT-232 AUO</t>
+  </si>
+  <si>
+    <t>D00039500000000 R&amp;D PMD OLED</t>
+  </si>
+  <si>
+    <t>P000001234</t>
+  </si>
+  <si>
+    <t>D00042700000000 HTM</t>
+  </si>
+  <si>
+    <t>P000001235</t>
+  </si>
+  <si>
+    <t>D00042800000000 TMM</t>
+  </si>
+  <si>
+    <t>P000001236</t>
+  </si>
+  <si>
+    <t>D00042900000000 Emitter</t>
+  </si>
+  <si>
+    <t>P000001237</t>
+  </si>
+  <si>
+    <t>D00043500000000 HTM</t>
+  </si>
+  <si>
+    <t>D00043900000000</t>
+  </si>
+  <si>
+    <t>P000001238</t>
+  </si>
+  <si>
+    <t>D00048600000000 Fundamental R&amp;D</t>
+  </si>
+  <si>
+    <t>OLED Gener</t>
+  </si>
+  <si>
+    <t>D00054800000000 High efficiency blue</t>
+  </si>
+  <si>
+    <t>P000001240</t>
+  </si>
+  <si>
+    <t>D00071100000000 HTM</t>
+  </si>
+  <si>
+    <t>D00071200000000 TMM</t>
+  </si>
+  <si>
+    <t>D00071300000000 Ermitter</t>
+  </si>
+  <si>
+    <t>D00071500000000 EU Project ITNLife</t>
+  </si>
+  <si>
+    <t>P000001225</t>
+  </si>
+  <si>
+    <t>D00071600000000 Market Surveillance</t>
+  </si>
+  <si>
+    <t>D00072500000000 Maintenance/Process Optimization</t>
+  </si>
+  <si>
+    <t>D00072600000000 General R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001239</t>
+  </si>
+  <si>
+    <t>D00073400000000 EL-OT Deuteration Jigani</t>
+  </si>
+  <si>
+    <t>P000001241</t>
+  </si>
+  <si>
+    <t>D00074000000000 Deuterated OLED Process Development</t>
+  </si>
+  <si>
+    <t>D00080500000000 General R&amp;D – Litigation OLED</t>
+  </si>
+  <si>
+    <t>D00081600000000 XXXNext Generation Blue</t>
+  </si>
+  <si>
+    <t>D00083600000000 ETM KR</t>
+  </si>
+  <si>
+    <t>P000001242</t>
+  </si>
+  <si>
+    <t>D00083800000000 ETM DE</t>
+  </si>
+  <si>
+    <t>D00083900000000 ETM CN</t>
+  </si>
+  <si>
+    <t>D00109000000000 AUO-OLED-Wearable</t>
+  </si>
+  <si>
+    <t>P000001227</t>
+  </si>
+  <si>
+    <t>D00109200000000 BOE-OLED-Automotive-T2</t>
+  </si>
+  <si>
+    <t>P000001228</t>
+  </si>
+  <si>
+    <t>D00109400000000 BOE-OLED-IT-LT1</t>
+  </si>
+  <si>
+    <t>D00109600000000 BOE-OLED-IT-QT1</t>
+  </si>
+  <si>
+    <t>D00109800000000 BOE-OLED-mobile-L11</t>
+  </si>
+  <si>
+    <t>D00110000000000 BOE-OLED-mobile-L11+</t>
+  </si>
+  <si>
+    <t>D00110200000000 CSOT-OLED-Mobile-C10</t>
+  </si>
+  <si>
+    <t>P000001229</t>
+  </si>
+  <si>
+    <t>D00110400000000 CSOT-OLED-Mobile-C9</t>
+  </si>
+  <si>
+    <t>D00110600000000 GVO-OLED-IT-tandem</t>
+  </si>
+  <si>
+    <t>P000001230</t>
+  </si>
+  <si>
+    <t>D00110800000000 GVO-OLED-mobile-VM8</t>
+  </si>
+  <si>
+    <t>D00111000000000 GVO-OLED-mobile-VM9</t>
+  </si>
+  <si>
+    <t>D00111200000000 SHTM-OLED-Automotive-Tandem</t>
+  </si>
+  <si>
+    <t>P000001231</t>
+  </si>
+  <si>
+    <t>D00111400000000 SHTM-OLED-mobile-T9</t>
+  </si>
+  <si>
+    <t>D00111600000000 SHTM-OLED-mobile-U10</t>
+  </si>
+  <si>
+    <t>D00111900000000 LGD-OLED-IT-RDG</t>
+  </si>
+  <si>
+    <t>P000001232</t>
+  </si>
+  <si>
+    <t>D00112000000000 LGD-OLED-IT-RDG</t>
+  </si>
+  <si>
+    <t>D00112200000000 LGD-OLED-IT-RDH</t>
+  </si>
+  <si>
+    <t>D00112400000000 LGD-OLED-mobile-RSM</t>
+  </si>
+  <si>
+    <t>D00112500000000 LGD-OLED-mobile-RSO</t>
+  </si>
+  <si>
+    <t>D00112600000000 LGD-OLED-mobile-RSO</t>
+  </si>
+  <si>
+    <t>D00112900000000 LGD-OLED-TV-WBH</t>
+  </si>
+  <si>
+    <t>D00113000000000 LGD-OLED-TV-WBH</t>
+  </si>
+  <si>
+    <t>D00113100000000 SDC-OLED-IT-T3</t>
+  </si>
+  <si>
+    <t>P000001233</t>
+  </si>
+  <si>
+    <t>D00113200000000 SDC-OLED-IT-T3</t>
+  </si>
+  <si>
+    <t>D00113700000000 SDC-OLED-Mobile-M16</t>
+  </si>
+  <si>
+    <t>D00113800000000 SDC-OLED-Mobile-M16</t>
+  </si>
+  <si>
+    <t>D00113900000000 SDC-OLED-TV-QM3</t>
+  </si>
+  <si>
+    <t>D00114000000000 SDC-OLED-TV-QM3</t>
+  </si>
+  <si>
+    <t>D00114600000000 SHTM-OLED-IT-Mobile-Tandem</t>
+  </si>
+  <si>
+    <t>D00114800000000 LGD-OLED-TV-WBI</t>
+  </si>
+  <si>
+    <t>D00114900000000 LGD-OLED-TV-WBI</t>
+  </si>
+  <si>
+    <t>D00116800000000 LGD-OLED-TV-WBE-CI</t>
+  </si>
+  <si>
+    <t>D00116900000000 LGD-OLED-TV-WBE-CI</t>
+  </si>
+  <si>
+    <t>D00117000000000 LGD-OLED-TV-WBG-B1</t>
+  </si>
+  <si>
+    <t>D00117100000000 LGD-OLED-TV-WBG-B1</t>
+  </si>
+  <si>
+    <t>D00117200000000 LGD-OLED-TV-WBH-CI</t>
+  </si>
+  <si>
+    <t>D00117300000000 LGD-OLED-TV-WBH-CI</t>
+  </si>
+  <si>
+    <t>D00118700000000 GVO-OLED-mobile-VM10</t>
+  </si>
+  <si>
+    <t>D24880000 XXXHTM</t>
+  </si>
+  <si>
+    <t>D27160000 XXXMaintenance / Process Optimization OL</t>
+  </si>
+  <si>
+    <t>D00114400000000 AUO-OLED-Wearable-RD2024</t>
+  </si>
+  <si>
+    <t>D00118800000000 BOE-OLED-mobile-Q12</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000091884</t>
+  </si>
+  <si>
+    <t>G000000103</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006301991806</t>
+  </si>
+  <si>
+    <t>G000000170</t>
+  </si>
+  <si>
+    <t>D00080800000000 OLED R&amp;D IC Charge</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1656,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1160,10 +1678,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,39 +1689,1063 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED15486-D230-4739-B1B4-672580A3582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED688093-265C-4C78-A1E2-82526F46B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2550" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="5025" yWindow="2550" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PLEAN_X310351DE6202203 1261_FPU_B7_GM_INT MKTG</t>
+    <t>D00119800000000</t>
   </si>
   <si>
-    <t>H000000447</t>
+    <t>P000001010</t>
+  </si>
+  <si>
+    <t>PQUATRO_T000402DE0413000</t>
+  </si>
+  <si>
+    <t>P000001159</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152IMIPKUTU01</t>
+  </si>
+  <si>
+    <t>P000000584</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1153,6 +1165,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED688093-265C-4C78-A1E2-82526F46B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF4257-9A99-4AEA-B377-234A117D2275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2550" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4860" yWindow="3075" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00119800000000</t>
+    <t>CTEMPLA_1000UY10100049</t>
   </si>
   <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>PQUATRO_T000402DE0413000</t>
-  </si>
-  <si>
-    <t>P000001159</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2152IMIPKUTU01</t>
-  </si>
-  <si>
-    <t>P000000584</t>
+    <t>G000001181</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1125,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1165,22 +1153,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF4257-9A99-4AEA-B377-234A117D2275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B465C92-443A-4DEF-8C21-3787D56BA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3075" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,64 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPLA_1000UY10100049</t>
-  </si>
-  <si>
-    <t>G000001181</t>
+    <t>CSCALA_1826$340_ICR</t>
+  </si>
+  <si>
+    <t>RDC0000992</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q350_H99</t>
+  </si>
+  <si>
+    <t>H000001072</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q326_H99</t>
+  </si>
+  <si>
+    <t>H000000775</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q318_H99</t>
+  </si>
+  <si>
+    <t>H000001081</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q321_P63</t>
+  </si>
+  <si>
+    <t>H000001079</t>
+  </si>
+  <si>
+    <t>CSCALA_1786$0000000330 Drug Safety</t>
+  </si>
+  <si>
+    <t>H000004209</t>
+  </si>
+  <si>
+    <t>CSCALA_1203$0000004148 MSE Ferti&amp;PCL</t>
+  </si>
+  <si>
+    <t>H000000773</t>
+  </si>
+  <si>
+    <t>CSCALA_1786$0000000150 Medical Unit Fertility – Global role</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q319 MU Oncology Australia</t>
+  </si>
+  <si>
+    <t>H000004376</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10548-150-RAI Global Hub PH IC Income</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10243214000100 GCM</t>
+  </si>
+  <si>
+    <t>H000000907</t>
   </si>
 </sst>
 </file>
@@ -763,7 +817,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,7 +1239,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1153,18 +1267,101 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A12 A21:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B465C92-443A-4DEF-8C21-3787D56BA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6809203-C4DE-4198-8D7A-75EE1127A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>Object</t>
   </si>
@@ -48,64 +37,235 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1826$340_ICR</t>
-  </si>
-  <si>
-    <t>RDC0000992</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q350_H99</t>
-  </si>
-  <si>
-    <t>H000001072</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q326_H99</t>
-  </si>
-  <si>
-    <t>H000000775</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q318_H99</t>
-  </si>
-  <si>
-    <t>H000001081</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q321_P63</t>
-  </si>
-  <si>
-    <t>H000001079</t>
-  </si>
-  <si>
-    <t>CSCALA_1786$0000000330 Drug Safety</t>
-  </si>
-  <si>
-    <t>H000004209</t>
-  </si>
-  <si>
-    <t>CSCALA_1203$0000004148 MSE Ferti&amp;PCL</t>
-  </si>
-  <si>
-    <t>H000000773</t>
-  </si>
-  <si>
-    <t>CSCALA_1786$0000000150 Medical Unit Fertility – Global role</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q319 MU Oncology Australia</t>
-  </si>
-  <si>
-    <t>H000004376</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10548-150-RAI Global Hub PH IC Income</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10243214000100 GCM</t>
-  </si>
-  <si>
-    <t>H000000907</t>
+    <t>PLEAN_T000023CH5001000</t>
+  </si>
+  <si>
+    <t>H000004226</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512000</t>
+  </si>
+  <si>
+    <t>H000004227</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH6501000</t>
+  </si>
+  <si>
+    <t>H000004220</t>
+  </si>
+  <si>
+    <t>PLEAN_T000011DE5001000</t>
+  </si>
+  <si>
+    <t>H000004237</t>
+  </si>
+  <si>
+    <t>PLEAN_T000013DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000014DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000015DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000017DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5002000</t>
+  </si>
+  <si>
+    <t>H000004378</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5003000</t>
+  </si>
+  <si>
+    <t>H000004388</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025IT5006000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000027IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5006000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5007000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5008000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5009000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028IT5010000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029IT5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5003000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5004000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000025CH5005000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026CH5002000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH5001000</t>
+  </si>
+  <si>
+    <t>H000004223</t>
+  </si>
+  <si>
+    <t>PLEAN_T000029CH5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512123</t>
+  </si>
+  <si>
+    <t>H000004224</t>
+  </si>
+  <si>
+    <t>PLEAN_T000023CH6512123001</t>
+  </si>
+  <si>
+    <t>PLEAN_T000024CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6507000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6508000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6509000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000028CH6510000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000037CH6501000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000010DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000020DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000022DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000030DE5001000</t>
+  </si>
+  <si>
+    <t>PLEAN_T000026IT5003000</t>
   </si>
 </sst>
 </file>
@@ -817,57 +977,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1239,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,95 +1382,559 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12 A21:A1048576">
+  <conditionalFormatting sqref="A9:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6809203-C4DE-4198-8D7A-75EE1127A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570AD152-A9E3-49DC-B528-820D3B53C797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Object</t>
   </si>
@@ -37,235 +48,184 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PLEAN_T000023CH5001000</t>
-  </si>
-  <si>
-    <t>H000004226</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512000</t>
-  </si>
-  <si>
-    <t>H000004227</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH6501000</t>
-  </si>
-  <si>
-    <t>H000004220</t>
-  </si>
-  <si>
-    <t>PLEAN_T000011DE5001000</t>
-  </si>
-  <si>
-    <t>H000004237</t>
-  </si>
-  <si>
-    <t>PLEAN_T000013DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000014DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000015DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000017DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5002000</t>
-  </si>
-  <si>
-    <t>H000004378</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5003000</t>
-  </si>
-  <si>
-    <t>H000004388</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025IT5006000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000027IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5006000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5007000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5008000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5009000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028IT5010000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029IT5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5003000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5004000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000025CH5005000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026CH5002000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH5001000</t>
-  </si>
-  <si>
-    <t>H000004223</t>
-  </si>
-  <si>
-    <t>PLEAN_T000029CH5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512123</t>
-  </si>
-  <si>
-    <t>H000004224</t>
-  </si>
-  <si>
-    <t>PLEAN_T000023CH6512123001</t>
-  </si>
-  <si>
-    <t>PLEAN_T000024CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6507000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6508000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6509000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000028CH6510000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000037CH6501000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000010DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000020DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000022DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000030DE5001000</t>
-  </si>
-  <si>
-    <t>PLEAN_T000026IT5003000</t>
+    <t>CSCALA_1820$A060_A92</t>
+  </si>
+  <si>
+    <t>H000001141</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A060_B12</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A060_B91</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A104_H99</t>
+  </si>
+  <si>
+    <t>H000001152</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$Q300_B02</t>
+  </si>
+  <si>
+    <t>H000001145</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BGEN_S99</t>
+  </si>
+  <si>
+    <t>H000000423</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BPFE_D91</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$FEPM_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSCE_F05</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSCE_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSCE_S01</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSFF_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSIS_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSIS_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_D13</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_F06</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_M11</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_P48</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_T90</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_W07</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_D52</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_T94</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ONPM_O55</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ONPM_W61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2276891081IC </t>
+  </si>
+  <si>
+    <t>L000012326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000876692 </t>
+  </si>
+  <si>
+    <t>L000013183</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LSCC_P49</t>
+  </si>
+  <si>
+    <t>L000008448</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BSFF_P49</t>
+  </si>
+  <si>
+    <t>L000012271</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CSD_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MMSS_P49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.SLHM </t>
+  </si>
+  <si>
+    <t>L000007122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.SLHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000681403 </t>
+  </si>
+  <si>
+    <t>L000007703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.LLCZ SLS </t>
+  </si>
+  <si>
+    <t>L000013188</t>
+  </si>
+  <si>
+    <t>D30002300000000 Antibio LPS-2019</t>
+  </si>
+  <si>
+    <t>D30002900000000 2019 MSP Expansion</t>
+  </si>
+  <si>
+    <t>D30011500000000 PVDF transfer membrane replacement</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240001 ImmunoGen 2025 SSP Manufacturing</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240011 Lantheus ECD Rhenium Bicisate</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240014 Levothyroxine Route Investigation</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240018 Bicycle GME</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240019 GSK5731620A</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240020 Alcon Labs GO1</t>
+  </si>
+  <si>
+    <t>D30006700000000 Application Development support</t>
+  </si>
+  <si>
+    <t>L000009184</t>
+  </si>
+  <si>
+    <t>L000009183</t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t>L000005949</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,71 +1358,71 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,79 +1470,79 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,335 +1550,143 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
         <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1702,7 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A1048576">
+  <conditionalFormatting sqref="A9:A46 A51:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570AD152-A9E3-49DC-B528-820D3B53C797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE94F43-90A4-448A-BF0E-3FA3F1B60A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="8955" yWindow="1515" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Object</t>
   </si>
@@ -195,24 +195,6 @@
     <t>D30011500000000 PVDF transfer membrane replacement</t>
   </si>
   <si>
-    <t>CPRJ-9820240001 ImmunoGen 2025 SSP Manufacturing</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240011 Lantheus ECD Rhenium Bicisate</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240014 Levothyroxine Route Investigation</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240018 Bicycle GME</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240019 GSK5731620A</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240020 Alcon Labs GO1</t>
-  </si>
-  <si>
     <t>D30006700000000 Application Development support</t>
   </si>
   <si>
@@ -226,6 +208,30 @@
   </si>
   <si>
     <t>L000005949</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000663131</t>
+  </si>
+  <si>
+    <t>G000000627</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240001 ImmunoGen 2025 SSP Manufacturing</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240011 Lantheus ECD Rhenium Bicisate</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240014 Levothyroxine Route Investigation</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240018 Bicycle GME</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240019 GSK5731620A</t>
+  </si>
+  <si>
+    <t>NEXT_CPRJ-9820240020 Alcon Labs GO1</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1315,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1614,7 +1620,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1628,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1636,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,55 +1644,71 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1724,7 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A46 A51:A1048576">
+  <conditionalFormatting sqref="A45:A1048576 A9:A40">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE94F43-90A4-448A-BF0E-3FA3F1B60A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D6C0A-C9FA-484B-9204-20606B573083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="1515" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="3705" yWindow="3900" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,190 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1820$A060_A92</t>
+    <t>CSCALA_1022$ITO</t>
   </si>
   <si>
-    <t>H000001141</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A060_B12</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A060_B91</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A104_H99</t>
-  </si>
-  <si>
-    <t>H000001152</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$Q300_B02</t>
-  </si>
-  <si>
-    <t>H000001145</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BGEN_S99</t>
-  </si>
-  <si>
-    <t>H000000423</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BPFE_D91</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$FEPM_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSCE_F05</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSCE_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSCE_S01</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSFF_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSIS_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSIS_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_D13</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_F06</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_M11</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_P48</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_T90</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_W07</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_D52</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T94</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ONPM_O55</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ONPM_W61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2276891081IC </t>
-  </si>
-  <si>
-    <t>L000012326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000876692 </t>
-  </si>
-  <si>
-    <t>L000013183</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LSCC_P49</t>
-  </si>
-  <si>
-    <t>L000008448</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BSFF_P49</t>
-  </si>
-  <si>
-    <t>L000012271</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CSD_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MMSS_P49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.SLHM </t>
-  </si>
-  <si>
-    <t>L000007122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.SLHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000681403 </t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.LLCZ SLS </t>
-  </si>
-  <si>
-    <t>L000013188</t>
-  </si>
-  <si>
-    <t>D30002300000000 Antibio LPS-2019</t>
-  </si>
-  <si>
-    <t>D30002900000000 2019 MSP Expansion</t>
-  </si>
-  <si>
-    <t>D30011500000000 PVDF transfer membrane replacement</t>
-  </si>
-  <si>
-    <t>D30006700000000 Application Development support</t>
-  </si>
-  <si>
-    <t>L000009184</t>
-  </si>
-  <si>
-    <t>L000009183</t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t>L000005949</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000663131</t>
-  </si>
-  <si>
-    <t>G000000627</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240001 ImmunoGen 2025 SSP Manufacturing</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240011 Lantheus ECD Rhenium Bicisate</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240014 Levothyroxine Route Investigation</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240018 Bicycle GME</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240019 GSK5731620A</t>
-  </si>
-  <si>
-    <t>NEXT_CPRJ-9820240020 Alcon Labs GO1</t>
+    <t>G000001240</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1135,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1343,374 +1163,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
@@ -1724,8 +1176,8 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A1048576 A9:A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A3:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D6C0A-C9FA-484B-9204-20606B573083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC416B-EF31-41B7-8B18-E88862084413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3900" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1022$ITO</t>
-  </si>
-  <si>
-    <t>G000001240</t>
+    <t>PLEAN_X310002CN5023301 SIT MED MED OTH Digital MSL</t>
+  </si>
+  <si>
+    <t>H000001554</t>
+  </si>
+  <si>
+    <t>PLEAN_X310112CN5023301 O59 MED MED OTH TGCT Medical Materials &amp;</t>
+  </si>
+  <si>
+    <t>H000004392</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013371 FD COM C&amp;E Pergoveris - National congres</t>
+  </si>
+  <si>
+    <t>H000004382</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015300 FD COM PROM OTH Patient Education activi</t>
+  </si>
+  <si>
+    <t>H000001489</t>
+  </si>
+  <si>
+    <t>PLEAN_X310941CN5013022 TEP COM C&amp;E ONC TT Third party meeting</t>
+  </si>
+  <si>
+    <t>H000004119</t>
+  </si>
+  <si>
+    <t>PLEAN_X310941CN5015999 TEP COM PROM OTH Tepmetko Market sample</t>
+  </si>
+  <si>
+    <t>H000001423</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1165,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1161,6 +1191,46 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC416B-EF31-41B7-8B18-E88862084413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84A2C3-23BF-4E3E-9397-D30E9FA92889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +48,301 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PLEAN_X310002CN5023301 SIT MED MED OTH Digital MSL</t>
-  </si>
-  <si>
-    <t>H000001554</t>
-  </si>
-  <si>
-    <t>PLEAN_X310112CN5023301 O59 MED MED OTH TGCT Medical Materials &amp;</t>
-  </si>
-  <si>
-    <t>H000004392</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013371 FD COM C&amp;E Pergoveris - National congres</t>
-  </si>
-  <si>
-    <t>H000004382</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015300 FD COM PROM OTH Patient Education activi</t>
-  </si>
-  <si>
-    <t>H000001489</t>
-  </si>
-  <si>
-    <t>PLEAN_X310941CN5013022 TEP COM C&amp;E ONC TT Third party meeting</t>
-  </si>
-  <si>
-    <t>H000004119</t>
-  </si>
-  <si>
-    <t>PLEAN_X310941CN5015999 TEP COM PROM OTH Tepmetko Market sample</t>
-  </si>
-  <si>
-    <t>H000001423</t>
+    <t>CEMERAL_64010010860149 Mold for LE1975</t>
+  </si>
+  <si>
+    <t>L000013770</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006101MS3412 3rd PFG Assets for PS APAC</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006101MS3413 3rd PFG Assets for SLS APAC</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007001581211 MESI REG PS-FF COMMERCIAL OPS EXCELLENCE</t>
+  </si>
+  <si>
+    <t>L000013531</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007001586020 REG Glob Dist Sust &amp; Enhance</t>
+  </si>
+  <si>
+    <t>L000009969</t>
+  </si>
+  <si>
+    <t>CEMERAL_70007102151726 Global Distribution Sustain &amp; Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010220 LS-II IT EMPLOYEE NEXT ERP (INFRASTR)</t>
+  </si>
+  <si>
+    <t>L000013812</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010222 US NEXT ERP IT Travel 2098</t>
+  </si>
+  <si>
+    <t>L000013811</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010223 LS-IL IT EMPLOYEE NEXT ERP (BIOINFO)</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010232 Strategy and Transformation</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010584 T&amp;E - other LS ERP</t>
+  </si>
+  <si>
+    <t>L000013623</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020641 BT&amp;D STL</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000031705 NEXT ERP - Business</t>
+  </si>
+  <si>
+    <t>L000013806</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040059 LSS E2E - Inventory Management</t>
+  </si>
+  <si>
+    <t>L000013797</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040408 NEXT ERP Implementation Business</t>
+  </si>
+  <si>
+    <t>L000013805</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040631 The NEXT ERP Implementation</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040682 IT-PL LS Sector ERP</t>
+  </si>
+  <si>
+    <t>L000013808</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051472 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051473 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051718 LS Digital PMO Org France</t>
+  </si>
+  <si>
+    <t>L000013803</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051723 LS-IO IT EMPLOYEE NEXT ERP (ORD TO CASH)</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051933 DE RE Inbound Freight-3rd Party Product</t>
+  </si>
+  <si>
+    <t>L000012458</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052113 ONE LS ERP - Business_Quality</t>
+  </si>
+  <si>
+    <t>L000013802</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052114 T&amp;E - other LS ERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057005 UK HA Production - Dist  Cost </t>
+  </si>
+  <si>
+    <t>L000009677</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057006 IRV PRD DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>L000009452</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057179 The NEXT ERP Implementation</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057264 LS ERP - Intercompany &amp; Export</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057336 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057503 UK Haverhill BT Prod Carriage Charges</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2477 EMSC Research Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2478 EMSC Applied Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2479 EMSC Process Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.5328 Global PSC Business Ops and Process Excellence</t>
+  </si>
+  <si>
+    <t>L000013532</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9468 NEXT ERP Controlling</t>
+  </si>
+  <si>
+    <t>L000013804</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9772 NEXT ERP Implementation</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9938 LS ERP_Specialty Business E2EPO</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9949 9949 ONE LS ERP_MBS reclass</t>
+  </si>
+  <si>
+    <t>L000013801</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.RFSC Bioprocess Supply Chain Virtual Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.SFSC Diagnostic Supply Chain Virtual Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1968.9665 NEXT ERP Controlling</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2122 Gusmer production costs</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2246 LSS E2E - Inventory Mgmt</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2248 Boyd contract</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2477 EMSC Research Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2478 EMSC Applied Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2479 EMSC Process Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9019 IT-PL LS Sector ERP US</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9468 NEXT ERP Controlling</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9531 SFDC PMO</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9665 NEXT ERP Controlling</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9770 US NX ERP IT Trav 1975</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9772 NEXT ERP Implementation</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9939 9939 LS ERP SAP - Variable Product E2EPO</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9941 9941 ONE LS ERP - Business_Distribution</t>
+  </si>
+  <si>
+    <t>L000013800</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9942 9942 ONE LS ERP - Business_Manufacturing</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9943 9943 ONE LS ERP - Business_Standard Product</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9944 9944 LS ERP - Business Quality &amp; Data</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9973 LS ERP projects - LS Business</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.RFSC Bioprocess Supply Chain Virtual Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.SFSC Diagnostic Supply Chain Virtual Plant</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR2288.RFSC Bioprocess Supply Chain Virtual Plant</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000040050 Supply Chain Life Science Services</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000639300 NEXT - IT Personnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000691500 A&amp;F E-commerce </t>
+  </si>
+  <si>
+    <t>L000011729</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000699608 PS Digital Strategy 1500</t>
+  </si>
+  <si>
+    <t>L000013530</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000860001 LS ERP Quality &amp; Data</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000861001 LS ERP Quality &amp; Data</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000935555 ONE ERP Project Management</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000CH70SP1001 Supply Chain LSS</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40860000 LS ERP - Quality</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40AD0100 The NEXT ERP Implementation</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000AR10230002 LS Finance SAP Next</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10200901 PS Comm Strat Digital St</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000BR10303814 Pool LS (Manufact. Chemical)</t>
+  </si>
+  <si>
+    <t>L000013445</t>
+  </si>
+  <si>
+    <t>FL000012190_IO EMSC Production -G (IO)</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009100586 6401IC1975OX3122112000</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,39 +1459,607 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84A2C3-23BF-4E3E-9397-D30E9FA92889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24AF4CE-88F6-41EB-B955-48187A002C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="31770" yWindow="2490" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Object</t>
   </si>
@@ -48,301 +48,19 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_64010010860149 Mold for LE1975</t>
+    <t>OL000010054_I EMSC Production Applied-G (direct input)</t>
   </si>
   <si>
     <t>L000013770</t>
   </si>
   <si>
-    <t>CEMERAL_70006101MS3412 3rd PFG Assets for PS APAC</t>
+    <t>OL000010055_I EMSC Production Process-G (direct input)</t>
   </si>
   <si>
-    <t>CEMERAL_70006101MS3413 3rd PFG Assets for SLS APAC</t>
+    <t>OL000010056_I EMSC Production Research-G (direct input)</t>
   </si>
   <si>
-    <t>CEMERAL_70007001581211 MESI REG PS-FF COMMERCIAL OPS EXCELLENCE</t>
-  </si>
-  <si>
-    <t>L000013531</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007001586020 REG Glob Dist Sust &amp; Enhance</t>
-  </si>
-  <si>
-    <t>L000009969</t>
-  </si>
-  <si>
-    <t>CEMERAL_70007102151726 Global Distribution Sustain &amp; Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010220 LS-II IT EMPLOYEE NEXT ERP (INFRASTR)</t>
-  </si>
-  <si>
-    <t>L000013812</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010222 US NEXT ERP IT Travel 2098</t>
-  </si>
-  <si>
-    <t>L000013811</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010223 LS-IL IT EMPLOYEE NEXT ERP (BIOINFO)</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010232 Strategy and Transformation</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010584 T&amp;E - other LS ERP</t>
-  </si>
-  <si>
-    <t>L000013623</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020641 BT&amp;D STL</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000031705 NEXT ERP - Business</t>
-  </si>
-  <si>
-    <t>L000013806</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040059 LSS E2E - Inventory Management</t>
-  </si>
-  <si>
-    <t>L000013797</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040408 NEXT ERP Implementation Business</t>
-  </si>
-  <si>
-    <t>L000013805</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040631 The NEXT ERP Implementation</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040682 IT-PL LS Sector ERP</t>
-  </si>
-  <si>
-    <t>L000013808</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051472 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051473 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051718 LS Digital PMO Org France</t>
-  </si>
-  <si>
-    <t>L000013803</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051723 LS-IO IT EMPLOYEE NEXT ERP (ORD TO CASH)</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051933 DE RE Inbound Freight-3rd Party Product</t>
-  </si>
-  <si>
-    <t>L000012458</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052113 ONE LS ERP - Business_Quality</t>
-  </si>
-  <si>
-    <t>L000013802</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052114 T&amp;E - other LS ERP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057005 UK HA Production - Dist  Cost </t>
-  </si>
-  <si>
-    <t>L000009677</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057006 IRV PRD DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>L000009452</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057179 The NEXT ERP Implementation</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057264 LS ERP - Intercompany &amp; Export</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057336 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057503 UK Haverhill BT Prod Carriage Charges</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2477 EMSC Research Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2478 EMSC Applied Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2479 EMSC Process Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.5328 Global PSC Business Ops and Process Excellence</t>
-  </si>
-  <si>
-    <t>L000013532</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9468 NEXT ERP Controlling</t>
-  </si>
-  <si>
-    <t>L000013804</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9772 NEXT ERP Implementation</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9938 LS ERP_Specialty Business E2EPO</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.9949 9949 ONE LS ERP_MBS reclass</t>
-  </si>
-  <si>
-    <t>L000013801</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.RFSC Bioprocess Supply Chain Virtual Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.SFSC Diagnostic Supply Chain Virtual Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1968.9665 NEXT ERP Controlling</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2122 Gusmer production costs</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2246 LSS E2E - Inventory Mgmt</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2248 Boyd contract</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2477 EMSC Research Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2478 EMSC Applied Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2479 EMSC Process Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9019 IT-PL LS Sector ERP US</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9468 NEXT ERP Controlling</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9531 SFDC PMO</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9665 NEXT ERP Controlling</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9770 US NX ERP IT Trav 1975</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9772 NEXT ERP Implementation</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9939 9939 LS ERP SAP - Variable Product E2EPO</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9941 9941 ONE LS ERP - Business_Distribution</t>
-  </si>
-  <si>
-    <t>L000013800</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9942 9942 ONE LS ERP - Business_Manufacturing</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9943 9943 ONE LS ERP - Business_Standard Product</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9944 9944 LS ERP - Business Quality &amp; Data</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9973 LS ERP projects - LS Business</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.RFSC Bioprocess Supply Chain Virtual Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.SFSC Diagnostic Supply Chain Virtual Plant</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR2288.RFSC Bioprocess Supply Chain Virtual Plant</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000040050 Supply Chain Life Science Services</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000639300 NEXT - IT Personnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000691500 A&amp;F E-commerce </t>
-  </si>
-  <si>
-    <t>L000011729</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000699608 PS Digital Strategy 1500</t>
-  </si>
-  <si>
-    <t>L000013530</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000860001 LS ERP Quality &amp; Data</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000861001 LS ERP Quality &amp; Data</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000935555 ONE ERP Project Management</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000CH70SP1001 Supply Chain LSS</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000NL40860000 LS ERP - Quality</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000NL40AD0100 The NEXT ERP Implementation</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000AR10230002 LS Finance SAP Next</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10200901 PS Comm Strat Digital St</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10303814 Pool LS (Manufact. Chemical)</t>
-  </si>
-  <si>
-    <t>L000013445</t>
-  </si>
-  <si>
-    <t>FL000012190_IO EMSC Production -G (IO)</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009100586 6401IC1975OX3122112000</t>
+    <t>OL000012190_I EMSC Production -G (direct input)</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,590 +1193,6 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2075,8 +1209,8 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24AF4CE-88F6-41EB-B955-48187A002C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A243EE7-9696-4B57-B59B-C2959937BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="2490" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>OL000010054_I EMSC Production Applied-G (direct input)</t>
+    <t>CSCALA_1082$0000001015</t>
   </si>
   <si>
-    <t>L000013770</t>
+    <t>G000001180</t>
   </si>
   <si>
-    <t>OL000010055_I EMSC Production Process-G (direct input)</t>
+    <t>CSCALA_1085$0000001015</t>
   </si>
   <si>
-    <t>OL000010056_I EMSC Production Research-G (direct input)</t>
-  </si>
-  <si>
-    <t>OL000012190_I EMSC Production -G (direct input)</t>
+    <t>CSCALA_1086$0000001015</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,14 +1185,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A243EE7-9696-4B57-B59B-C2959937BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1B052-4A74-4B0B-A30B-EBB874DE5A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,175 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1082$0000001015</t>
-  </si>
-  <si>
-    <t>G000001180</t>
-  </si>
-  <si>
-    <t>CSCALA_1085$0000001015</t>
-  </si>
-  <si>
-    <t>CSCALA_1086$0000001015</t>
+    <t>CSCALA_1820$A106_H99</t>
+  </si>
+  <si>
+    <t>H000002263</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700005519 A4-Advisory Board</t>
+  </si>
+  <si>
+    <t>H000000319</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700005552 77-Donations for Patient Benefit</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001700006114 W0_Advertising</t>
+  </si>
+  <si>
+    <t>PLEAN_X310009TN6090201 IQVIA</t>
+  </si>
+  <si>
+    <t>H000000262</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111TN5010200 Algeria HA submisiion Onco</t>
+  </si>
+  <si>
+    <t>PLEAN_X310161SA5015303 BAV W0 COM-OTHER PROM-SA</t>
+  </si>
+  <si>
+    <t>H000000303</t>
+  </si>
+  <si>
+    <t>PLEAN_X310172TN5020202 DZ- Avelumab events</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182TN5022200 Advisory Board UC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201EG5013233 A4 Commercial-EG-Cong&amp;events-Int S Alone</t>
+  </si>
+  <si>
+    <t>H000002944</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201EG5015240 A4 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201MA5013212 FERT-MA-AGS AGADIR</t>
+  </si>
+  <si>
+    <t>H000000286</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201MA5013215 Congrès SMFC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201SA5010301 FER COM-PRO MAT-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201SA5011301 FER COM-ADVERTISING-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN5010210 Promotion material Fertility DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN5013204 Fertility Day Standalone 2023 (HQ50)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN5013225 Morocco Marketing Major activities</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6010200 Matériel promotionnel Fertility Biotech</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013201 Journée AGOS Fertility Biotech TN (TN02)</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013205 Journée AGOB Fertility Biotech TN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013207 JournéePMAdela STGO Fertility Biotech TN</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013209 Staffs, tables rondes, divers Fertilité</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013213 Journée AFFS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013214 Journée AEFMS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013215 Journée Fertilia Fertility Biotech TN</t>
+  </si>
+  <si>
+    <t>H000000318</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013218 Journée Eve fertility</t>
+  </si>
+  <si>
+    <t>PLEAN_X310211TN5010201 Site Web Merck Management</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301SA5030302 DIA COM-OTHER M&amp;S-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301TN5010204 Promotional Material MA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301TN5010206 Materiel promotionnel DZ Diabète</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301TN5010207 Materiel promotionnel MO Diabetes</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5015204 SP GAP MRKT RESEARCH-BH-ENDO</t>
+  </si>
+  <si>
+    <t>H000000250</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401TN5010200 Materiel promotionnel DZ Saizen</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5010401 SP PROM MAT-JO-MAVEN</t>
+  </si>
+  <si>
+    <t>H000000276</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511AE5010403 SP PROM MAT-PS-MAVEN</t>
+  </si>
+  <si>
+    <t>H000000299</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511EG5013233 B3 Commercial-EG-Cong&amp;events-Int S Alone</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511MA5013213 MSVC MAROC</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511MA5013215 Mavenchat</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511TN5013224 SPONSORSHIP DZ 2024 Mavenclad</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511TN6013203 Congres national de Neurologie</t>
+  </si>
+  <si>
+    <t>PLEAN_X310513AE5043201 R&amp;D LOCAL-AE-MAVEN</t>
+  </si>
+  <si>
+    <t>H000000245</t>
+  </si>
+  <si>
+    <t>PLEAN_X310801AE5030511 SP REG-EA-SHARED</t>
+  </si>
+  <si>
+    <t>H000000277</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PMRE SPICE MY New Office Lease</t>
+  </si>
+  <si>
+    <t>P000001198</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1174,15 +1333,343 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1B052-4A74-4B0B-A30B-EBB874DE5A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C644DA38-B030-4437-92F6-9BE2113C9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,175 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1820$A106_H99</t>
+    <t>CFLTFLE_2152IMIPIDEV02</t>
   </si>
   <si>
-    <t>H000002263</t>
+    <t>P000000540</t>
   </si>
   <si>
-    <t>ITEMPEU_001700005519 A4-Advisory Board</t>
+    <t>CNOW_7210$$$0000010463 EL Spice IT</t>
   </si>
   <si>
-    <t>H000000319</t>
+    <t>P000001205</t>
   </si>
   <si>
-    <t>ITEMPEU_001700005552 77-Donations for Patient Benefit</t>
+    <t>CNOW_AUS0$$$0000092052 Project SPICE - Exceptionals</t>
   </si>
   <si>
-    <t>ITEMPEU_001700006114 W0_Advertising</t>
+    <t>P000001208</t>
   </si>
   <si>
-    <t>PLEAN_X310009TN6090201 IQVIA</t>
+    <t>CPHOENX_01019182001513 SPICE Ressource Cost</t>
   </si>
   <si>
-    <t>H000000262</t>
+    <t>CTEMPLA_1000BR10404500 SPICE Carve Out</t>
   </si>
   <si>
-    <t>PLEAN_X310111TN5010200 Algeria HA submisiion Onco</t>
-  </si>
-  <si>
-    <t>PLEAN_X310161SA5015303 BAV W0 COM-OTHER PROM-SA</t>
-  </si>
-  <si>
-    <t>H000000303</t>
-  </si>
-  <si>
-    <t>PLEAN_X310172TN5020202 DZ- Avelumab events</t>
-  </si>
-  <si>
-    <t>PLEAN_X310182TN5022200 Advisory Board UC</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201EG5013233 A4 Commercial-EG-Cong&amp;events-Int S Alone</t>
-  </si>
-  <si>
-    <t>H000002944</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201EG5015240 A4 Commercial-EG-Other pro&amp;Adv-M S Prog</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201MA5013212 FERT-MA-AGS AGADIR</t>
-  </si>
-  <si>
-    <t>H000000286</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201MA5013215 Congrès SMFC</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201SA5010301 FER COM-PRO MAT-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201SA5011301 FER COM-ADVERTISING-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN5010210 Promotion material Fertility DZ</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN5013204 Fertility Day Standalone 2023 (HQ50)</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN5013225 Morocco Marketing Major activities</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6010200 Matériel promotionnel Fertility Biotech</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013201 Journée AGOS Fertility Biotech TN (TN02)</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013205 Journée AGOB Fertility Biotech TN</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013207 JournéePMAdela STGO Fertility Biotech TN</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013209 Staffs, tables rondes, divers Fertilité</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013213 Journée AFFS</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013214 Journée AEFMS</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013215 Journée Fertilia Fertility Biotech TN</t>
-  </si>
-  <si>
-    <t>H000000318</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013218 Journée Eve fertility</t>
-  </si>
-  <si>
-    <t>PLEAN_X310211TN5010201 Site Web Merck Management</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301SA5030302 DIA COM-OTHER M&amp;S-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301TN5010204 Promotional Material MA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301TN5010206 Materiel promotionnel DZ Diabète</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301TN5010207 Materiel promotionnel MO Diabetes</t>
-  </si>
-  <si>
-    <t>PLEAN_X310401AE5015204 SP GAP MRKT RESEARCH-BH-ENDO</t>
-  </si>
-  <si>
-    <t>H000000250</t>
-  </si>
-  <si>
-    <t>PLEAN_X310401TN5010200 Materiel promotionnel DZ Saizen</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511AE5010401 SP PROM MAT-JO-MAVEN</t>
-  </si>
-  <si>
-    <t>H000000276</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511AE5010403 SP PROM MAT-PS-MAVEN</t>
-  </si>
-  <si>
-    <t>H000000299</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511EG5013233 B3 Commercial-EG-Cong&amp;events-Int S Alone</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511MA5013213 MSVC MAROC</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511MA5013215 Mavenchat</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511TN5013224 SPONSORSHIP DZ 2024 Mavenclad</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511TN6013203 Congres national de Neurologie</t>
-  </si>
-  <si>
-    <t>PLEAN_X310513AE5043201 R&amp;D LOCAL-AE-MAVEN</t>
-  </si>
-  <si>
-    <t>H000000245</t>
-  </si>
-  <si>
-    <t>PLEAN_X310801AE5030511 SP REG-EA-SHARED</t>
-  </si>
-  <si>
-    <t>H000000277</t>
+    <t>P000001203</t>
   </si>
   <si>
     <t>CSCALA_1042$PMRE SPICE MY New Office Lease</t>
-  </si>
-  <si>
-    <t>P000001198</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,335 +1200,31 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C644DA38-B030-4437-92F6-9BE2113C9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7609441-0E50-4011-AB5C-144DF02854DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="7620" yWindow="2925" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +49,25 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_2152IMIPIDEV02</t>
+    <t>IPHOENX_000400753223 Rueckstellung Url/Gleit Forsch. Chem</t>
   </si>
   <si>
-    <t>P000000540</t>
+    <t>L000005044</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000010463 EL Spice IT</t>
+    <t>P000001010</t>
   </si>
   <si>
-    <t>P000001205</t>
+    <t>CNOW_7210$$$0000059740 ADMINISTRATION</t>
   </si>
   <si>
-    <t>CNOW_AUS0$$$0000092052 Project SPICE - Exceptionals</t>
+    <t>P000000425</t>
   </si>
   <si>
-    <t>P000001208</t>
+    <t>CNOW_7210$$$0000059761 ADMINISTRATION</t>
   </si>
   <si>
-    <t>CPHOENX_01019182001513 SPICE Ressource Cost</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000BR10404500 SPICE Carve Out</t>
-  </si>
-  <si>
-    <t>P000001203</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PMRE SPICE MY New Office Lease</t>
+    <t>RD240019 R&amp;D Trifluoroethylene [NPI}</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,42 +1181,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7609441-0E50-4011-AB5C-144DF02854DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B823B-EBEA-45A5-B1C4-29E993F89314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2925" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Object</t>
   </si>
@@ -49,25 +48,127 @@
     <t>Node</t>
   </si>
   <si>
-    <t>IPHOENX_000400753223 Rueckstellung Url/Gleit Forsch. Chem</t>
-  </si>
-  <si>
-    <t>L000005044</t>
-  </si>
-  <si>
-    <t>P000001010</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000059740 ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>P000000425</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000059761 ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>RD240019 R&amp;D Trifluoroethylene [NPI}</t>
+    <t>CNOW_7210$$$0000210026 Building 1 labs extension</t>
+  </si>
+  <si>
+    <t>L000007122</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000210027 Building 3 labs extension</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000210028 Building 4 labs extension</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000005225 Inventory Adjustment</t>
+  </si>
+  <si>
+    <t>L000012908</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051662 IMPOTS ET TAXES</t>
+  </si>
+  <si>
+    <t>L000011282</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051661 IMPOTS ET TAXES</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056335 DCBA Transfer Buchs- Darmstadt</t>
+  </si>
+  <si>
+    <t>L000013786</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092056 ONE PS/Bridge_2142 Field Force</t>
+  </si>
+  <si>
+    <t>L000007433</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015563 PS Frachises Integrated Marketing DE</t>
+  </si>
+  <si>
+    <t>L000013558</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056420 IBM</t>
+  </si>
+  <si>
+    <t>L000013118</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057811 Unit 66 Warehouse</t>
+  </si>
+  <si>
+    <t>L000009452</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051472 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>L000009969</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051473 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052162 ICON FR 51472</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057336 Global Distribution Sustain&amp;Enhance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020454 Head of DxRM</t>
+  </si>
+  <si>
+    <t>L000005892</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020023 GSO DSSO US</t>
+  </si>
+  <si>
+    <t>L000013637</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056159 LS Bridge Severance</t>
+  </si>
+  <si>
+    <t>L000013385</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052116</t>
+  </si>
+  <si>
+    <t>L000013274</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000056968</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040061</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000025509</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000023579</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010343</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9019</t>
+  </si>
+  <si>
+    <t>L000013391</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040682</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010232</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1282,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,15 +1293,199 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B823B-EBEA-45A5-B1C4-29E993F89314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C1173-C113-4830-83D7-2BD1D648931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Object</t>
   </si>
@@ -48,127 +48,19 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000210026 Building 1 labs extension</t>
-  </si>
-  <si>
-    <t>L000007122</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000210027 Building 3 labs extension</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000210028 Building 4 labs extension</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000005225 Inventory Adjustment</t>
-  </si>
-  <si>
-    <t>L000012908</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051662 IMPOTS ET TAXES</t>
-  </si>
-  <si>
-    <t>L000011282</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051661 IMPOTS ET TAXES</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056335 DCBA Transfer Buchs- Darmstadt</t>
-  </si>
-  <si>
-    <t>L000013786</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092056 ONE PS/Bridge_2142 Field Force</t>
-  </si>
-  <si>
-    <t>L000007433</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015563 PS Frachises Integrated Marketing DE</t>
-  </si>
-  <si>
-    <t>L000013558</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056420 IBM</t>
-  </si>
-  <si>
-    <t>L000013118</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057811 Unit 66 Warehouse</t>
-  </si>
-  <si>
-    <t>L000009452</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051472 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>L000009969</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051473 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052162 ICON FR 51472</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057336 Global Distribution Sustain&amp;Enhance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020454 Head of DxRM</t>
-  </si>
-  <si>
-    <t>L000005892</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020023 GSO DSSO US</t>
-  </si>
-  <si>
-    <t>L000013637</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000056159 LS Bridge Severance</t>
-  </si>
-  <si>
-    <t>L000013385</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052116</t>
-  </si>
-  <si>
     <t>L000013274</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000056968</t>
+    <t>CNOW_AUS0$$$0000092057 LS AP ACCRUAL</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000040061</t>
+    <t>CNOW_7210$$$0000051727 LS AP ACCRUAL</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000025509</t>
+    <t>CNOW_7210$$$0000051728 LS AP ACCRUAL1349</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000023579</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010343</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9019</t>
-  </si>
-  <si>
-    <t>L000013391</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040682</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010232</t>
+    <t>CNOW_7210$$$0000497016 LS AP ACCRUAL</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1166,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,191 +1193,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C1173-C113-4830-83D7-2BD1D648931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D72C6-4E5D-4071-8C1E-63239A72AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,19 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000013274</t>
+    <t>H000000888</t>
   </si>
   <si>
-    <t>CNOW_AUS0$$$0000092057 LS AP ACCRUAL</t>
+    <t>FT00002300000 Bavencio LCM</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000051727 LS AP ACCRUAL</t>
+    <t>FT00002400000 mPEG-AA</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000051728 LS AP ACCRUAL1349</t>
+    <t>FT00002800000 Biosimilars LCM</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000497016 LS AP ACCRUAL</t>
+    <t>FT00002900000 Oncology</t>
   </si>
 </sst>
 </file>
@@ -1146,9 +1146,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1209,7 +1207,7 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A1048576">
+  <conditionalFormatting sqref="A6:A1048576 A2">
     <cfRule type="duplicateValues" dxfId="0" priority="229"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D72C6-4E5D-4071-8C1E-63239A72AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35A8B4-E26E-4480-8422-82D8E9CD8280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>H000000888</t>
+    <t>CSCALA_1022$INF_IT3</t>
   </si>
   <si>
-    <t>FT00002300000 Bavencio LCM</t>
-  </si>
-  <si>
-    <t>FT00002400000 mPEG-AA</t>
-  </si>
-  <si>
-    <t>FT00002800000 Biosimilars LCM</t>
-  </si>
-  <si>
-    <t>FT00002900000 Oncology</t>
+    <t>G000000276</t>
   </si>
 </sst>
 </file>
@@ -1144,9 +1135,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,34 +1157,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1176,7 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A1048576 A2">
+  <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="229"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35A8B4-E26E-4480-8422-82D8E9CD8280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49841332-1635-4683-B8AD-E908C1AE7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="5700" yWindow="2910" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1022$INF_IT3</t>
+    <t>CNOW_ROW$$$$0000008614</t>
   </si>
   <si>
-    <t>G000000276</t>
+    <t>G000001181</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49841332-1635-4683-B8AD-E908C1AE7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45695CAA-69E0-48AC-B0DE-460232C3E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2910" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="3000" yWindow="2385" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,28 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_ROW$$$$0000008614</t>
+    <t>OL000010054_I EMSC Production Applied-G (direct input)</t>
   </si>
   <si>
-    <t>G000001181</t>
+    <t>L000010054</t>
+  </si>
+  <si>
+    <t>OL000010055_I EMSC Production Process-G (direct input)</t>
+  </si>
+  <si>
+    <t>L000010055</t>
+  </si>
+  <si>
+    <t>OL000010056_I EMSC Production Research-G (direct input)</t>
+  </si>
+  <si>
+    <t>L000010056</t>
+  </si>
+  <si>
+    <t>OL000012190_I EMSC Production -G (direct input)</t>
+  </si>
+  <si>
+    <t>L000012190</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1179,30 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45695CAA-69E0-48AC-B0DE-460232C3E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2F5A5-F4D5-4DFD-96A3-83E2A5C4FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2385" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,28 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>OL000010054_I EMSC Production Applied-G (direct input)</t>
+    <t>IPHOENX_000400764125</t>
   </si>
   <si>
-    <t>L000010054</t>
-  </si>
-  <si>
-    <t>OL000010055_I EMSC Production Process-G (direct input)</t>
-  </si>
-  <si>
-    <t>L000010055</t>
-  </si>
-  <si>
-    <t>OL000010056_I EMSC Production Research-G (direct input)</t>
-  </si>
-  <si>
-    <t>L000010056</t>
-  </si>
-  <si>
-    <t>OL000012190_I EMSC Production -G (direct input)</t>
-  </si>
-  <si>
-    <t>L000012190</t>
+    <t>L000007345</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1135,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1179,30 +1159,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2F5A5-F4D5-4DFD-96A3-83E2A5C4FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D48CF-A9DA-4F57-A2D3-9A59BB1BB1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4035" yWindow="2145" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,13 @@
     <t>Node</t>
   </si>
   <si>
-    <t>IPHOENX_000400764125</t>
+    <t>IEMERAL_000008100139 6502IC1261GL3212100000 - R&amp;D Global</t>
   </si>
   <si>
-    <t>L000007345</t>
+    <t>RDC0000992</t>
+  </si>
+  <si>
+    <t>IEMERAL_000008100140</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1138,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1158,6 +1163,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D48CF-A9DA-4F57-A2D3-9A59BB1BB1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F6053-91D8-4086-8876-4A16321A4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2145" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,13 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>IEMERAL_000008100139 6502IC1261GL3212100000 - R&amp;D Global</t>
+    <t>ITEMPEU_003200004216</t>
   </si>
   <si>
-    <t>RDC0000992</t>
-  </si>
-  <si>
-    <t>IEMERAL_000008100140</t>
+    <t>L000009539</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,14 +1160,6 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F6053-91D8-4086-8876-4A16321A4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45191DC0-4F58-43F7-AFD2-1EE95EC83F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,19 @@
     <t>Node</t>
   </si>
   <si>
-    <t>ITEMPEU_003200004216</t>
+    <t>CEMERAL_70006502991741 LS Korea WH project</t>
   </si>
   <si>
-    <t>L000009539</t>
+    <t>L000013505</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000664455</t>
+  </si>
+  <si>
+    <t>L000013795</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.2238 Proj &amp; Eng - USA</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1170,22 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45191DC0-4F58-43F7-AFD2-1EE95EC83F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533CA0D4-B59D-4B0B-B38E-5B20D87A53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="6570" yWindow="3315" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006502991741 LS Korea WH project</t>
+    <t>CORAERP_MMOR1945.5908 AS - Marketing, Strategy &amp; Execution</t>
   </si>
   <si>
-    <t>L000013505</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000664455</t>
-  </si>
-  <si>
-    <t>L000013795</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1945.2238 Proj &amp; Eng - USA</t>
+    <t>L000005432</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,22 +1161,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533CA0D4-B59D-4B0B-B38E-5B20D87A53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB54B89D-8DC9-45AD-A353-13103D58C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3315" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4080" yWindow="3060" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,28 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1945.5908 AS - Marketing, Strategy &amp; Execution</t>
+    <t xml:space="preserve">CNOW_7210$$$0000020052 </t>
   </si>
   <si>
-    <t>L000005432</t>
+    <t xml:space="preserve">G000000103 </t>
+  </si>
+  <si>
+    <t>CSCALA_1042$GRFE_P49</t>
+  </si>
+  <si>
+    <t>G000000179</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$EDP_P49</t>
+  </si>
+  <si>
+    <t>G000000635</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ACC_P49</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$CFO_P49</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1179,38 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB54B89D-8DC9-45AD-A353-13103D58C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AED1783-0CBF-4507-923E-0B75CD0D68BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3060" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,28 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020052 </t>
-  </si>
-  <si>
     <t xml:space="preserve">G000000103 </t>
   </si>
   <si>
-    <t>CSCALA_1042$GRFE_P49</t>
+    <t xml:space="preserve">CFLTFLE_10243121070400 </t>
   </si>
   <si>
-    <t>G000000179</t>
+    <t>CSCALA_1025$CFO</t>
   </si>
   <si>
-    <t>CSCALA_1042$EDP_P49</t>
+    <t>G000000630</t>
   </si>
   <si>
-    <t>G000000635</t>
+    <t>CSCALA_1786$0000000832</t>
   </si>
   <si>
-    <t>CSCALA_1042$ACC_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CFO_P49</t>
+    <t>G000001181</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1147,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1175,10 +1167,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,22 +1186,6 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AED1783-0CBF-4507-923E-0B75CD0D68BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3F30D-6B92-45D4-94D9-AB309CB65B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="3300" yWindow="1860" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$22</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,76 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">G000000103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_10243121070400 </t>
-  </si>
-  <si>
-    <t>CSCALA_1025$CFO</t>
-  </si>
-  <si>
-    <t>G000000630</t>
-  </si>
-  <si>
-    <t>CSCALA_1786$0000000832</t>
-  </si>
-  <si>
-    <t>G000001181</t>
+    <t xml:space="preserve">ITEMPEU_NL40AA0013 </t>
+  </si>
+  <si>
+    <t>L000007346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373ADM </t>
+  </si>
+  <si>
+    <t>L000013154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373CSR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373EXC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373FAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373FIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373HUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373INT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373LEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373MKT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373OPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373PRD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373PRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373QUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373QUC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373RES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373SAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373SHP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373TEC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_2373SGA </t>
+  </si>
+  <si>
+    <t>CPHOENX_01019182669150 SPICE Backfill Gernsheim</t>
+  </si>
+  <si>
+    <t>P000001206</t>
   </si>
 </sst>
 </file>
@@ -1147,9 +1201,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1167,10 +1223,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,10 +1242,155 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B22" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3F30D-6B92-45D4-94D9-AB309CB65B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644424F6-995D-4D69-A71C-79AA17EF4BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1860" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$21</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Object</t>
   </si>
@@ -48,76 +48,82 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">ITEMPEU_NL40AA0013 </t>
-  </si>
-  <si>
-    <t>L000007346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373ADM </t>
-  </si>
-  <si>
-    <t>L000013154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373CSR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373EXC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373FAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373FIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373HUR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373INT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373LEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373MKT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373OPS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373PRD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373PRO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373QUA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373QUC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373RES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373SAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373SHP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373TEC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2373SGA </t>
-  </si>
-  <si>
-    <t>CPHOENX_01019182669150 SPICE Backfill Gernsheim</t>
-  </si>
-  <si>
-    <t>P000001206</t>
+    <t>CFLTFLE_10543020420000 Write off-Inventories, IC</t>
+  </si>
+  <si>
+    <t>L000009229</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020520000 Inventory revaluation IC</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000091765 BRK Q/C</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020211000 Price variances 3rd party</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020510000 Inventory revaluation 3P</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020410000 Write off-Inventories, 3r</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020212000 Price variances IC</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020430000 Valuation adj.- 3rd parti</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020531100 Capitalized PV, 3P</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020531200 Capitalized PV, IC</t>
+  </si>
+  <si>
+    <t>CFLTFLE_10543020440000 Valuation adjustments IC</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057730 UK-GILLINGHAM SAFC Miscellaneous</t>
+  </si>
+  <si>
+    <t>L000009452</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051996 FR SAFC Absorbed Cost</t>
+  </si>
+  <si>
+    <t>L000009839</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051994 FR RS Absorbed Cost</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051993 FR RE Absorbed Cost</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051995 FR BT Absorbed Cost</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058560 CHILE Manufacturing</t>
+  </si>
+  <si>
+    <t>L000009997</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058205 MY RE COS Expenses</t>
+  </si>
+  <si>
+    <t>L000010065</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058208 MY SAFC COS Expenses</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2653 LS Procurement Rebate COGS</t>
+  </si>
+  <si>
+    <t>L000013445</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,87 +1240,87 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,75 +1328,67 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B22" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
+  <autoFilter ref="A1:B21" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644424F6-995D-4D69-A71C-79AA17EF4BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BC9BB-DD0E-4F4A-9185-0C9B5C9607D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Object</t>
   </si>
@@ -48,82 +48,109 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_10543020420000 Write off-Inventories, IC</t>
-  </si>
-  <si>
-    <t>L000009229</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020520000 Inventory revaluation IC</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000091765 BRK Q/C</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020211000 Price variances 3rd party</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020510000 Inventory revaluation 3P</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020410000 Write off-Inventories, 3r</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020212000 Price variances IC</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020430000 Valuation adj.- 3rd parti</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020531100 Capitalized PV, 3P</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020531200 Capitalized PV, IC</t>
-  </si>
-  <si>
-    <t>CFLTFLE_10543020440000 Valuation adjustments IC</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057730 UK-GILLINGHAM SAFC Miscellaneous</t>
-  </si>
-  <si>
-    <t>L000009452</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051996 FR SAFC Absorbed Cost</t>
-  </si>
-  <si>
-    <t>L000009839</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051994 FR RS Absorbed Cost</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051993 FR RE Absorbed Cost</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051995 FR BT Absorbed Cost</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058560 CHILE Manufacturing</t>
-  </si>
-  <si>
-    <t>L000009997</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058205 MY RE COS Expenses</t>
-  </si>
-  <si>
-    <t>L000010065</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058208 MY SAFC COS Expenses</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2653 LS Procurement Rebate COGS</t>
-  </si>
-  <si>
-    <t>L000013445</t>
+    <t xml:space="preserve">CNOW_7210$$$0000000632 </t>
+  </si>
+  <si>
+    <t>L000013274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000270007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_ROW$$$$K17D </t>
+  </si>
+  <si>
+    <t>L000011157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020049 </t>
+  </si>
+  <si>
+    <t>L000013504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040170 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020053 </t>
+  </si>
+  <si>
+    <t>L000007758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040176 </t>
+  </si>
+  <si>
+    <t>L000007771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000496907 </t>
+  </si>
+  <si>
+    <t>L000013313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000051729 </t>
+  </si>
+  <si>
+    <t>L000013491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000051730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000021188 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020024 </t>
+  </si>
+  <si>
+    <t>L000005926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057199 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000057972 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020040 </t>
+  </si>
+  <si>
+    <t>L000007346</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052175</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000015935 </t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020031</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000020032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_AUS0$$$0000091932 </t>
+  </si>
+  <si>
+    <t>L000008315</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058829</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058828</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000023470</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,143 +1275,183 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BC9BB-DD0E-4F4A-9185-0C9B5C9607D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA55A3F-D99B-46DC-BFA6-D2AF91189EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="3285" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$8</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,109 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000000632 </t>
+    <t xml:space="preserve">CNOW_7210$$$0000020052 </t>
   </si>
   <si>
-    <t>L000013274</t>
+    <t xml:space="preserve">G000000103 </t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000270007 </t>
+    <t>CSCALA_1042$GRFE_P49</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_ROW$$$$K17D </t>
+    <t>G000000179</t>
   </si>
   <si>
-    <t>L000011157</t>
+    <t>CSCALA_1042$EDP_P49</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020049 </t>
+    <t>G000000635</t>
   </si>
   <si>
-    <t>L000013504</t>
+    <t>CSCALA_1042$ACC_P49</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040170 </t>
+    <t>CSCALA_1042$CFO_P49</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020053 </t>
+    <t>CSCALA_1212$0000001160</t>
   </si>
   <si>
-    <t>L000007758</t>
+    <t>G000001180</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040176 </t>
-  </si>
-  <si>
-    <t>L000007771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000496907 </t>
-  </si>
-  <si>
-    <t>L000013313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000051729 </t>
-  </si>
-  <si>
-    <t>L000013491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000051730 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000021188 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020024 </t>
-  </si>
-  <si>
-    <t>L000005926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057199 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000057972 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020040 </t>
-  </si>
-  <si>
-    <t>L000007346</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052175</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000015935 </t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020031</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000020032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_AUS0$$$0000091932 </t>
-  </si>
-  <si>
-    <t>L000008315</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058829</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058828</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000023470</t>
+    <t>CNOW_7210$$$0000051475</t>
   </si>
 </sst>
 </file>
@@ -1234,11 +1162,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1267,23 +1193,23 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,155 +1233,11 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B21" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
+  <autoFilter ref="A1:B8" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA55A3F-D99B-46DC-BFA6-D2AF91189EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8676E1-ECDF-4BC9-BD69-D1DA765905C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$3</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,36 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Object</t>
   </si>
   <si>
     <t>Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020052 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000103 </t>
-  </si>
-  <si>
-    <t>CSCALA_1042$GRFE_P49</t>
-  </si>
-  <si>
-    <t>G000000179</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$EDP_P49</t>
-  </si>
-  <si>
-    <t>G000000635</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ACC_P49</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$CFO_P49</t>
   </si>
   <si>
     <t>CSCALA_1212$0000001160</t>
@@ -1162,7 +1138,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,51 +1169,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B8" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
+  <autoFilter ref="A1:B3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8676E1-ECDF-4BC9-BD69-D1DA765905C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCE7FF-4820-42FF-B0FC-14AD1B3267E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$2</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,12 +40,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Object</t>
   </si>
   <si>
     <t>Node</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80L35002 SPICE Carve Out</t>
+  </si>
+  <si>
+    <t>G000000201</t>
   </si>
   <si>
     <t>CSCALA_1212$0000001160</t>
@@ -1138,9 +1144,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1169,11 +1177,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
+  <autoFilter ref="A1:B2" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCE7FF-4820-42FF-B0FC-14AD1B3267E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25BF408-1EBE-4539-88E4-89C48A387CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,19 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPNA_1000PH80L35002 SPICE Carve Out</t>
+    <t>CEMERAL_70006502992082</t>
   </si>
   <si>
-    <t>G000000201</t>
+    <t>G000001356</t>
   </si>
   <si>
-    <t>CSCALA_1212$0000001160</t>
+    <t>CSCALA_1022$ITD_IT1</t>
   </si>
   <si>
-    <t>G000001180</t>
+    <t>G000000279</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000051475</t>
+    <t>CSCALA_1022$ITS_IT5</t>
+  </si>
+  <si>
+    <t>G000000895</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1150,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25BF408-1EBE-4539-88E4-89C48A387CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B4B07-4FD8-4DC6-9022-F175665645DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,94 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006502992082</t>
-  </si>
-  <si>
-    <t>G000001356</t>
-  </si>
-  <si>
-    <t>CSCALA_1022$ITD_IT1</t>
-  </si>
-  <si>
-    <t>G000000279</t>
-  </si>
-  <si>
-    <t>CSCALA_1022$ITS_IT5</t>
-  </si>
-  <si>
-    <t>G000000895</t>
+    <t>PTEMPNA_US201PIOFCCHXPR89</t>
+  </si>
+  <si>
+    <t>H000003682</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCGVPR60</t>
+  </si>
+  <si>
+    <t>H000003683</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR75</t>
+  </si>
+  <si>
+    <t>H000003680</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR76</t>
+  </si>
+  <si>
+    <t>H000003681</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR51</t>
+  </si>
+  <si>
+    <t>H000004360</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMVPTXPR85</t>
+  </si>
+  <si>
+    <t>H000003678</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMVPLXPR73</t>
+  </si>
+  <si>
+    <t>H000003675</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCIXPR90</t>
+  </si>
+  <si>
+    <t>H000003679</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR01</t>
+  </si>
+  <si>
+    <t>H000003674</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR78</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR71</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR74</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR80</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR78</t>
+  </si>
+  <si>
+    <t>H000003676</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR72</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR73</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR74</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR84</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR50</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR81</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1261,142 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B4B07-4FD8-4DC6-9022-F175665645DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CBC23A-453C-4388-8C9E-85870EB12B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,94 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PTEMPNA_US201PIOFCCHXPR89</t>
+    <t xml:space="preserve">CNOW_ROW$$$$0000091825 </t>
   </si>
   <si>
-    <t>H000003682</t>
+    <t>L000008315</t>
   </si>
   <si>
-    <t>PTEMPNA_US201PIOMCCGVPR60</t>
+    <t xml:space="preserve">CFLTFLE_2373COS </t>
   </si>
   <si>
-    <t>H000003683</t>
+    <t>L000013154</t>
   </si>
   <si>
-    <t>PTEMPNA_US201PIOMCCEXPR75</t>
+    <t xml:space="preserve">CSCALA_1042$PSCE </t>
   </si>
   <si>
-    <t>H000003680</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCEXPR76</t>
-  </si>
-  <si>
-    <t>H000003681</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCEXPR51</t>
-  </si>
-  <si>
-    <t>H000004360</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMVPTXPR85</t>
-  </si>
-  <si>
-    <t>H000003678</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMVPLXPR73</t>
-  </si>
-  <si>
-    <t>H000003675</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCIXPR90</t>
-  </si>
-  <si>
-    <t>H000003679</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR01</t>
-  </si>
-  <si>
-    <t>H000003674</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR78</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR71</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR74</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR80</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR78</t>
-  </si>
-  <si>
-    <t>H000003676</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR72</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR73</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR74</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR84</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR50</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR81</t>
+    <t>L000011687</t>
   </si>
 </sst>
 </file>
@@ -1219,11 +1147,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1263,142 +1189,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CBC23A-453C-4388-8C9E-85870EB12B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AAF4B6-4B33-4E0D-9003-C6180727FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Object</t>
   </si>
@@ -64,6 +64,129 @@
   </si>
   <si>
     <t>L000011687</t>
+  </si>
+  <si>
+    <t>CSCALA_1212$0000001160</t>
+  </si>
+  <si>
+    <t>G000001180</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051475</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80L35002 SPICE Carve Out</t>
+  </si>
+  <si>
+    <t>G000000201</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006502992082</t>
+  </si>
+  <si>
+    <t>G000001356</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$ITD_IT1</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CSCALA_1022$ITS_IT5</t>
+  </si>
+  <si>
+    <t>G000000895</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOFCCHXPR89</t>
+  </si>
+  <si>
+    <t>H000003682</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCGVPR60</t>
+  </si>
+  <si>
+    <t>H000003683</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR75</t>
+  </si>
+  <si>
+    <t>H000003680</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR76</t>
+  </si>
+  <si>
+    <t>H000003681</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCEXPR51</t>
+  </si>
+  <si>
+    <t>H000004360</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMVPTXPR85</t>
+  </si>
+  <si>
+    <t>H000003678</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMVPLXPR73</t>
+  </si>
+  <si>
+    <t>H000003675</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMCCIXPR90</t>
+  </si>
+  <si>
+    <t>H000003679</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR01</t>
+  </si>
+  <si>
+    <t>H000003674</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR78</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR71</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR74</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVBXPR80</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR78</t>
+  </si>
+  <si>
+    <t>H000003676</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR72</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR73</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR74</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR84</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR50</t>
+  </si>
+  <si>
+    <t>PTEMPNA_US201PIOMEVAXPR81</t>
   </si>
 </sst>
 </file>
@@ -1147,9 +1270,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1167,25 +1292,233 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AAF4B6-4B33-4E0D-9003-C6180727FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888C987-9100-47B8-85CD-97F3CC20712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,145 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_ROW$$$$0000091825 </t>
+    <t>CSCALA_1759$PRLS</t>
   </si>
   <si>
-    <t>L000008315</t>
+    <t>L000008966</t>
   </si>
   <si>
-    <t xml:space="preserve">CFLTFLE_2373COS </t>
+    <t>CSCALA_1759$VOAL</t>
   </si>
   <si>
-    <t>L000013154</t>
+    <t>L000008965</t>
   </si>
   <si>
-    <t xml:space="preserve">CSCALA_1042$PSCE </t>
+    <t xml:space="preserve">CFLTFLE_2276891080IC </t>
   </si>
   <si>
-    <t>L000011687</t>
+    <t>L000008972</t>
   </si>
   <si>
-    <t>CSCALA_1212$0000001160</t>
+    <t xml:space="preserve">CFLTFLE_2276891082IC </t>
   </si>
   <si>
-    <t>G000001180</t>
+    <t>L000013121</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000051475</t>
+    <t>CPRJ-9820240021 BIONTECH SE BNT326</t>
   </si>
   <si>
-    <t>CTEMPNA_1000PH80L35002 SPICE Carve Out</t>
-  </si>
-  <si>
-    <t>G000000201</t>
-  </si>
-  <si>
-    <t>CEMERAL_70006502992082</t>
-  </si>
-  <si>
-    <t>G000001356</t>
-  </si>
-  <si>
-    <t>CSCALA_1022$ITD_IT1</t>
-  </si>
-  <si>
-    <t>G000000279</t>
-  </si>
-  <si>
-    <t>CSCALA_1022$ITS_IT5</t>
-  </si>
-  <si>
-    <t>G000000895</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOFCCHXPR89</t>
-  </si>
-  <si>
-    <t>H000003682</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCGVPR60</t>
-  </si>
-  <si>
-    <t>H000003683</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCEXPR75</t>
-  </si>
-  <si>
-    <t>H000003680</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCEXPR76</t>
-  </si>
-  <si>
-    <t>H000003681</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCEXPR51</t>
-  </si>
-  <si>
-    <t>H000004360</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMVPTXPR85</t>
-  </si>
-  <si>
-    <t>H000003678</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMVPLXPR73</t>
-  </si>
-  <si>
-    <t>H000003675</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCIXPR90</t>
-  </si>
-  <si>
-    <t>H000003679</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR01</t>
-  </si>
-  <si>
-    <t>H000003674</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR78</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR71</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR74</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVBXPR80</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR78</t>
-  </si>
-  <si>
-    <t>H000003676</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR72</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR73</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR74</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR84</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR50</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMEVAXPR81</t>
+    <t>L000011470</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1159,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1292,234 +1181,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888C987-9100-47B8-85CD-97F3CC20712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B89C5-036E-45FD-B7B5-7169FAFBD3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1759$PRLS</t>
+    <t>CSCALA_1022$ITN_IT4</t>
   </si>
   <si>
-    <t>L000008966</t>
+    <t>G000000277</t>
   </si>
   <si>
-    <t>CSCALA_1759$VOAL</t>
+    <t>CSCALA_1022$ITS_T01</t>
   </si>
   <si>
-    <t>L000008965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2276891080IC </t>
-  </si>
-  <si>
-    <t>L000008972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_2276891082IC </t>
-  </si>
-  <si>
-    <t>L000013121</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240021 BIONTECH SE BNT326</t>
-  </si>
-  <si>
-    <t>L000011470</t>
+    <t>G000000895</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,30 +1177,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B89C5-036E-45FD-B7B5-7169FAFBD3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B83163-B09A-473C-9BBD-65EA37651941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1022$ITN_IT4</t>
+    <t>CFLTFLE_22450000002737</t>
   </si>
   <si>
-    <t>G000000277</t>
+    <t>L000013461</t>
   </si>
   <si>
-    <t>CSCALA_1022$ITS_T01</t>
+    <t>CFLTFLE_22450000002763</t>
   </si>
   <si>
-    <t>G000000895</t>
+    <t>L000013151</t>
   </si>
 </sst>
 </file>
@@ -1143,9 +1143,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B83163-B09A-473C-9BBD-65EA37651941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C97A6B-3502-41D8-873F-74D8A092E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$2</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_22450000002737</t>
-  </si>
-  <si>
-    <t>L000013461</t>
-  </si>
-  <si>
-    <t>CFLTFLE_22450000002763</t>
-  </si>
-  <si>
-    <t>L000013151</t>
+    <t>D00118900000000 Ultra-High Purity Colloidal Silica PD Su</t>
+  </si>
+  <si>
+    <t>P000001013</t>
+  </si>
+  <si>
+    <t>D00123000000000 Optiplane 2260</t>
+  </si>
+  <si>
+    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
+  </si>
+  <si>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>D00123300000000 Str Partnership IMEC TFM Share</t>
+  </si>
+  <si>
+    <t>P000001012</t>
+  </si>
+  <si>
+    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
+  </si>
+  <si>
+    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
+  </si>
+  <si>
+    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
+  </si>
+  <si>
+    <t>RD210008 Advanced particle characterization</t>
+  </si>
+  <si>
+    <t>RD242007 HPD8700 for Micron HBM CMP</t>
   </si>
 </sst>
 </file>
@@ -1141,9 +1165,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1172,7 +1198,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C97A6B-3502-41D8-873F-74D8A092E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6EE72-29A6-46AF-AAE4-F972947DA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="3405" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +48,25 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00118900000000 Ultra-High Purity Colloidal Silica PD Su</t>
+    <t xml:space="preserve">CORAERP_MMOR1945.J5XX </t>
   </si>
   <si>
-    <t>P000001013</t>
+    <t>L000007346</t>
   </si>
   <si>
-    <t>D00123000000000 Optiplane 2260</t>
+    <t xml:space="preserve">CORAERP_MMOR1975.P1BR </t>
   </si>
   <si>
-    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
+    <t>L000007433</t>
   </si>
   <si>
-    <t>P000001016</t>
+    <t xml:space="preserve">CORAERP_MMOR1975.P1VP </t>
   </si>
   <si>
-    <t>D00123300000000 Str Partnership IMEC TFM Share</t>
+    <t xml:space="preserve">CFLTFLE_2373ICO </t>
   </si>
   <si>
-    <t>P000001012</t>
-  </si>
-  <si>
-    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
-  </si>
-  <si>
-    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
-  </si>
-  <si>
-    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
-  </si>
-  <si>
-    <t>RD210008 Advanced particle characterization</t>
-  </si>
-  <si>
-    <t>RD242007 HPD8700 for Micron HBM CMP</t>
+    <t>L000013154</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,15 +1183,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,46 +1200,6 @@
       </c>
       <c r="B5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6EE72-29A6-46AF-AAE4-F972947DA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47925751-1B8E-4C42-861A-B7053C052386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="2055" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$2</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,25 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.J5XX </t>
+    <t>CNOW_7210$$$0000020259 STL SAFC BROADWAY BUILDING</t>
   </si>
   <si>
-    <t>L000007346</t>
+    <t>CNOW_7210$$$0000040415 MWK RS PLANNING &amp; SCHEDULING</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.P1BR </t>
+    <t>CNOW_7210$$$0000040534 Food Safety North America</t>
   </si>
   <si>
-    <t>L000007433</t>
+    <t>CORAERP_MMOR1975.5093 Bulk, Custom, LDA Product Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.P1VP </t>
+    <t>D30010400000000 R&amp;D project expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">CFLTFLE_2373ICO </t>
+    <t>CPHOENX_01010000669760 IP Sale Darmstadt Production for MagPrep</t>
   </si>
   <si>
-    <t>L000013154</t>
+    <t>L000013772</t>
+  </si>
+  <si>
+    <t>L000010182</t>
+  </si>
+  <si>
+    <t>L000005724</t>
+  </si>
+  <si>
+    <t>L000005926</t>
+  </si>
+  <si>
+    <t>L000013318</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1162,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1175,31 +1187,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47925751-1B8E-4C42-861A-B7053C052386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5972DA-FCBE-47B4-BCB4-16D577CB08E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Object</t>
   </si>
@@ -79,6 +79,75 @@
   </si>
   <si>
     <t>L000013318</t>
+  </si>
+  <si>
+    <t>D00123500000000 AP5008</t>
+  </si>
+  <si>
+    <t>P000001013</t>
+  </si>
+  <si>
+    <t>D00118900000000 Ultra-High Purity Colloidal Silica PD Su</t>
+  </si>
+  <si>
+    <t>D00123000000000 Optiplane 2260</t>
+  </si>
+  <si>
+    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
+  </si>
+  <si>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>D00123300000000 Str Partnership IMEC TFM Share</t>
+  </si>
+  <si>
+    <t>P000001012</t>
+  </si>
+  <si>
+    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
+  </si>
+  <si>
+    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
+  </si>
+  <si>
+    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
+  </si>
+  <si>
+    <t>RD210008 Advanced particle characterization</t>
+  </si>
+  <si>
+    <t>RD242007 HPD8700 for Micron HBM CMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000604520 </t>
+  </si>
+  <si>
+    <t>L000010145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000604540 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHOENX_01010000604530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.4147 </t>
+  </si>
+  <si>
+    <t>L000009822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEMPEU_001300003829 </t>
+  </si>
+  <si>
+    <t>L000013174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.SMQA </t>
+  </si>
+  <si>
+    <t>L000006414</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1231,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1184,49 +1253,177 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5972DA-FCBE-47B4-BCB4-16D577CB08E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FE9AE-0199-4771-A677-5CCBF927D5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Object</t>
   </si>
@@ -48,106 +48,85 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000020259 STL SAFC BROADWAY BUILDING</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040415 MWK RS PLANNING &amp; SCHEDULING</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040534 Food Safety North America</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.5093 Bulk, Custom, LDA Product Marketing</t>
-  </si>
-  <si>
-    <t>D30010400000000 R&amp;D project expenses</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000669760 IP Sale Darmstadt Production for MagPrep</t>
-  </si>
-  <si>
-    <t>L000013772</t>
-  </si>
-  <si>
-    <t>L000010182</t>
-  </si>
-  <si>
-    <t>L000005724</t>
-  </si>
-  <si>
-    <t>L000005926</t>
-  </si>
-  <si>
-    <t>L000013318</t>
-  </si>
-  <si>
-    <t>D00123500000000 AP5008</t>
-  </si>
-  <si>
-    <t>P000001013</t>
-  </si>
-  <si>
-    <t>D00118900000000 Ultra-High Purity Colloidal Silica PD Su</t>
-  </si>
-  <si>
-    <t>D00123000000000 Optiplane 2260</t>
-  </si>
-  <si>
-    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
-  </si>
-  <si>
-    <t>P000001016</t>
-  </si>
-  <si>
-    <t>D00123300000000 Str Partnership IMEC TFM Share</t>
-  </si>
-  <si>
-    <t>P000001012</t>
-  </si>
-  <si>
-    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
-  </si>
-  <si>
-    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
-  </si>
-  <si>
-    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
-  </si>
-  <si>
-    <t>RD210008 Advanced particle characterization</t>
-  </si>
-  <si>
-    <t>RD242007 HPD8700 for Micron HBM CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000604520 </t>
-  </si>
-  <si>
-    <t>L000010145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000604540 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHOENX_01010000604530 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.4147 </t>
-  </si>
-  <si>
-    <t>L000009822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEMPEU_001300003829 </t>
-  </si>
-  <si>
-    <t>L000013174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.SMQA </t>
-  </si>
-  <si>
-    <t>L000006414</t>
+    <t>D00119900000000 OT R&amp;D IC Charge</t>
+  </si>
+  <si>
+    <t>P000001243</t>
+  </si>
+  <si>
+    <t>D00120100000000 DPM R&amp;D IC Charge</t>
+  </si>
+  <si>
+    <t>P000001209</t>
+  </si>
+  <si>
+    <t>D00120500000000 General OLED R&amp;D</t>
+  </si>
+  <si>
+    <t>P000001239</t>
+  </si>
+  <si>
+    <t>D00120600000000 HTM Development</t>
+  </si>
+  <si>
+    <t>P000001235</t>
+  </si>
+  <si>
+    <t>D00120700000000 TMM Research &amp; Development</t>
+  </si>
+  <si>
+    <t>P000001236</t>
+  </si>
+  <si>
+    <t>D00121500000000 OLED R&amp;D CrossCharge</t>
+  </si>
+  <si>
+    <t>P000001222</t>
+  </si>
+  <si>
+    <t>D00121600000000 OT R&amp;D CrossCharge</t>
+  </si>
+  <si>
+    <t>D00121800000000 DPM R&amp;D CrossCharge</t>
+  </si>
+  <si>
+    <t>D00123600000000 LGD-OLED-mobile-RSP</t>
+  </si>
+  <si>
+    <t>P000001232</t>
+  </si>
+  <si>
+    <t>D00123700000000 LGD-OLED-mobile-RSP</t>
+  </si>
+  <si>
+    <t>D00123800000000 LGD-OLED-TV-WBE-B9</t>
+  </si>
+  <si>
+    <t>D00123900000000 LGD-OLED-TV-WBE-B9</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$LSRG_P19</t>
+  </si>
+  <si>
+    <t>L000008494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1042$LWSP </t>
+  </si>
+  <si>
+    <t>L000008495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70007001584396 </t>
+  </si>
+  <si>
+    <t>L000007703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1968.LLPD </t>
+  </si>
+  <si>
+    <t>L000013188</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,178 +1232,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FE9AE-0199-4771-A677-5CCBF927D5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F4AB9-7910-4E56-A55F-AB82D6F6CCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,85 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00119900000000 OT R&amp;D IC Charge</t>
+    <t>CSCALA_1786$704_114</t>
   </si>
   <si>
-    <t>P000001243</t>
+    <t>H000000965</t>
   </si>
   <si>
-    <t>D00120100000000 DPM R&amp;D IC Charge</t>
+    <t>CSCALA_1786$704_116</t>
   </si>
   <si>
-    <t>P000001209</t>
+    <t>CSCALA_1786$0000000704 3110250000 Internal sales service expenses/BF-Y1; Adjustment</t>
   </si>
   <si>
-    <t>D00120500000000 General OLED R&amp;D</t>
+    <t>CTEMPLA_1000UY10010031 Customer Service</t>
   </si>
   <si>
-    <t>P000001239</t>
-  </si>
-  <si>
-    <t>D00120600000000 HTM Development</t>
-  </si>
-  <si>
-    <t>P000001235</t>
-  </si>
-  <si>
-    <t>D00120700000000 TMM Research &amp; Development</t>
-  </si>
-  <si>
-    <t>P000001236</t>
-  </si>
-  <si>
-    <t>D00121500000000 OLED R&amp;D CrossCharge</t>
-  </si>
-  <si>
-    <t>P000001222</t>
-  </si>
-  <si>
-    <t>D00121600000000 OT R&amp;D CrossCharge</t>
-  </si>
-  <si>
-    <t>D00121800000000 DPM R&amp;D CrossCharge</t>
-  </si>
-  <si>
-    <t>D00123600000000 LGD-OLED-mobile-RSP</t>
-  </si>
-  <si>
-    <t>P000001232</t>
-  </si>
-  <si>
-    <t>D00123700000000 LGD-OLED-mobile-RSP</t>
-  </si>
-  <si>
-    <t>D00123800000000 LGD-OLED-TV-WBE-B9</t>
-  </si>
-  <si>
-    <t>D00123900000000 LGD-OLED-TV-WBE-B9</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$LSRG_P19</t>
-  </si>
-  <si>
-    <t>L000008494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1042$LWSP </t>
-  </si>
-  <si>
-    <t>L000008495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70007001584396 </t>
-  </si>
-  <si>
-    <t>L000007703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1968.LLPD </t>
-  </si>
-  <si>
-    <t>L000013188</t>
+    <t>H000000598</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,119 +1180,23 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F4AB9-7910-4E56-A55F-AB82D6F6CCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC5885-C59F-4939-BB8B-39506496E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="35250" yWindow="2670" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,100 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1786$704_114</t>
-  </si>
-  <si>
-    <t>H000000965</t>
-  </si>
-  <si>
-    <t>CSCALA_1786$704_116</t>
-  </si>
-  <si>
-    <t>CSCALA_1786$0000000704 3110250000 Internal sales service expenses/BF-Y1; Adjustment</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000UY10010031 Customer Service</t>
-  </si>
-  <si>
-    <t>H000000598</t>
+    <t>CTEMPNA_1000US12MBHR01</t>
+  </si>
+  <si>
+    <t>G000000199</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US12MBPO01</t>
+  </si>
+  <si>
+    <t>G000000218</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US12MBSGSD</t>
+  </si>
+  <si>
+    <t>G000001181</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000CA20MBSGSD</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US30MBSGSD</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US20MBSGSD</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000US15MBSGSD</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$CFO CFO COST CHARGING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000000637 </t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000PL80GFO018 ABP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001174 </t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07DB3307 PM Fleet Deprec</t>
+  </si>
+  <si>
+    <t>P000000923</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR07DB3305 AM Fleet Deprec</t>
+  </si>
+  <si>
+    <t>P000000805</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3015 NA PM WF6 Fleet</t>
+  </si>
+  <si>
+    <t>P000000932</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3018 NA Distribution</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3019 NA Distribution</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$US10DB3010 NA AM Fleet</t>
+  </si>
+  <si>
+    <t>P000000818</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR16DB3301 Fleet Depreciation</t>
+  </si>
+  <si>
+    <t>P000000905</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3300 PM NH3 Fleet Deprec</t>
+  </si>
+  <si>
+    <t>P000000914</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3302 PM NF3 Fleet Deprec</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$KR15DB3307 AM Fleet Depreciation</t>
+  </si>
+  <si>
+    <t>CVRSM_VMCA$$TW10DB3302 Taiwan PM Fleet</t>
+  </si>
+  <si>
+    <t>P000000943</t>
   </si>
 </sst>
 </file>
@@ -1147,11 +1225,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1180,23 +1256,151 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC5885-C59F-4939-BB8B-39506496E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6EB29-8845-4EF7-8F84-3110FD690F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="2670" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="5070" yWindow="3150" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,100 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPNA_1000US12MBHR01</t>
+    <t>P000001013</t>
   </si>
   <si>
-    <t>G000000199</t>
+    <t>P000001016</t>
   </si>
   <si>
-    <t>CTEMPNA_1000US12MBPO01</t>
+    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
   </si>
   <si>
-    <t>G000000218</t>
+    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
   </si>
   <si>
-    <t>CTEMPNA_1000US12MBSGSD</t>
+    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
   </si>
   <si>
-    <t>G000001181</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000CA20MBSGSD</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US30MBSGSD</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US20MBSGSD</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000US15MBSGSD</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$CFO CFO COST CHARGING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000637 </t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000PL80GFO018 ABP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001174 </t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR07DB3307 PM Fleet Deprec</t>
-  </si>
-  <si>
-    <t>P000000923</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR07DB3305 AM Fleet Deprec</t>
-  </si>
-  <si>
-    <t>P000000805</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10DB3015 NA PM WF6 Fleet</t>
-  </si>
-  <si>
-    <t>P000000932</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10DB3018 NA Distribution</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10DB3019 NA Distribution</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$US10DB3010 NA AM Fleet</t>
-  </si>
-  <si>
-    <t>P000000818</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR16DB3301 Fleet Depreciation</t>
-  </si>
-  <si>
-    <t>P000000905</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR15DB3300 PM NH3 Fleet Deprec</t>
-  </si>
-  <si>
-    <t>P000000914</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR15DB3302 PM NF3 Fleet Deprec</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$KR15DB3307 AM Fleet Depreciation</t>
-  </si>
-  <si>
-    <t>CVRSM_VMCA$$TW10DB3302 Taiwan PM Fleet</t>
-  </si>
-  <si>
-    <t>P000000943</t>
+    <t>RD210008 Advanced particle characterization</t>
   </si>
 </sst>
 </file>
@@ -1225,9 +1147,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1245,18 +1169,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,143 +1188,15 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6EB29-8845-4EF7-8F84-3110FD690F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8C081-885C-4E63-99EE-7DE6CCC55417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3150" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>P000001013</t>
+    <t>CEMERAL_70006101P13202 PS APAC Commercial</t>
   </si>
   <si>
-    <t>P000001016</t>
-  </si>
-  <si>
-    <t>D00123200000000 Adv Pkg CMP (1501-50 BOOST)</t>
-  </si>
-  <si>
-    <t>D00115200000000 Ultra-High Purity Colloidal Silica</t>
-  </si>
-  <si>
-    <t>DP000005000000 DP1284 high-rate Cu bulk slurry for TI</t>
-  </si>
-  <si>
-    <t>RD210008 Advanced particle characterization</t>
+    <t>L000006770</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1135,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1169,33 +1157,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8C081-885C-4E63-99EE-7DE6CCC55417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF4854E-5E6C-4D49-B769-19C314FCA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006101P13202 PS APAC Commercial</t>
-  </si>
-  <si>
-    <t>L000006770</t>
+    <t xml:space="preserve">CNOW_7210$$$0000020058 </t>
+  </si>
+  <si>
+    <t>L000013800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020057 </t>
+  </si>
+  <si>
+    <t>L000013802</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$P551015412</t>
+  </si>
+  <si>
+    <t>L000009473</t>
+  </si>
+  <si>
+    <t>D30011400000000 PES Concentration Device Family</t>
+  </si>
+  <si>
+    <t>L000009196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000051458 </t>
+  </si>
+  <si>
+    <t>L000013391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEMERAL_000009101239 </t>
+  </si>
+  <si>
+    <t>L000009306</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1191,46 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF4854E-5E6C-4D49-B769-19C314FCA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB52FE-40D7-4E6B-8A0F-12A26F0FDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="5835" yWindow="3780" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020058 </t>
+    <t>CTEMPLA_1000PE10170105 Fertility Reimbursement</t>
   </si>
   <si>
-    <t>L000013800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020057 </t>
-  </si>
-  <si>
-    <t>L000013802</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$P551015412</t>
-  </si>
-  <si>
-    <t>L000009473</t>
-  </si>
-  <si>
-    <t>D30011400000000 PES Concentration Device Family</t>
-  </si>
-  <si>
-    <t>L000009196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000051458 </t>
-  </si>
-  <si>
-    <t>L000013391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEMERAL_000009101239 </t>
-  </si>
-  <si>
-    <t>L000009306</t>
+    <t>H000000340</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,46 +1161,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB52FE-40D7-4E6B-8A0F-12A26F0FDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B16A271-D082-4D16-AD0C-DB70F3654891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3780" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPLA_1000PE10170105 Fertility Reimbursement</t>
+    <t>RD242006 Shushan in-house Ce for STI slurry</t>
   </si>
   <si>
-    <t>H000000340</t>
+    <t>P000001016</t>
+  </si>
+  <si>
+    <t>CPRJ-9820240010 MA8 T228 6828a Payload Synthesis</t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1042$LSCC </t>
+  </si>
+  <si>
+    <t>L000008471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70007001184363 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLTFLE_1044LSCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMERAL_70006302991410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCALA_1042$RARE </t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1159,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1161,6 +1185,54 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B16A271-D082-4D16-AD0C-DB70F3654891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A08A7-5A2F-46FE-98D3-36F697A4AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +48,88 @@
     <t>Node</t>
   </si>
   <si>
-    <t>RD242006 Shushan in-house Ce for STI slurry</t>
-  </si>
-  <si>
-    <t>P000001016</t>
-  </si>
-  <si>
-    <t>CPRJ-9820240010 MA8 T228 6828a Payload Synthesis</t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1042$LSCC </t>
-  </si>
-  <si>
-    <t>L000008471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70007001184363 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFLTFLE_1044LSCL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMERAL_70006302991410 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSCALA_1042$RARE </t>
+    <t>CFLTFLE_10550000002580 Facilities and building charge out</t>
+  </si>
+  <si>
+    <t>H000000325</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000TR10MS4214 52-Promo Marketing</t>
+  </si>
+  <si>
+    <t>H000000319</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181TN5013200 BAVENCIO promotion costs GL</t>
+  </si>
+  <si>
+    <t>H000000262</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5010203 SP PROM MAT-KW-FERT</t>
+  </si>
+  <si>
+    <t>H000002969</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5010205 SP PROM MAT-QA-FERT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5030504 SP REG-EA-FERT</t>
+  </si>
+  <si>
+    <t>H000000277</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201MA5013216 Sponsorship ISIVIF (SMMR)</t>
+  </si>
+  <si>
+    <t>H000000286</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN5013226 Algeria congresses and events</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201TN6013206 CongrèsnationaldelaSTGOFertilityBiotTN</t>
+  </si>
+  <si>
+    <t>H000000318</t>
+  </si>
+  <si>
+    <t>PLEAN_X310211TN5010200 Hébérgement Atlas de reproduction assist</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5015207 SP PROM OTHERS-BH-DIAB</t>
+  </si>
+  <si>
+    <t>H000002963</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301AE5030504 SP REG-EA-DIAB</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301EG5010216 B4 Commercial-EG-Pro. material-Print M.</t>
+  </si>
+  <si>
+    <t>H000002944</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301TN5013212 ROUND TABLE &amp; STAFFS</t>
+  </si>
+  <si>
+    <t>H000000258</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511MA5013214 PHEW: special edition</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511TN5013225 branding : mavenchat</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511TN5030200 X.310511.TN50.30.200</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511TN6013204 Journée ANST</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,31 +1262,119 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A08A7-5A2F-46FE-98D3-36F697A4AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BB9D9-E9C3-4222-BAF0-FD3BF3F5ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Object</t>
   </si>
@@ -48,88 +48,58 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_10550000002580 Facilities and building charge out</t>
-  </si>
-  <si>
-    <t>H000000325</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000TR10MS4214 52-Promo Marketing</t>
-  </si>
-  <si>
-    <t>H000000319</t>
-  </si>
-  <si>
-    <t>PLEAN_X310181TN5013200 BAVENCIO promotion costs GL</t>
-  </si>
-  <si>
-    <t>H000000262</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5010203 SP PROM MAT-KW-FERT</t>
-  </si>
-  <si>
-    <t>H000002969</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5010205 SP PROM MAT-QA-FERT</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5030504 SP REG-EA-FERT</t>
-  </si>
-  <si>
-    <t>H000000277</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201MA5013216 Sponsorship ISIVIF (SMMR)</t>
-  </si>
-  <si>
-    <t>H000000286</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN5013226 Algeria congresses and events</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201TN6013206 CongrèsnationaldelaSTGOFertilityBiotTN</t>
-  </si>
-  <si>
-    <t>H000000318</t>
-  </si>
-  <si>
-    <t>PLEAN_X310211TN5010200 Hébérgement Atlas de reproduction assist</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301AE5015207 SP PROM OTHERS-BH-DIAB</t>
-  </si>
-  <si>
-    <t>H000002963</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301AE5030504 SP REG-EA-DIAB</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301EG5010216 B4 Commercial-EG-Pro. material-Print M.</t>
-  </si>
-  <si>
-    <t>H000002944</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301TN5013212 ROUND TABLE &amp; STAFFS</t>
-  </si>
-  <si>
-    <t>H000000258</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511MA5013214 PHEW: special edition</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511TN5013225 branding : mavenchat</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511TN5030200 X.310511.TN50.30.200</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511TN6013204 Journée ANST</t>
+    <t xml:space="preserve">CNOW_7210$$$0000020056 </t>
+  </si>
+  <si>
+    <t>L000013802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000010298 </t>
+  </si>
+  <si>
+    <t>L000013800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040058 </t>
+  </si>
+  <si>
+    <t>L000013803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000010344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0024063019 </t>
+  </si>
+  <si>
+    <t>L000007200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040107 </t>
+  </si>
+  <si>
+    <t>L000009797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000015562 </t>
+  </si>
+  <si>
+    <t>L000013530</t>
+  </si>
+  <si>
+    <t>CNOW_AUS0$$$0000092059</t>
+  </si>
+  <si>
+    <t>L000011879</t>
+  </si>
+  <si>
+    <t>CNOW_ROW$$$$0000091828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000059962 </t>
+  </si>
+  <si>
+    <t>L000009357</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,15 +1232,15 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,15 +1264,15 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,71 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BB9D9-E9C3-4222-BAF0-FD3BF3F5ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B90E287-E59E-4A36-97BA-3CB9D303A22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Object</t>
   </si>
@@ -48,58 +48,43 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020056 </t>
-  </si>
-  <si>
-    <t>L000013802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000010298 </t>
-  </si>
-  <si>
-    <t>L000013800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040058 </t>
-  </si>
-  <si>
-    <t>L000013803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000010344 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0024063019 </t>
-  </si>
-  <si>
-    <t>L000007200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040107 </t>
-  </si>
-  <si>
-    <t>L000009797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000015562 </t>
-  </si>
-  <si>
-    <t>L000013530</t>
-  </si>
-  <si>
-    <t>CNOW_AUS0$$$0000092059</t>
-  </si>
-  <si>
-    <t>L000011879</t>
-  </si>
-  <si>
-    <t>CNOW_ROW$$$$0000091828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000059962 </t>
-  </si>
-  <si>
-    <t>L000009357</t>
+    <t>CTEMPEU_1000PL80GITL20</t>
+  </si>
+  <si>
+    <t>L000013808</t>
+  </si>
+  <si>
+    <t>CFLTFLE_17710000115500</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000NL40AD1N40</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1945.9018</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9046</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9019</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015076</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051457</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000040682</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010232</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010262</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010263</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,71 +1201,87 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B90E287-E59E-4A36-97BA-3CB9D303A22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8B751-D924-4F3D-9B42-0185C23E9DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="35730" yWindow="3525" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Object</t>
   </si>
@@ -48,43 +48,28 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPEU_1000PL80GITL20</t>
+    <t>CSCALA_1820$A064 Field Force in New Zealand</t>
   </si>
   <si>
-    <t>L000013808</t>
+    <t>H000001141</t>
   </si>
   <si>
-    <t>CFLTFLE_17710000115500</t>
+    <t xml:space="preserve">CORAERP_MMOR1975.9760 </t>
   </si>
   <si>
-    <t>CTEMPEU_1000NL40AD1N40</t>
+    <t>L000013119</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1945.9018</t>
+    <t xml:space="preserve">IPHOENX_000400753223 </t>
   </si>
   <si>
-    <t>CORAERP_MMOR1975.9046</t>
+    <t>L000011242</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1975.9019</t>
+    <t>CORAERP_MMO$R1975.CXHQ</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000015076</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051457</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000040682</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010232</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010262</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010263</t>
+    <t>L000011157</t>
   </si>
 </sst>
 </file>
@@ -1168,11 +1153,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1201,87 +1184,23 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8B751-D924-4F3D-9B42-0185C23E9DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CEE8BD-0A41-471F-BDB8-3FBFECEA5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35730" yWindow="3525" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Object</t>
   </si>
@@ -48,28 +48,190 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1820$A064 Field Force in New Zealand</t>
-  </si>
-  <si>
-    <t>H000001141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.9760 </t>
-  </si>
-  <si>
-    <t>L000013119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPHOENX_000400753223 </t>
-  </si>
-  <si>
-    <t>L000011242</t>
-  </si>
-  <si>
-    <t>CORAERP_MMO$R1975.CXHQ</t>
-  </si>
-  <si>
-    <t>L000011157</t>
+    <t>CNOW_7210$$$0000015104 DE RS Administration Steinheim</t>
+  </si>
+  <si>
+    <t>L000012426</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015304 DE RS Inbound-Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015305 DE RS Workshop Chemie GmbH</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015320 DE RS Goods In</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015350 DE RS Inventory-Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015355 DE RS EHS</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015360 DE RS waste</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015404 DE RS Dispatch - Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015504 DE RS Export-Shipping-Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015520 DE RS Sales Support Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015550 DE RS Quality Control</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015570 DE RS Compliance</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015600 DE SAFC Filling Station Bulk / F&amp;F</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015610 DE RS Lables &amp; Prepack Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015611 DE RS Etikettierungg</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015614 DE RS Etikettendruck</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015615 DE SAFC Food Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015620 DE RS Air Sensitive Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015710 DE RS Purchasing/Sourcing</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015919 STH MAOH CCV</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015940 STH MAOH CCV</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015941 STH TOLSO charges</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015995 DE RS SG&amp;A KG Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051910 DE SAFC Filling Station Bulk / F&amp;F</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051911 DE-PC SAFC Filling Station Bulk/F&amp;F</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051912 DE-PC RS Lables &amp; Prepack Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051914 DE-PC SAFC Food Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051915 DE-PC RS Air Sensitive Filling</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051926 DE RE CoGs Logistic - Steinheim</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051936 DE-PC RS Pilot Plant Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051937 DE BT Sigma Genosys Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052070 ICON DE 15104</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052074 ICON DE 15305</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052077 ICON DE 15550</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052078 ICON DE 15600</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052079 ICON DE 15610</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052080 ICON DE 15611</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052081 ICON DE 15614</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052082 ICON DE 15615</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052083 ICON DE 15620</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052084 ICON DE 15320</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052085 ICON DE 15350</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052086 ICON DE 15355</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052087 ICON DE 15360</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052088 ICON DE 15404</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052090 ICON DE 15570</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052093 ICON DE 15710</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052157 STH MAOH Absorption</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000052172 ICON DE 15941</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058241 STH R&amp;D Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058242 STH Lab Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058243 STH Pilot Plant Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058244 STH Poduction General</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058245 STH Oligo Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058251 STH Apprentices Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000058261 STH Other Inc/Exp Production</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051654 Payroll Vendor</t>
+  </si>
+  <si>
+    <t>G000000630</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051644 Payroll Vendor</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.2738 MBS Hub Wroclaw</t>
+  </si>
+  <si>
+    <t>G000001171</t>
   </si>
 </sst>
 </file>
@@ -1153,9 +1315,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1184,23 +1348,463 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CEE8BD-0A41-471F-BDB8-3FBFECEA5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5305C-DEE7-4B51-A9D7-E0C3E73865D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,190 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000015104 DE RS Administration Steinheim</t>
+    <t>CNOW_7210$$$0000051458</t>
   </si>
   <si>
-    <t>L000012426</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015304 DE RS Inbound-Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015305 DE RS Workshop Chemie GmbH</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015320 DE RS Goods In</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015350 DE RS Inventory-Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015355 DE RS EHS</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015360 DE RS waste</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015404 DE RS Dispatch - Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015504 DE RS Export-Shipping-Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015520 DE RS Sales Support Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015550 DE RS Quality Control</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015570 DE RS Compliance</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015600 DE SAFC Filling Station Bulk / F&amp;F</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015610 DE RS Lables &amp; Prepack Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015611 DE RS Etikettierungg</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015614 DE RS Etikettendruck</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015615 DE SAFC Food Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015620 DE RS Air Sensitive Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015710 DE RS Purchasing/Sourcing</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015919 STH MAOH CCV</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015940 STH MAOH CCV</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015941 STH TOLSO charges</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015995 DE RS SG&amp;A KG Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051910 DE SAFC Filling Station Bulk / F&amp;F</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051911 DE-PC SAFC Filling Station Bulk/F&amp;F</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051912 DE-PC RS Lables &amp; Prepack Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051914 DE-PC SAFC Food Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051915 DE-PC RS Air Sensitive Filling</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051926 DE RE CoGs Logistic - Steinheim</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051936 DE-PC RS Pilot Plant Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051937 DE BT Sigma Genosys Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052070 ICON DE 15104</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052074 ICON DE 15305</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052077 ICON DE 15550</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052078 ICON DE 15600</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052079 ICON DE 15610</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052080 ICON DE 15611</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052081 ICON DE 15614</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052082 ICON DE 15615</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052083 ICON DE 15620</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052084 ICON DE 15320</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052085 ICON DE 15350</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052086 ICON DE 15355</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052087 ICON DE 15360</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052088 ICON DE 15404</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052090 ICON DE 15570</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052093 ICON DE 15710</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052157 STH MAOH Absorption</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000052172 ICON DE 15941</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058241 STH R&amp;D Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058242 STH Lab Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058243 STH Pilot Plant Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058244 STH Poduction General</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058245 STH Oligo Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058251 STH Apprentices Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000058261 STH Other Inc/Exp Production</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051654 Payroll Vendor</t>
-  </si>
-  <si>
-    <t>G000000630</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051644 Payroll Vendor</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.2738 MBS Hub Wroclaw</t>
-  </si>
-  <si>
-    <t>G000001171</t>
+    <t>L000013808</t>
   </si>
 </sst>
 </file>
@@ -1018,9 +838,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1058,7 +878,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1164,7 +984,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1306,7 +1126,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1315,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,482 +1163,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="224"/>
     <cfRule type="duplicateValues" dxfId="3" priority="225"/>
     <cfRule type="duplicateValues" dxfId="2" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
@@ -1828,7 +1180,6 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5305C-DEE7-4B51-A9D7-E0C3E73865D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F201DE-4842-4574-A099-56E8A3C20DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000051458</t>
+    <t>CORAERP_MMOR1945.9115</t>
   </si>
   <si>
-    <t>L000013808</t>
+    <t xml:space="preserve">G000001174 </t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F201DE-4842-4574-A099-56E8A3C20DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CF1FA9-3CB8-4D16-9A2F-5F9CC9AAE4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CORAERP_MMOR1945.9115</t>
+    <t>PHOENX_0101/648610</t>
   </si>
   <si>
-    <t xml:space="preserve">G000001174 </t>
+    <t>L000013890</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/604750</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648912</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648916</t>
+  </si>
+  <si>
+    <t>L000013891</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648921</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648913</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648914</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648915</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648917</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1188,70 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CF1FA9-3CB8-4D16-9A2F-5F9CC9AAE4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CEBD0-FFDD-4458-B7DC-69B47DF71BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,37 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PHOENX_0101/648610</t>
+    <t>CITR_1000$$$1721IT041</t>
   </si>
   <si>
-    <t>L000013890</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/604750</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648912</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648916</t>
-  </si>
-  <si>
-    <t>L000013891</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648921</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648913</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648914</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648915</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648917</t>
+    <t>G000000244</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,70 +1163,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}"/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CEBD0-FFDD-4458-B7DC-69B47DF71BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794D6FE-A559-4B11-B0AA-8DB2B5EE9208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="4050" yWindow="3735" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,40 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CITR_1000$$$1721IT041</t>
-  </si>
-  <si>
-    <t>G000000244</t>
+    <t>CEMERAL_70006203991602 MM-SIAL Cross charge</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006203991606 SBS Digital Marketing &amp; Prd Mgt</t>
+  </si>
+  <si>
+    <t>CEMERAL_70006203991604 MM-SIAL Cross charge</t>
+  </si>
+  <si>
+    <t>OL000013741_I GSS - SLS (direct input)</t>
+  </si>
+  <si>
+    <t>OL000013752_I GSS - LSS (direct input)</t>
+  </si>
+  <si>
+    <t>OL000013754_I GSS - PS (direct input)</t>
+  </si>
+  <si>
+    <t>OL000013757_I GSS - ISCO (direct input)</t>
+  </si>
+  <si>
+    <t>OL000013761_I Enabling Functions GSS COE (direct input)</t>
+  </si>
+  <si>
+    <t>G000001319</t>
+  </si>
+  <si>
+    <t>G000001291</t>
+  </si>
+  <si>
+    <t>G000001295</t>
+  </si>
+  <si>
+    <t>G000000184</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1190,63 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794D6FE-A559-4B11-B0AA-8DB2B5EE9208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86479C43-B6B3-44E3-8F55-264B2818E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3735" windowWidth="20910" windowHeight="11835" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,40 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006203991602 MM-SIAL Cross charge</t>
+    <t>CPHOENX_01010000648610 CDMO mRNA Quality</t>
   </si>
   <si>
-    <t>CEMERAL_70006203991606 SBS Digital Marketing &amp; Prd Mgt</t>
+    <t>CPHOENX_01010000604750 mRNA QC Quality</t>
   </si>
   <si>
-    <t>CEMERAL_70006203991604 MM-SIAL Cross charge</t>
+    <t>CPHOENX_01010000648912 CDMO mRNA QC Hamburg</t>
   </si>
   <si>
-    <t>OL000013741_I GSS - SLS (direct input)</t>
+    <t>CPHOENX_01010000648916 CDMO mRNA Management Darmstadt/Hamburg</t>
   </si>
   <si>
-    <t>OL000013752_I GSS - LSS (direct input)</t>
+    <t>CPHOENX_01010000648921 Alloc. PPA Amptec to RPP Amort Intang</t>
   </si>
   <si>
-    <t>OL000013754_I GSS - PS (direct input)</t>
+    <t>CPHOENX_01010000648913 CDMO mRNA Engineering</t>
   </si>
   <si>
-    <t>OL000013757_I GSS - ISCO (direct input)</t>
+    <t>CPHOENX_01010000648914 CDMO mRNA Supply Chain</t>
   </si>
   <si>
-    <t>OL000013761_I Enabling Functions GSS COE (direct input)</t>
+    <t>CPHOENX_01010000648915 Site HH General &amp; EHS</t>
   </si>
   <si>
-    <t>G000001319</t>
+    <t>CPHOENX_01010000648917 CDMO mRNA IT/OT</t>
   </si>
   <si>
-    <t>G000001291</t>
+    <t>L000013824</t>
   </si>
   <si>
-    <t>G000001295</t>
-  </si>
-  <si>
-    <t>G000000184</t>
+    <t>L000013825</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1243,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86479C43-B6B3-44E3-8F55-264B2818E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CC46D-3649-48B6-ACA9-6E6B046316B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$2</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,37 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_01010000648610 CDMO mRNA Quality</t>
+    <t>CFLTFLE_2152IMIPARVR02 AR VR Pilot Line</t>
   </si>
   <si>
-    <t>CPHOENX_01010000604750 mRNA QC Quality</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648912 CDMO mRNA QC Hamburg</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648916 CDMO mRNA Management Darmstadt/Hamburg</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648921 Alloc. PPA Amptec to RPP Amort Intang</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648913 CDMO mRNA Engineering</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648914 CDMO mRNA Supply Chain</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648915 Site HH General &amp; EHS</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000648917 CDMO mRNA IT/OT</t>
-  </si>
-  <si>
-    <t>L000013824</t>
-  </si>
-  <si>
-    <t>L000013825</t>
+    <t>P000000649</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,71 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CC46D-3649-48B6-ACA9-6E6B046316B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081FFC6-F548-4B45-94AF-7029B47703AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dump!$A$1:$B$2</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"caea3f49-dfad-4101-9423-d5e90b427b0f"</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Object</t>
   </si>
@@ -48,10 +48,64 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CFLTFLE_2152IMIPARVR02 AR VR Pilot Line</t>
-  </si>
-  <si>
-    <t>P000000649</t>
+    <t>D00120400000000 SDC-OLED-IT-T2 prime</t>
+  </si>
+  <si>
+    <t>P000001233</t>
+  </si>
+  <si>
+    <t>D00124000000000 Unity-SC Cross-collaborations</t>
+  </si>
+  <si>
+    <t>P000001243</t>
+  </si>
+  <si>
+    <t>D00124200000000 CSOT-OLED-Mobile-C11</t>
+  </si>
+  <si>
+    <t>P000001229</t>
+  </si>
+  <si>
+    <t>D00124300000000 Exploration of New Ideas AR/VR</t>
+  </si>
+  <si>
+    <t>P000001252</t>
+  </si>
+  <si>
+    <t>D00124400000000 LCOS</t>
+  </si>
+  <si>
+    <t>ITEMPEU_001300003831 Exploration of new ideas AR/VR UK</t>
+  </si>
+  <si>
+    <t>D00119900000000 OT R&amp;D IC Charge</t>
+  </si>
+  <si>
+    <t>P000001266</t>
+  </si>
+  <si>
+    <t>D00121600000000 OT R&amp;D CrossCharge</t>
+  </si>
+  <si>
+    <t>D00120100000000 DPM R&amp;D IC Charge</t>
+  </si>
+  <si>
+    <t>P000001265</t>
+  </si>
+  <si>
+    <t>D00121800000000 DPM R&amp;D CrossCharge</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000UY10100019</t>
+  </si>
+  <si>
+    <t>G000000758</t>
+  </si>
+  <si>
+    <t>CTEMPLA_1000UY10100028</t>
+  </si>
+  <si>
+    <t>G000000200</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1215,94 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081FFC6-F548-4B45-94AF-7029B47703AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8219F85-92AE-495E-97FC-95759446AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,64 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t>D00120400000000 SDC-OLED-IT-T2 prime</t>
+    <t>CPHOENX_01010000642900 SAC mRNA Management Darmstadt/Hamburg</t>
   </si>
   <si>
-    <t>P000001233</t>
+    <t>L000013891</t>
   </si>
   <si>
-    <t>D00124000000000 Unity-SC Cross-collaborations</t>
+    <t>D00124100000000 DSA JDP with IMEC</t>
   </si>
   <si>
-    <t>P000001243</t>
+    <t>P000001015</t>
   </si>
   <si>
-    <t>D00124200000000 CSOT-OLED-Mobile-C11</t>
+    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
   </si>
   <si>
-    <t>P000001229</t>
+    <t>P000001016</t>
   </si>
   <si>
-    <t>D00124300000000 Exploration of New Ideas AR/VR</t>
+    <t>CTEMPEU_1000PL80L30009 SPICE Carve Out</t>
   </si>
   <si>
-    <t>P000001252</t>
+    <t>P000001207</t>
   </si>
   <si>
-    <t>D00124400000000 LCOS</t>
+    <t>CTEMPLA_1000UY10100044 SPICE Carve Out</t>
   </si>
   <si>
-    <t>ITEMPEU_001300003831 Exploration of new ideas AR/VR UK</t>
+    <t>CFLTFLE_1044PMSP Project SPICE</t>
   </si>
   <si>
-    <t>D00119900000000 OT R&amp;D IC Charge</t>
-  </si>
-  <si>
-    <t>P000001266</t>
-  </si>
-  <si>
-    <t>D00121600000000 OT R&amp;D CrossCharge</t>
-  </si>
-  <si>
-    <t>D00120100000000 DPM R&amp;D IC Charge</t>
-  </si>
-  <si>
-    <t>P000001265</t>
-  </si>
-  <si>
-    <t>D00121800000000 DPM R&amp;D CrossCharge</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000UY10100019</t>
-  </si>
-  <si>
-    <t>G000000758</t>
-  </si>
-  <si>
-    <t>CTEMPLA_1000UY10100028</t>
-  </si>
-  <si>
-    <t>G000000200</t>
+    <t>P000001201</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,55 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8219F85-92AE-495E-97FC-95759446AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF8723-0C0F-45E9-BD11-8257BD3F338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -48,37 +48,34 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CPHOENX_01010000642900 SAC mRNA Management Darmstadt/Hamburg</t>
+    <t>CTEMPEU_1000PL80860000 ONE LS ERP - MBS Finance reclass</t>
   </si>
   <si>
-    <t>L000013891</t>
+    <t xml:space="preserve">L000013801 </t>
   </si>
   <si>
-    <t>D00124100000000 DSA JDP with IMEC</t>
+    <t>CTEMPNA_1000PH80860000 ONE LS ERP - MBS Finance reclass</t>
   </si>
   <si>
-    <t>P000001015</t>
+    <t>CNOW_7210$$$0000010298 ONE LS ERP - Quality</t>
   </si>
   <si>
-    <t>DP000010000000 Cu3886 low dishing low defect Cu Bulk Sl</t>
+    <t>L000013802</t>
   </si>
   <si>
-    <t>P000001016</t>
+    <t>CNOW_7210$$$0000052114 T&amp;E - other LS ERP</t>
   </si>
   <si>
-    <t>CTEMPEU_1000PL80L30009 SPICE Carve Out</t>
+    <t>L000013798</t>
   </si>
   <si>
-    <t>P000001207</t>
+    <t>CPHOENX_01010000860002 T&amp;E - other LS ERP</t>
   </si>
   <si>
-    <t>CTEMPLA_1000UY10100044 SPICE Carve Out</t>
+    <t>CNOW_7210$$$0000010584 T&amp;E - other LS ERP</t>
   </si>
   <si>
-    <t>CFLTFLE_1044PMSP Project SPICE</t>
-  </si>
-  <si>
-    <t>P000001201</t>
+    <t>CORAERP_MMOR1975.9945 9945 IT T&amp;E - other ERP projects</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,39 +1192,47 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF8723-0C0F-45E9-BD11-8257BD3F338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6B3BC-E6CC-437F-9B88-9D7B90D1FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Object</t>
   </si>
@@ -48,34 +48,22 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CTEMPEU_1000PL80860000 ONE LS ERP - MBS Finance reclass</t>
+    <t>PTEMPNA_US201PIOMEVCXPR01</t>
   </si>
   <si>
-    <t xml:space="preserve">L000013801 </t>
+    <t>H000003686</t>
   </si>
   <si>
-    <t>CTEMPNA_1000PH80860000 ONE LS ERP - MBS Finance reclass</t>
+    <t>PTEMPNA_US201PIOMCCGVPR01</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000010298 ONE LS ERP - Quality</t>
+    <t>H000003684</t>
   </si>
   <si>
-    <t>L000013802</t>
+    <t>PTEMPNA_US201PIOMCCGVPR00</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000052114 T&amp;E - other LS ERP</t>
-  </si>
-  <si>
-    <t>L000013798</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000860002 T&amp;E - other LS ERP</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010584 T&amp;E - other LS ERP</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9945 9945 IT T&amp;E - other ERP projects</t>
+    <t>PTEMPNA_US201PIOMCCGVPR02</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,15 +1180,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,31 +1196,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6B3BC-E6CC-437F-9B88-9D7B90D1FFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCE188-B07B-431E-8EFE-1BD17E5E03C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Object</t>
   </si>
@@ -48,22 +48,226 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PTEMPNA_US201PIOMEVCXPR01</t>
-  </si>
-  <si>
-    <t>H000003686</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCGVPR01</t>
-  </si>
-  <si>
-    <t>H000003684</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCGVPR00</t>
-  </si>
-  <si>
-    <t>PTEMPNA_US201PIOMCCGVPR02</t>
+    <t>PLEAN_X310001CN5013611 SIT COM C&amp;E Pimi Blue paper</t>
+  </si>
+  <si>
+    <t>H000001595</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5013351 ERB COM C&amp;E Market access for Sales team</t>
+  </si>
+  <si>
+    <t>H000001419</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5013352 ERB COM C&amp;E Market access for Sales team</t>
+  </si>
+  <si>
+    <t>PLEAN_X310101CN5013610 ERB COM C&amp;E BioS differentiation</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015001 O59 COM PROM OTH 影像科调研(biomarker)</t>
+  </si>
+  <si>
+    <t>H000004390</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015002 O59 COM PROM OTH Disease awarenees -人民日报</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015003 O59 COM PROM OTH Disease awarenees -患者组织</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015004 O59 COM PROM OTH Paitents story (wording</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015005 O59 COM PROM OTH Pimi白皮书-患者对疾病认知的调研</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015006 O59 COM PROM OTH Market Research-TGCT Tr</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015500 O59 COM PROM OTH Global funding-Pimi</t>
+  </si>
+  <si>
+    <t>PLEAN_X310112CN5023302 O59 MED MED OTH TGCT Medical Activities</t>
+  </si>
+  <si>
+    <t>H000004392</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5010271 FD COM PROM Fewer and Complete campaign</t>
+  </si>
+  <si>
+    <t>H000001491</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5011201 FD COM ADV Gonal-f 30 years</t>
+  </si>
+  <si>
+    <t>H000001487</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013372 FD COM C&amp;E Better Campaign</t>
+  </si>
+  <si>
+    <t>H000001489</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013373 FD COM C&amp;E Bridge Campaign</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013374 FD COM C&amp;E Project Future</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013375 FD COM C&amp;E Hand in hand campaign</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013376 FD COM C&amp;E Fertility preservation</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5013609 FD COM C&amp;E 辅助生殖十五五规划研究/立法研究</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015307 FD COM PROM OTH 国药诚信数据</t>
+  </si>
+  <si>
+    <t>H000001486</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015308 FD COM PROM OTH Localization of ONE</t>
+  </si>
+  <si>
+    <t>H000001484</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015309 FD COM PROM OTH Localization of IVF Pro</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015310 FD COM PROM OTH Localization of PJOS</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015311 FD COM PROM OTH Localization of PIVOT</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015312 FD COM PROM OTH Implementation of local</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CN5015313 FD COM PROM OTH Early access &amp; GMA relat</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202CN5020339 FD MED MED EDU COS guideline</t>
+  </si>
+  <si>
+    <t>H000001517</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202CN5020340 FD MED MED EDU 科研系列交流会</t>
+  </si>
+  <si>
+    <t>PLEAN_X310202CN5023641 FD MED MED OTH RA Gonal-f 150&amp;300&amp;450IU</t>
+  </si>
+  <si>
+    <t>H000001521</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303CN5020256 DIA R&amp;D MED EDU in depth interview</t>
+  </si>
+  <si>
+    <t>H000001505</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303CN5020257 DIA R&amp;D MED EDU DB digital MSL  program</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303CN5020508 DIA R&amp;D MED EDU MA Diabetes congress-off</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303CN5020509 DIA R&amp;D MED EDU MA Diabetes congress-onl</t>
+  </si>
+  <si>
+    <t>PLEAN_X310303CN5023617 DIA R&amp;D MED OTH RA GIR renewal</t>
+  </si>
+  <si>
+    <t>H000001507</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323CN5020257 CAR R&amp;D MED EDU CV digital  MSL program</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323CN5020507 CAR R&amp;D MED EDU CV MA meeting- online</t>
+  </si>
+  <si>
+    <t>PLEAN_X310323CN5020823 CAR R&amp;D MED EDU CV MSL 3rd party regiona</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331CN5013608 THY COM C&amp;E Community Thyriods Eco-syste</t>
+  </si>
+  <si>
+    <t>PLEAN_X310331CN5015210 Hotspot Region Support Project</t>
+  </si>
+  <si>
+    <t>H000001382</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333CN5020821 THY R&amp;D MED EDU TD 3rd party meetings</t>
+  </si>
+  <si>
+    <t>PLEAN_X310333CN5020822 THY R&amp;D MED EDU TD funding</t>
+  </si>
+  <si>
+    <t>PLEAN_X310941CN5015308 TEP COM PROM OTH ONC TT NRDL</t>
+  </si>
+  <si>
+    <t>H000004119</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BISS_S00</t>
+  </si>
+  <si>
+    <t>H000000423</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$BISS_S30</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_C96</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_D11</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_F98</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSMS_W09</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_E98</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_I56</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$MSPM_T96</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ONPM_O33</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ONPM_W59</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$ONPM_W62</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009101231 7001IC1814SI3110250000</t>
+  </si>
+  <si>
+    <t>H000000434</t>
+  </si>
+  <si>
+    <t>IEMERAL_000009101238 7001IC1820SI3110250000</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1400,431 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCE188-B07B-431E-8EFE-1BD17E5E03C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86129467-ACF2-4C65-9E71-DA2BC731FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Object</t>
   </si>
@@ -48,226 +48,58 @@
     <t>Node</t>
   </si>
   <si>
-    <t>PLEAN_X310001CN5013611 SIT COM C&amp;E Pimi Blue paper</t>
-  </si>
-  <si>
-    <t>H000001595</t>
-  </si>
-  <si>
-    <t>PLEAN_X310101CN5013351 ERB COM C&amp;E Market access for Sales team</t>
-  </si>
-  <si>
-    <t>H000001419</t>
-  </si>
-  <si>
-    <t>PLEAN_X310101CN5013352 ERB COM C&amp;E Market access for Sales team</t>
-  </si>
-  <si>
-    <t>PLEAN_X310101CN5013610 ERB COM C&amp;E BioS differentiation</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015001 O59 COM PROM OTH 影像科调研(biomarker)</t>
-  </si>
-  <si>
-    <t>H000004390</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015002 O59 COM PROM OTH Disease awarenees -人民日报</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015003 O59 COM PROM OTH Disease awarenees -患者组织</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015004 O59 COM PROM OTH Paitents story (wording</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015005 O59 COM PROM OTH Pimi白皮书-患者对疾病认知的调研</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015006 O59 COM PROM OTH Market Research-TGCT Tr</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015500 O59 COM PROM OTH Global funding-Pimi</t>
-  </si>
-  <si>
-    <t>PLEAN_X310112CN5023302 O59 MED MED OTH TGCT Medical Activities</t>
-  </si>
-  <si>
-    <t>H000004392</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5010271 FD COM PROM Fewer and Complete campaign</t>
-  </si>
-  <si>
-    <t>H000001491</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5011201 FD COM ADV Gonal-f 30 years</t>
-  </si>
-  <si>
-    <t>H000001487</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013372 FD COM C&amp;E Better Campaign</t>
-  </si>
-  <si>
-    <t>H000001489</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013373 FD COM C&amp;E Bridge Campaign</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013374 FD COM C&amp;E Project Future</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013375 FD COM C&amp;E Hand in hand campaign</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013376 FD COM C&amp;E Fertility preservation</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5013609 FD COM C&amp;E 辅助生殖十五五规划研究/立法研究</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015307 FD COM PROM OTH 国药诚信数据</t>
-  </si>
-  <si>
-    <t>H000001486</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015308 FD COM PROM OTH Localization of ONE</t>
-  </si>
-  <si>
-    <t>H000001484</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015309 FD COM PROM OTH Localization of IVF Pro</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015310 FD COM PROM OTH Localization of PJOS</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015311 FD COM PROM OTH Localization of PIVOT</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015312 FD COM PROM OTH Implementation of local</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CN5015313 FD COM PROM OTH Early access &amp; GMA relat</t>
-  </si>
-  <si>
-    <t>PLEAN_X310202CN5020339 FD MED MED EDU COS guideline</t>
-  </si>
-  <si>
-    <t>H000001517</t>
-  </si>
-  <si>
-    <t>PLEAN_X310202CN5020340 FD MED MED EDU 科研系列交流会</t>
-  </si>
-  <si>
-    <t>PLEAN_X310202CN5023641 FD MED MED OTH RA Gonal-f 150&amp;300&amp;450IU</t>
-  </si>
-  <si>
-    <t>H000001521</t>
-  </si>
-  <si>
-    <t>PLEAN_X310303CN5020256 DIA R&amp;D MED EDU in depth interview</t>
-  </si>
-  <si>
-    <t>H000001505</t>
-  </si>
-  <si>
-    <t>PLEAN_X310303CN5020257 DIA R&amp;D MED EDU DB digital MSL  program</t>
-  </si>
-  <si>
-    <t>PLEAN_X310303CN5020508 DIA R&amp;D MED EDU MA Diabetes congress-off</t>
-  </si>
-  <si>
-    <t>PLEAN_X310303CN5020509 DIA R&amp;D MED EDU MA Diabetes congress-onl</t>
-  </si>
-  <si>
-    <t>PLEAN_X310303CN5023617 DIA R&amp;D MED OTH RA GIR renewal</t>
-  </si>
-  <si>
-    <t>H000001507</t>
-  </si>
-  <si>
-    <t>PLEAN_X310323CN5020257 CAR R&amp;D MED EDU CV digital  MSL program</t>
-  </si>
-  <si>
-    <t>PLEAN_X310323CN5020507 CAR R&amp;D MED EDU CV MA meeting- online</t>
-  </si>
-  <si>
-    <t>PLEAN_X310323CN5020823 CAR R&amp;D MED EDU CV MSL 3rd party regiona</t>
-  </si>
-  <si>
-    <t>PLEAN_X310331CN5013608 THY COM C&amp;E Community Thyriods Eco-syste</t>
-  </si>
-  <si>
-    <t>PLEAN_X310331CN5015210 Hotspot Region Support Project</t>
-  </si>
-  <si>
-    <t>H000001382</t>
-  </si>
-  <si>
-    <t>PLEAN_X310333CN5020821 THY R&amp;D MED EDU TD 3rd party meetings</t>
-  </si>
-  <si>
-    <t>PLEAN_X310333CN5020822 THY R&amp;D MED EDU TD funding</t>
-  </si>
-  <si>
-    <t>PLEAN_X310941CN5015308 TEP COM PROM OTH ONC TT NRDL</t>
-  </si>
-  <si>
-    <t>H000004119</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BISS_S00</t>
-  </si>
-  <si>
-    <t>H000000423</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$BISS_S30</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_C96</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_D11</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_F98</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSMS_W09</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_E98</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_I56</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$MSPM_T96</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ONPM_O33</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ONPM_W59</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$ONPM_W62</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101231 7001IC1814SI3110250000</t>
-  </si>
-  <si>
-    <t>H000000434</t>
-  </si>
-  <si>
-    <t>IEMERAL_000009101238 7001IC1820SI3110250000</t>
+    <t xml:space="preserve">CNOW_7210$$$0000052369 </t>
+  </si>
+  <si>
+    <t>L000009361</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$P139595864</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$LSWH</t>
+  </si>
+  <si>
+    <t>L000009982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.4141 </t>
+  </si>
+  <si>
+    <t>L000009919</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PSCE_999</t>
+  </si>
+  <si>
+    <t>L000011687</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PSCE_P19</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PSCE_P48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1968.5031 </t>
+  </si>
+  <si>
+    <t>L000011585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.5106 </t>
+  </si>
+  <si>
+    <t>L000011619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.5148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.5951 </t>
+  </si>
+  <si>
+    <t>L000012325</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,15 +1216,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,431 +1232,63 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86129467-ACF2-4C65-9E71-DA2BC731FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2927792-76F6-46B7-8A25-A97F44599A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Object</t>
   </si>
@@ -48,58 +48,37 @@
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">CNOW_7210$$$0000052369 </t>
+    <t>CNOW_7210$$$0000052369</t>
   </si>
   <si>
-    <t>L000009361</t>
+    <t>L000009356</t>
   </si>
   <si>
-    <t>CNOW_7210$$$P139595864</t>
+    <t xml:space="preserve">FD30010800000000 </t>
   </si>
   <si>
-    <t>CSCALA_1759$LSWH</t>
+    <t>L000006431</t>
   </si>
   <si>
-    <t>L000009982</t>
+    <t>CNOW_7210$$$0000015909</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.4141 </t>
+    <t>L000012340</t>
   </si>
   <si>
-    <t>L000009919</t>
+    <t>CNOW_7210$$$0000015908</t>
   </si>
   <si>
-    <t>CSCALA_1042$PSCE_999</t>
+    <t>L000010037</t>
   </si>
   <si>
-    <t>L000011687</t>
+    <t>CNOW_7210$$$0000015912</t>
   </si>
   <si>
-    <t>CSCALA_1042$PSCE_P19</t>
+    <t>CPHOENX_01010000639309 SAP Next ERP Implementation</t>
   </si>
   <si>
-    <t>CSCALA_1042$PSCE_P48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1968.5031 </t>
-  </si>
-  <si>
-    <t>L000011585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.5106 </t>
-  </si>
-  <si>
-    <t>L000011619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.5148 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.5951 </t>
-  </si>
-  <si>
-    <t>L000012325</t>
+    <t>L000013805</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B14:B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,31 +1195,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,47 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2927792-76F6-46B7-8A25-A97F44599A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5F19B-01DA-41D3-AD9F-EA1559F0F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Object</t>
   </si>
@@ -48,37 +48,13 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CNOW_7210$$$0000052369</t>
+    <t>CEMERAL_64010010991319</t>
   </si>
   <si>
-    <t>L000009356</t>
+    <t xml:space="preserve">G000000635 </t>
   </si>
   <si>
-    <t xml:space="preserve">FD30010800000000 </t>
-  </si>
-  <si>
-    <t>L000006431</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015909</t>
-  </si>
-  <si>
-    <t>L000012340</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015908</t>
-  </si>
-  <si>
-    <t>L000010037</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015912</t>
-  </si>
-  <si>
-    <t>CPHOENX_01010000639309 SAP Next ERP Implementation</t>
-  </si>
-  <si>
-    <t>L000013805</t>
+    <t>CEMERAL_64010010991310</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,39 +1171,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5F19B-01DA-41D3-AD9F-EA1559F0F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBC5790-03CB-4D87-81B7-13BE7BDEB690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Object</t>
   </si>
@@ -48,13 +48,169 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_64010010991319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000000635 </t>
-  </si>
-  <si>
-    <t>CEMERAL_64010010991310</t>
+    <t>CSCALA_1721$F07 GBF Oncology</t>
+  </si>
+  <si>
+    <t>H000000162</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E001</t>
+  </si>
+  <si>
+    <t>H000000161</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E002</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E003</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E004</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E005</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E006</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E007</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E008</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E009</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E010</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E011</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E012</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E013</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E014</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E015</t>
+  </si>
+  <si>
+    <t>CSCALA_1759$E016</t>
+  </si>
+  <si>
+    <t>PLEAN_X310111CN5015500 O59 COM PROM OTH Global funding-Pimi</t>
+  </si>
+  <si>
+    <t>PLEAN_X310161CH6814063 MAP: Pricing, Access &amp; Contracting</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181AE5015601 SP PROM OTHERS-FF4-BAVEN V9</t>
+  </si>
+  <si>
+    <t>PLEAN_X310181IT5030227 BAV Other M&amp;S MAP</t>
+  </si>
+  <si>
+    <t>PLEAN_X310182TN5023200 Bavencio global //UC Advisory Board DZ</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201AE5010405 SP PROM MAT-PS-FERT</t>
+  </si>
+  <si>
+    <t>H000000299</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201CH6802049 ESHRE global F04 costs ISS</t>
+  </si>
+  <si>
+    <t>H000000453</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201SA5015301 FER COM-OTHER PROM-SA-GAP</t>
+  </si>
+  <si>
+    <t>H000000303</t>
+  </si>
+  <si>
+    <t>PLEAN_X310201SA5030301 FER COM-OTHER M&amp;S-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301SA5011301 DIA COM-ADVERTISING-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310301SA5015303 DIA COM-OTHER PROM-SA</t>
+  </si>
+  <si>
+    <t>PLEAN_X310401AE5013407 SP CONG/EVENTS-SY-ENDO</t>
+  </si>
+  <si>
+    <t>H000000312</t>
+  </si>
+  <si>
+    <t>PLEAN_X310403AE5043402 R&amp;D REGISTRTAION-IQ-ENDO</t>
+  </si>
+  <si>
+    <t>H000000274</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511CH6802043 ECTRIMS Global Costs ISS F04</t>
+  </si>
+  <si>
+    <t>PLEAN_X310511SA5030302 MAV COM-OTHER M&amp;S-SA-REGISTRATION</t>
+  </si>
+  <si>
+    <t>PLEAN_X310942SA5020301 TEP MED-MED EDUCATION-SA</t>
+  </si>
+  <si>
+    <t>CTEMPNA_1000PH80GFO119 CAO R2P Benfits North America</t>
+  </si>
+  <si>
+    <t>G000000633</t>
+  </si>
+  <si>
+    <t>CSCALA_1820$A100_68</t>
+  </si>
+  <si>
+    <t>H000001142</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$ARAM Electricity</t>
+  </si>
+  <si>
+    <t>H000003642</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$8111_V38</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$TAVH Heating</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$VIZ Water</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$6114_E83</t>
+  </si>
+  <si>
+    <t>H000003640</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$5113_E21</t>
+  </si>
+  <si>
+    <t>CSCALA_1025$5111_E81</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2276HRIF_EIC Healthcare CM Croatia Income</t>
+  </si>
+  <si>
+    <t>H000003637</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1294,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1171,7 +1327,335 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBC5790-03CB-4D87-81B7-13BE7BDEB690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C768C-708A-405B-A39D-44C00AE14A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Object</t>
   </si>
@@ -48,169 +48,172 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CSCALA_1721$F07 GBF Oncology</t>
-  </si>
-  <si>
-    <t>H000000162</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E001</t>
-  </si>
-  <si>
-    <t>H000000161</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E002</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E003</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E004</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E005</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E006</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E007</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E008</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E009</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E010</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E011</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E012</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E013</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E014</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E015</t>
-  </si>
-  <si>
-    <t>CSCALA_1759$E016</t>
-  </si>
-  <si>
-    <t>PLEAN_X310111CN5015500 O59 COM PROM OTH Global funding-Pimi</t>
-  </si>
-  <si>
-    <t>PLEAN_X310161CH6814063 MAP: Pricing, Access &amp; Contracting</t>
-  </si>
-  <si>
-    <t>PLEAN_X310181AE5015601 SP PROM OTHERS-FF4-BAVEN V9</t>
-  </si>
-  <si>
-    <t>PLEAN_X310181IT5030227 BAV Other M&amp;S MAP</t>
-  </si>
-  <si>
-    <t>PLEAN_X310182TN5023200 Bavencio global //UC Advisory Board DZ</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201AE5010405 SP PROM MAT-PS-FERT</t>
-  </si>
-  <si>
-    <t>H000000299</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201CH6802049 ESHRE global F04 costs ISS</t>
-  </si>
-  <si>
-    <t>H000000453</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201SA5015301 FER COM-OTHER PROM-SA-GAP</t>
-  </si>
-  <si>
-    <t>H000000303</t>
-  </si>
-  <si>
-    <t>PLEAN_X310201SA5030301 FER COM-OTHER M&amp;S-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301SA5011301 DIA COM-ADVERTISING-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310301SA5015303 DIA COM-OTHER PROM-SA</t>
-  </si>
-  <si>
-    <t>PLEAN_X310401AE5013407 SP CONG/EVENTS-SY-ENDO</t>
-  </si>
-  <si>
-    <t>H000000312</t>
-  </si>
-  <si>
-    <t>PLEAN_X310403AE5043402 R&amp;D REGISTRTAION-IQ-ENDO</t>
-  </si>
-  <si>
-    <t>H000000274</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511CH6802043 ECTRIMS Global Costs ISS F04</t>
-  </si>
-  <si>
-    <t>PLEAN_X310511SA5030302 MAV COM-OTHER M&amp;S-SA-REGISTRATION</t>
-  </si>
-  <si>
-    <t>PLEAN_X310942SA5020301 TEP MED-MED EDUCATION-SA</t>
-  </si>
-  <si>
-    <t>CTEMPNA_1000PH80GFO119 CAO R2P Benfits North America</t>
-  </si>
-  <si>
-    <t>G000000633</t>
-  </si>
-  <si>
-    <t>CSCALA_1820$A100_68</t>
-  </si>
-  <si>
-    <t>H000001142</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$ARAM Electricity</t>
-  </si>
-  <si>
-    <t>H000003642</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$8111_V38</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$TAVH Heating</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$VIZ Water</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$6114_E83</t>
-  </si>
-  <si>
-    <t>H000003640</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$5113_E21</t>
-  </si>
-  <si>
-    <t>CSCALA_1025$5111_E81</t>
-  </si>
-  <si>
-    <t>CFLTFLE_2276HRIF_EIC Healthcare CM Croatia Income</t>
-  </si>
-  <si>
-    <t>H000003637</t>
+    <t>CEMERAL_70006301992296</t>
+  </si>
+  <si>
+    <t>G000001233</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$3943IT1055</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$ITCC179801</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000010256</t>
+  </si>
+  <si>
+    <t>G000001356</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000015455</t>
+  </si>
+  <si>
+    <t>L000013391</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051657</t>
+  </si>
+  <si>
+    <t>L000013808</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051660</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051708</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057162</t>
+  </si>
+  <si>
+    <t>CORAERP_MMOR1975.9445</t>
+  </si>
+  <si>
+    <t>CSCALA_1042$PMIT</t>
+  </si>
+  <si>
+    <t>G000000277</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000FR40708101</t>
+  </si>
+  <si>
+    <t>G000001240</t>
+  </si>
+  <si>
+    <t>CTEMPEU_1000GB10005697</t>
+  </si>
+  <si>
+    <t>FX31017400000 Bavencio Franchise</t>
+  </si>
+  <si>
+    <t>H000000888</t>
+  </si>
+  <si>
+    <t>FX31050400000 Rebif Franchise</t>
+  </si>
+  <si>
+    <t>FX31051400000 Mavenclad Franchise</t>
+  </si>
+  <si>
+    <t>X31017400000 Bavencio Franchise</t>
+  </si>
+  <si>
+    <t>X31050400000 Rebif Franchise</t>
+  </si>
+  <si>
+    <t>X31051400000 Mavenclad Franchise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000040108 </t>
+  </si>
+  <si>
+    <t>L000010190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000250044 </t>
+  </si>
+  <si>
+    <t>L000013405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000015703 </t>
+  </si>
+  <si>
+    <t>L000013502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000015415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000058825 </t>
+  </si>
+  <si>
+    <t>L000010150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000056127 </t>
+  </si>
+  <si>
+    <t>L000013555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000008098 </t>
+  </si>
+  <si>
+    <t>L000009645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000020047 </t>
+  </si>
+  <si>
+    <t>L000013779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000056951 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNOW_7210$$$0000269002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.5822 </t>
+  </si>
+  <si>
+    <t>L000013671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1917.RLLLX </t>
+  </si>
+  <si>
+    <t>L000009205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1917.RLLMX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1917.RLPLX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.RLLMX </t>
+  </si>
+  <si>
+    <t>L000009206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1975.RLPLX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.RLLMX </t>
+  </si>
+  <si>
+    <t>L000009204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORAERP_MMOR1945.RLPLX </t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,318 +1346,270 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C768C-708A-405B-A39D-44C00AE14A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF112AD2-7851-4B22-BC8A-19706CF28FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dump" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Object</t>
   </si>
@@ -48,172 +48,16 @@
     <t>Node</t>
   </si>
   <si>
-    <t>CEMERAL_70006301992296</t>
-  </si>
-  <si>
-    <t>G000001233</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$3943IT1055</t>
-  </si>
-  <si>
-    <t>G000000279</t>
-  </si>
-  <si>
-    <t>CITR_1000$$$ITCC179801</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000010256</t>
-  </si>
-  <si>
-    <t>G000001356</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000015455</t>
-  </si>
-  <si>
-    <t>L000013391</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051657</t>
-  </si>
-  <si>
-    <t>L000013808</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051660</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000051708</t>
-  </si>
-  <si>
-    <t>CNOW_7210$$$0000057162</t>
-  </si>
-  <si>
-    <t>CORAERP_MMOR1975.9445</t>
-  </si>
-  <si>
-    <t>CSCALA_1042$PMIT</t>
-  </si>
-  <si>
-    <t>G000000277</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000FR40708101</t>
-  </si>
-  <si>
-    <t>G000001240</t>
-  </si>
-  <si>
-    <t>CTEMPEU_1000GB10005697</t>
-  </si>
-  <si>
-    <t>FX31017400000 Bavencio Franchise</t>
-  </si>
-  <si>
-    <t>H000000888</t>
-  </si>
-  <si>
-    <t>FX31050400000 Rebif Franchise</t>
-  </si>
-  <si>
-    <t>FX31051400000 Mavenclad Franchise</t>
-  </si>
-  <si>
-    <t>X31017400000 Bavencio Franchise</t>
-  </si>
-  <si>
-    <t>X31050400000 Rebif Franchise</t>
-  </si>
-  <si>
-    <t>X31051400000 Mavenclad Franchise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000040108 </t>
-  </si>
-  <si>
-    <t>L000010190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000250044 </t>
-  </si>
-  <si>
-    <t>L000013405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000015703 </t>
-  </si>
-  <si>
-    <t>L000013502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000015415 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000058825 </t>
-  </si>
-  <si>
-    <t>L000010150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000056127 </t>
-  </si>
-  <si>
-    <t>L000013555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000008098 </t>
-  </si>
-  <si>
-    <t>L000009645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000020047 </t>
-  </si>
-  <si>
-    <t>L000013779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000056951 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOW_7210$$$0000269002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.5822 </t>
-  </si>
-  <si>
-    <t>L000013671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1917.RLLLX </t>
-  </si>
-  <si>
-    <t>L000009205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1917.RLLMX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1917.RLPLX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.RLLMX </t>
-  </si>
-  <si>
-    <t>L000009206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1975.RLPLX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.RLLMX </t>
-  </si>
-  <si>
     <t>L000009204</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.RLPLX </t>
+    <t xml:space="preserve">CORAERP_MMOR1945.RLPLX PS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEMPEU_003200001401 </t>
+  </si>
+  <si>
+    <t>L000009407</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,10 +1163,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,286 +1175,6 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/PyDump.xlsx
+++ b/Inputs/PyDump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF112AD2-7851-4B22-BC8A-19706CF28FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3436A0F7-968B-4AFC-9386-449A04B0D6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A12B107-397F-4BA6-8F78-4BB99A484E33}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Object</t>
   </si>
@@ -48,16 +48,10 @@
     <t>Node</t>
   </si>
   <si>
-    <t>L000009204</t>
+    <t>CTEMPLA_1000PE10MSCO01 Awareness campaigns (Colombia)</t>
   </si>
   <si>
-    <t xml:space="preserve">CORAERP_MMOR1945.RLPLX PS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEMPEU_003200001401 </t>
-  </si>
-  <si>
-    <t>L000009407</t>
+    <t>H000004091</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544D389-BCBF-4017-8282-1DF88DB28091}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,18 +1157,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
